--- a/data/修改器合集.xlsx
+++ b/data/修改器合集.xlsx
@@ -2311,7 +2311,7 @@
     <t>https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1189490/header.jpg?t=1739615973</t>
   </si>
   <si>
-    <t>https://wwnj.lanzoup.com/iU1AU2im6u1a</t>
+    <t>https://flingtrainer.com/cn/get-latest-trainer.php?name=mi-chang-sheng-trainer</t>
   </si>
   <si>
     <t>神之天平</t>
@@ -9675,13 +9675,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -9691,6 +9684,13 @@
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -10545,8 +10545,8 @@
   <sheetPr/>
   <dimension ref="A1:D1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -12362,7 +12362,7 @@
       <c r="B162" t="s">
         <v>493</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="9" t="s">
         <v>494</v>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       <c r="B173" t="s">
         <v>528</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="9" t="s">
         <v>529</v>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       <c r="B199" t="s">
         <v>606</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="9" t="s">
         <v>607</v>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       <c r="B228" t="s">
         <v>694</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="9" t="s">
         <v>695</v>
       </c>
     </row>
@@ -13141,7 +13141,7 @@
       <c r="B232" t="s">
         <v>706</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="9" t="s">
         <v>707</v>
       </c>
       <c r="D232" s="4" t="s">
@@ -13744,7 +13744,7 @@
       <c r="B286" t="s">
         <v>871</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="9" t="s">
         <v>872</v>
       </c>
     </row>
@@ -22073,1122 +22073,1122 @@
     <hyperlink ref="C225" r:id="rId255" display="https://wwnj.lanzoup.com/i8vHV2im6twf"/>
     <hyperlink ref="C226" r:id="rId256" display="https://wwar.lanzout.com/iIZAZ2zms4vi"/>
     <hyperlink ref="C227" r:id="rId257" display="https://wwnj.lanzoup.com/ijOkF2mg3fnc"/>
-    <hyperlink ref="C228" r:id="rId258" display="https://wwnj.lanzoup.com/iU1AU2im6u1a"/>
-    <hyperlink ref="C229" r:id="rId259" display="https://wwar.lanzout.com/il5U530099xa"/>
-    <hyperlink ref="C230" r:id="rId260" display="https://wwnj.lanzoup.com/iRIK02im6u6f"/>
-    <hyperlink ref="C231" r:id="rId261" display="https://wwar.lanzout.com/iXCVR315m40b"/>
-    <hyperlink ref="C232" r:id="rId262" display="https://wwnj.lanzoup.com/iTbr72im6ucb"/>
-    <hyperlink ref="C233" r:id="rId263" display="https://wwnj.lanzoup.com/iqXWE2im6ugf"/>
-    <hyperlink ref="C234" r:id="rId264" display="https://wwnj.lanzoup.com/i1mmB2im6uhg"/>
-    <hyperlink ref="C235" r:id="rId265" display="https://wwnj.lanzoup.com/i1DTe2im6uih"/>
-    <hyperlink ref="C236" r:id="rId266" display="https://wwnj.lanzoup.com/ijj5E2im6uuj"/>
-    <hyperlink ref="B236" r:id="rId267" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/283640/header.jpg?t=1729712419"/>
-    <hyperlink ref="C237" r:id="rId268" display="https://wwnj.lanzoup.com/iBOnm2im6uxc"/>
-    <hyperlink ref="C238" r:id="rId269" display="https://wwnj.lanzoup.com/iBgxh2im6uze"/>
-    <hyperlink ref="C239" r:id="rId270" display="https://wwnj.lanzoup.com/i579C2im6v2h"/>
-    <hyperlink ref="C240" r:id="rId271" display="https://wwnj.lanzoup.com/ifap32im6v3i"/>
-    <hyperlink ref="C241" r:id="rId272" display="https://wwar.lanzout.com/iJsHW326p7uj"/>
-    <hyperlink ref="C242" r:id="rId273" display="https://wwnj.lanzoup.com/ieGiv2im6v7c"/>
-    <hyperlink ref="C243" r:id="rId274" display="https://wwnj.lanzoup.com/imUN12im6vch"/>
-    <hyperlink ref="C244" r:id="rId275" display="https://wwnj.lanzoup.com/iZtyi2im6vdi"/>
-    <hyperlink ref="C245" r:id="rId276" display="https://wwnj.lanzoup.com/ipcNi2oklc6b"/>
-    <hyperlink ref="C246" r:id="rId277" display="https://wwnj.lanzoup.com/iOzRo2im6vlg"/>
-    <hyperlink ref="C247" r:id="rId278" display="https://wwdl.lanzoul.com/iHTaJ34gjbpe"/>
-    <hyperlink ref="C248" r:id="rId279" display="https://wwnj.lanzoup.com/iiEXO2im6vni"/>
-    <hyperlink ref="C249" r:id="rId280" display="https://wwnj.lanzoup.com/in1Ro2im6voj"/>
-    <hyperlink ref="C250" r:id="rId281" display="https://wwnj.lanzoup.com/iE2QO2uwz49i"/>
-    <hyperlink ref="C251" r:id="rId282" display="https://wwnj.lanzoup.com/iLU7b2im6w1c"/>
-    <hyperlink ref="C252" r:id="rId283" display="https://wwnj.lanzoup.com/iI7BS2im6w6h"/>
-    <hyperlink ref="C253" r:id="rId284" display="https://wwnj.lanzoup.com/icq4L2im6wef"/>
-    <hyperlink ref="C254" r:id="rId285" display="https://wwnj.lanzoup.com/ixwFL2im6wfg"/>
-    <hyperlink ref="C255" r:id="rId286" display="https://wwnj.lanzoup.com/iWKzw2im6wij"/>
-    <hyperlink ref="C256" r:id="rId287" display="https://wwnj.lanzoup.com/i1twT2im6wlc"/>
-    <hyperlink ref="C257" r:id="rId288" display="https://wwnj.lanzoup.com/ioGPZ2im6wne"/>
-    <hyperlink ref="C258" r:id="rId289" display="https://wwnj.lanzoup.com/iVvsy2im6wqh"/>
-    <hyperlink ref="C259" r:id="rId290" display="https://wwnj.lanzoup.com/i59Xm2im6wri"/>
-    <hyperlink ref="C260" r:id="rId291" display="https://wwnj.lanzoup.com/iSLYx2im6wta"/>
-    <hyperlink ref="B260" r:id="rId292" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1167450/header.jpg?t=1752000237" tooltip="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1167450/header.jpg?t=1752000237"/>
-    <hyperlink ref="C261" r:id="rId293" display="https://wwnj.lanzoup.com/iIozv2im6wvc"/>
-    <hyperlink ref="C262" r:id="rId294" display="https://wwnj.lanzoup.com/iLsBk2im6x2j" tooltip="https://wwnj.lanzoup.com/iLsBk2im6x2j"/>
-    <hyperlink ref="C263" r:id="rId295" display="https://wwnj.lanzoup.com/i8FbU2im6y7a"/>
-    <hyperlink ref="C264" r:id="rId296" display="https://wwnj.lanzoup.com/ipC6V2r2pslg"/>
-    <hyperlink ref="C265" r:id="rId297" display="https://wwnj.lanzoup.com/i8RX52im6yad"/>
-    <hyperlink ref="C266" r:id="rId298" display="https://wwnj.lanzoup.com/iJziq2im6ydg"/>
-    <hyperlink ref="C267" r:id="rId299" display="https://wwnj.lanzoup.com/iTEwh2im6yfi"/>
-    <hyperlink ref="C268" r:id="rId300" display="https://wwnj.lanzoup.com/ikSyI2im6yib"/>
-    <hyperlink ref="C269" r:id="rId301" display="https://flingtrainer.com/download-trainer.php?path=%2Fwp-content%2Fuploads%2F2020%2F01%2FMonster.Hunter.World.v20200109-v20231017.Plus.67.Trainer-FLiNG.zip" tooltip="https://flingtrainer.com/download-trainer.php?path=%2Fwp-content%2Fuploads%2F2020%2F01%2FMonster.Hunter.World.v20200109-v20231017.Plus.67.Trainer-FLiNG.zip"/>
-    <hyperlink ref="B269" r:id="rId302" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/582010/header.jpg?t=1734656748"/>
-    <hyperlink ref="C270" r:id="rId303" display="https://wwnj.lanzoup.com/isE612im6ysb"/>
-    <hyperlink ref="B270" r:id="rId304" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/492720/header.jpg?t=1755702256"/>
-    <hyperlink ref="C271" r:id="rId305" display="https://wwnj.lanzoup.com/iKmcb2im6yve"/>
-    <hyperlink ref="C272" r:id="rId306" display="https://wwnj.lanzoup.com/ima0t2im6yxg"/>
-    <hyperlink ref="C273" r:id="rId307" display="https://wwnj.lanzoup.com/innOV2im6yzi"/>
-    <hyperlink ref="B273" r:id="rId308" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1336980/header_schinese.jpg?t=1749086245"/>
-    <hyperlink ref="C274" r:id="rId309" display="https://wwnj.lanzoup.com/iJQFO2im702h"/>
-    <hyperlink ref="C275" r:id="rId310" display="https://wwnj.lanzoup.com/itlfp2im705a"/>
-    <hyperlink ref="C276" r:id="rId311" display="https://wwnj.lanzoup.com/iguNF2owfekd"/>
-    <hyperlink ref="C277" r:id="rId312" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=from-jianghu-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=from-jianghu-trainer"/>
-    <hyperlink ref="C278" r:id="rId313" display="https://wwnj.lanzoup.com/idQoR2im70fa"/>
-    <hyperlink ref="C279" r:id="rId314" display="https://wwnj.lanzoup.com/inuux2im70hc"/>
-    <hyperlink ref="C280" r:id="rId315" display="https://wwar.lanzout.com/iD81Z30fes8j"/>
-    <hyperlink ref="C281" r:id="rId316" display="https://wwnj.lanzoup.com/iXzeN2im70qb"/>
-    <hyperlink ref="C282" r:id="rId317" display="https://wwnj.lanzoup.com/iGtdx2im70te"/>
-    <hyperlink ref="B282" r:id="rId318" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/858820/header_schinese.jpg?t=1754417121"/>
-    <hyperlink ref="C283" r:id="rId319" display="https://wwnj.lanzoup.com/iYeeK2im70wh"/>
-    <hyperlink ref="C284" r:id="rId320" display="https://wwnj.lanzoup.com/it3za2im70za"/>
-    <hyperlink ref="C285" r:id="rId321" display="https://wwnj.lanzoup.com/ixKsE2oklchc"/>
-    <hyperlink ref="C286" r:id="rId322" display="https://wwnj.lanzoup.com/iQHFf2im712d"/>
-    <hyperlink ref="C287" r:id="rId323" display="https://wwnj.lanzoup.com/iQRdW2im715g"/>
-    <hyperlink ref="C288" r:id="rId324" display="https://wwnj.lanzoup.com/io0Sv2im73wf"/>
-    <hyperlink ref="C289" r:id="rId325" display="https://wwnj.lanzoup.com/ivELH2im73xg"/>
-    <hyperlink ref="C290" r:id="rId326" display="https://wwnj.lanzoup.com/iQjm92im742b"/>
-    <hyperlink ref="C291" r:id="rId327" display="https://wwnj.lanzoup.com/iaUT02im744d"/>
-    <hyperlink ref="C292" r:id="rId328" display="https://wwnj.lanzoup.com/iGaYT2im748h" tooltip="https://wwnj.lanzoup.com/iGaYT2im748h"/>
-    <hyperlink ref="C293" r:id="rId329" display="https://wwnj.lanzoup.com/ir3W22im74aj"/>
-    <hyperlink ref="C294" r:id="rId330" display="https://wwnj.lanzoup.com/iDxTY2im74od"/>
-    <hyperlink ref="B294" r:id="rId331" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1999770/header_schinese.jpg?t=1754314153"/>
-    <hyperlink ref="C295" r:id="rId332" display="https://wwnj.lanzoup.com/igxHl2im74sh"/>
-    <hyperlink ref="C296" r:id="rId333" display="https://wwnj.lanzoup.com/ipGKb2im74yd"/>
-    <hyperlink ref="C297" r:id="rId334" display="https://wwnj.lanzoup.com/iqm4m2im752h"/>
-    <hyperlink ref="C298" r:id="rId335" display="https://wwnj.lanzoup.com/is0Es2im756b"/>
-    <hyperlink ref="C299" r:id="rId336" display="https://wwnj.lanzoup.com/ir7ko2luio4f"/>
-    <hyperlink ref="C300" r:id="rId337" display="https://wwnj.lanzoup.com/iXtHs2im759e"/>
-    <hyperlink ref="C301" r:id="rId338" display="https://wwnj.lanzoup.com/iSF0M2oklc4j" tooltip="https://wwnj.lanzoup.com/iSF0M2oklc4j"/>
-    <hyperlink ref="C302" r:id="rId339" display="https://wwnj.lanzoup.com/iVS8q2im76xe"/>
-    <hyperlink ref="C303" r:id="rId340" display="https://wwnj.lanzoup.com/ivrgz2im770h"/>
-    <hyperlink ref="C304" r:id="rId341" display="https://wwnj.lanzoup.com/i5OYw2im771i"/>
-    <hyperlink ref="C305" r:id="rId342" display="https://wwnj.lanzoup.com/iDZCE2im774b"/>
-    <hyperlink ref="C306" r:id="rId343" display="https://wwnj.lanzoup.com/iHism2im777e" tooltip="https://wwnj.lanzoup.com/iHism2im777e"/>
-    <hyperlink ref="C307" r:id="rId344" display="https://wwnj.lanzoup.com/iPthE2im78qj"/>
-    <hyperlink ref="C308" r:id="rId345" display="https://wwnj.lanzoup.com/iKgko2im78sb"/>
-    <hyperlink ref="C309" r:id="rId346" display="https://wwnj.lanzoup.com/ixkHQ2im78xg"/>
-    <hyperlink ref="B26" r:id="rId347" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1604270/b8689ca476cd69990b0d81622c1ae33a736a8654/header_schinese.jpg?t=1752235501"/>
-    <hyperlink ref="C310" r:id="rId348" display="https://wwnj.lanzoup.com/iOwBa2im78zi"/>
-    <hyperlink ref="C311" r:id="rId349" display="https://wwnj.lanzoup.com/i8Q8S2im791a"/>
-    <hyperlink ref="C312" r:id="rId350" display="https://wwnj.lanzoup.com/iPfUS2im794d"/>
-    <hyperlink ref="C313" r:id="rId351" display="https://wwnj.lanzoup.com/ilIlu2im798h"/>
-    <hyperlink ref="C314" r:id="rId352" display="https://wwnj.lanzoup.com/i5Egg2imahaf" tooltip="https://wwnj.lanzoup.com/i5Egg2imahaf"/>
-    <hyperlink ref="C315" r:id="rId353" display="https://wwnj.lanzoup.com/iKZJG2inhpzg"/>
-    <hyperlink ref="C316" r:id="rId354" display="https://wwnj.lanzoup.com/iWSQF2inhq0h"/>
-    <hyperlink ref="C317" r:id="rId355" display="https://wwnj.lanzoup.com/imrjJ2inhq2j"/>
-    <hyperlink ref="C318" r:id="rId356" display="https://wwnj.lanzoup.com/iyh9j2inhq4b"/>
-    <hyperlink ref="C319" r:id="rId357" display="https://wwnj.lanzoup.com/i6Twp2inhq5c"/>
-    <hyperlink ref="C320" r:id="rId358" display="https://wwnj.lanzoup.com/iED732inhq7e"/>
-    <hyperlink ref="C321" r:id="rId359" display="https://wwnj.lanzoup.com/ig05q2inhq8f"/>
-    <hyperlink ref="C322" r:id="rId360" display="https://wwnj.lanzoup.com/iW69T2inhq9g"/>
-    <hyperlink ref="C323" r:id="rId361" display="https://wwnj.lanzoup.com/iS5nV2inhqbi"/>
-    <hyperlink ref="C324" r:id="rId362" display="https://wwnj.lanzoup.com/iNVbH2inhqcj"/>
-    <hyperlink ref="C325" r:id="rId363" display="https://wwnj.lanzoup.com/izSp92oklcmh"/>
-    <hyperlink ref="C326" r:id="rId364" display="https://wwnj.lanzoup.com/il00y2inhqgd"/>
-    <hyperlink ref="C327" r:id="rId365" display="https://wwnj.lanzoup.com/iQ8e72inhqif"/>
-    <hyperlink ref="C328" r:id="rId366" display="https://wwnj.lanzoup.com/i36Oe2inhqna"/>
-    <hyperlink ref="C329" r:id="rId367" display="https://wwnj.lanzoup.com/iFdOM2inhqwj"/>
-    <hyperlink ref="C330" r:id="rId368" display="https://wwnj.lanzoup.com/iZptO2inhqxa"/>
-    <hyperlink ref="C331" r:id="rId369" display="https://wwnj.lanzoup.com/i0lSc2inhqyb"/>
-    <hyperlink ref="C332" r:id="rId370" display="https://wwnj.lanzoup.com/iyy472inhr2f"/>
-    <hyperlink ref="C333" r:id="rId371" display="https://wwnj.lanzoup.com/iB4If2uwz4qf"/>
-    <hyperlink ref="C334" r:id="rId372" display="https://wwnj.lanzoup.com/i8vzC2inhr6j"/>
-    <hyperlink ref="C335" r:id="rId373" display="https://wwnj.lanzoup.com/iXeEd2inhr7a"/>
-    <hyperlink ref="C336" r:id="rId374" display="https://wwnj.lanzoup.com/i7eit2inhrad"/>
-    <hyperlink ref="C337" r:id="rId375" display="https://wwnj.lanzoup.com/irZDU2inhrcf"/>
-    <hyperlink ref="C338" r:id="rId376" display="https://wwnj.lanzoup.com/i1TvB2inhrdg"/>
-    <hyperlink ref="C339" r:id="rId377" display="https://wwnj.lanzoup.com/iVaZR2inhrfi"/>
-    <hyperlink ref="C340" r:id="rId378" display="https://wwnj.lanzoup.com/iqBec2inhrha" tooltip="https://wwnj.lanzoup.com/iqBec2inhrha"/>
-    <hyperlink ref="C341" r:id="rId379" display="https://wwnj.lanzoup.com/ixsem2inhrkd"/>
-    <hyperlink ref="C342" r:id="rId380" display="https://wwnj.lanzoup.com/ihDhn2inhrsb"/>
-    <hyperlink ref="C343" r:id="rId381" display="https://wwnj.lanzoup.com/i8Sod2inhrtc"/>
-    <hyperlink ref="C344" r:id="rId382" display="https://wwnj.lanzoup.com/iWaep2inhrwf"/>
-    <hyperlink ref="C345" r:id="rId383" display="https://wwnj.lanzoup.com/iC7lJ2inhrzi"/>
-    <hyperlink ref="C346" r:id="rId384" display="https://wwnj.lanzoup.com/icqxQ2inhs0j"/>
-    <hyperlink ref="C347" r:id="rId385" display="https://wwnj.lanzoup.com/idjfi2inhs2b"/>
-    <hyperlink ref="C348" r:id="rId386" display="https://wwnj.lanzoup.com/icRqt2inhs5e" tooltip="https://wwnj.lanzoup.com/icRqt2inhs5e"/>
-    <hyperlink ref="C349" r:id="rId387" display="https://wwnj.lanzoup.com/im2u42inhs6f"/>
-    <hyperlink ref="C350" r:id="rId388" display="https://wwnj.lanzoup.com/iPP4V2inhs7g" tooltip="https://wwnj.lanzoup.com/iPP4V2inhs7g"/>
-    <hyperlink ref="C351" r:id="rId389" display="https://wwnj.lanzoup.com/iTyMT2inhs8h"/>
-    <hyperlink ref="C352" r:id="rId390" display="https://wwnj.lanzoup.com/i5Gjh2inhs9i"/>
-    <hyperlink ref="C353" r:id="rId391" display="https://wwnj.lanzoup.com/iZK7c2inhscb"/>
-    <hyperlink ref="C354" r:id="rId392" display="https://wwnj.lanzoup.com/io3ZU2inhsdc"/>
-    <hyperlink ref="C355" r:id="rId393" display="https://wwnj.lanzoup.com/iMm2C2inhsnc" tooltip="https://wwnj.lanzoup.com/iMm2C2inhsnc"/>
-    <hyperlink ref="C356" r:id="rId394" display="https://wwnj.lanzoup.com/iipBt2inhsqf"/>
-    <hyperlink ref="C357" r:id="rId395" display="https://wwnj.lanzoup.com/if0Dm2inhsrg"/>
-    <hyperlink ref="C358" r:id="rId396" display="https://wwnj.lanzoup.com/iWuIQ2inhsti"/>
-    <hyperlink ref="C359" r:id="rId397" display="https://wwnj.lanzoup.com/i3ooB2inhsva"/>
-    <hyperlink ref="C360" r:id="rId398" display="https://wwnj.lanzoup.com/i9gL12inhswb" tooltip="https://wwnj.lanzoup.com/i9gL12inhswb"/>
-    <hyperlink ref="C361" r:id="rId399" display="https://wwnj.lanzoup.com/iMV4m2inhsyd"/>
-    <hyperlink ref="C362" r:id="rId400" display="https://wwnj.lanzoup.com/icu522inhsze"/>
-    <hyperlink ref="C363" r:id="rId401" display="https://wwnj.lanzoup.com/i2D7B2inht0f"/>
-    <hyperlink ref="C364" r:id="rId402" display="https://wwnj.lanzoup.com/iHCQv2inht4j"/>
-    <hyperlink ref="C366" r:id="rId403" display="https://wwnj.lanzoup.com/i6QbE2inht6b"/>
-    <hyperlink ref="C365" r:id="rId404" display="https://wwnj.lanzoup.com/i1KR72inht5a"/>
-    <hyperlink ref="C367" r:id="rId405" display="https://wwnj.lanzoup.com/iIeSR2inht8d"/>
-    <hyperlink ref="C368" r:id="rId406" display="https://wwnj.lanzoup.com/ikeG72inhtte"/>
-    <hyperlink ref="C369" r:id="rId407" display="https://wwnj.lanzoup.com/iTJwu2inhtvg"/>
-    <hyperlink ref="B369" r:id="rId408" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/985830/header.jpg?t=1732656565"/>
-    <hyperlink ref="C370" r:id="rId409" display="https://wwnj.lanzoup.com/iRwkV2inhtwh"/>
-    <hyperlink ref="C371" r:id="rId410" display="https://wwnj.lanzoup.com/iQ72p2inhtyj"/>
-    <hyperlink ref="C372" r:id="rId411" display="https://wwnj.lanzoup.com/iFxhU2inhu0b"/>
-    <hyperlink ref="C373" r:id="rId412" display="https://wwnj.lanzoup.com/iIsG22inhu1c"/>
-    <hyperlink ref="C374" r:id="rId413" display="https://wwnj.lanzoup.com/iRCgy2inhu2d"/>
-    <hyperlink ref="C375" r:id="rId414" display="https://wwnj.lanzoup.com/iRU4T2inhu5g"/>
-    <hyperlink ref="B375" r:id="rId415" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1702330/header.jpg?t=1738960230"/>
-    <hyperlink ref="C376" r:id="rId416" display="https://wwnj.lanzoup.com/iKKMh2inhu6h"/>
-    <hyperlink ref="C377" r:id="rId417" display="https://wwnj.lanzoup.com/iYeT62inhu7i"/>
-    <hyperlink ref="C378" r:id="rId418" display="https://wwnj.lanzoup.com/ibKUP2inhubc"/>
-    <hyperlink ref="B378" r:id="rId419" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/784080/header.jpg?t=1750866924"/>
-    <hyperlink ref="C379" r:id="rId420" display="https://wwnj.lanzoup.com/ieoxa2inhucd"/>
-    <hyperlink ref="C380" r:id="rId421" display="https://wwnj.lanzoup.com/ifLE82inhude"/>
-    <hyperlink ref="B380" r:id="rId422" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1749750/header_schinese.jpg?t=1732584372"/>
-    <hyperlink ref="C381" r:id="rId423" display="https://wwnj.lanzoup.com/i0UBP2inhuef"/>
-    <hyperlink ref="B381" r:id="rId424" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/268910/header.jpg?t=1709068852"/>
-    <hyperlink ref="C382" r:id="rId425" display="https://wwnj.lanzoup.com/iEd7c2inhuta"/>
-    <hyperlink ref="B382" r:id="rId426" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/648800/header.jpg?t=1727184011"/>
-    <hyperlink ref="C383" r:id="rId427" display="https://wwnj.lanzoup.com/iBfxY2inhuyf"/>
-    <hyperlink ref="C384" r:id="rId428" display="https://wwnj.lanzoup.com/ipzbK2inhuzg"/>
-    <hyperlink ref="C385" r:id="rId429" display="https://wwnj.lanzoup.com/iVzw82inhv1i"/>
-    <hyperlink ref="C386" r:id="rId430" display="https://wwnj.lanzoup.com/ig5IF2inhv2j"/>
-    <hyperlink ref="C387" r:id="rId431" display="https://wwnj.lanzoup.com/i4vS12inhv4b"/>
-    <hyperlink ref="C388" r:id="rId432" display="https://wwnj.lanzoup.com/iyuA42inhv6d"/>
-    <hyperlink ref="C389" r:id="rId433" display="https://wwnj.lanzoup.com/imZvy2inhv7e"/>
-    <hyperlink ref="C390" r:id="rId434" display="https://wwnj.lanzoup.com/i9UYs2inhv9g"/>
-    <hyperlink ref="B390" r:id="rId435" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1732330/header.jpg?t=1701195602"/>
-    <hyperlink ref="C391" r:id="rId436" display="https://wwnj.lanzoup.com/iVrge2inhvbi"/>
-    <hyperlink ref="C392" r:id="rId437" display="https://wwnj.lanzoup.com/iDxxg2inhvcj"/>
-    <hyperlink ref="C393" r:id="rId438" display="https://wwnj.lanzoup.com/iJCs82inhvvi"/>
-    <hyperlink ref="C394" r:id="rId439" display="https://wwnj.lanzoup.com/iljOX2inhvwj"/>
-    <hyperlink ref="C395" r:id="rId440" display="https://wwnj.lanzoup.com/iFaTv2inhvxa"/>
-    <hyperlink ref="C396" r:id="rId441" display="https://wwnj.lanzoup.com/ixU7c2inhvyb"/>
-    <hyperlink ref="C397" r:id="rId442" display="https://wwnj.lanzoup.com/iIXQR2inhvzc"/>
-    <hyperlink ref="C398" r:id="rId443" display="https://wwnj.lanzoup.com/iFfXf2inhw0d"/>
-    <hyperlink ref="C399" r:id="rId444" display="https://wwnj.lanzoup.com/iWnwm2inhw1e" tooltip="https://wwnj.lanzoup.com/iWnwm2inhw1e"/>
-    <hyperlink ref="C400" r:id="rId445" display="https://wwnj.lanzoup.com/ipmOA2inhw3g"/>
-    <hyperlink ref="C401" r:id="rId446" display="https://wwnj.lanzoup.com/ijcmf2inhw6j"/>
-    <hyperlink ref="C402" r:id="rId447" display="https://wwnj.lanzoup.com/ifspo2inhw7a"/>
-    <hyperlink ref="C403" r:id="rId448" display="https://wwnj.lanzoup.com/i2vqq2inhw8b"/>
-    <hyperlink ref="C404" r:id="rId449" display="https://wwnj.lanzoup.com/iAwRq2inhw9c"/>
-    <hyperlink ref="C405" r:id="rId450" display="https://wwnj.lanzoup.com/idUEe2inhwbe"/>
-    <hyperlink ref="C406" r:id="rId451" display="https://wwnj.lanzoup.com/iX9kK2inhwcf"/>
-    <hyperlink ref="C407" r:id="rId452" display="https://wwnj.lanzoup.com/io0AY2inl3wf"/>
-    <hyperlink ref="C408" r:id="rId453" display="https://wwnj.lanzoup.com/iUIgs2inl3xg"/>
-    <hyperlink ref="C409" r:id="rId454" display="https://wwnj.lanzoup.com/i6oIr2inl3zi"/>
-    <hyperlink ref="C410" r:id="rId455" display="https://wwnj.lanzoup.com/iBBpp2inl40j"/>
-    <hyperlink ref="C411" r:id="rId456" display="https://wwnj.lanzoup.com/id23V2inl43c"/>
-    <hyperlink ref="C412" r:id="rId457" display="https://wwnj.lanzoup.com/iSPZ52inl46f"/>
-    <hyperlink ref="C413" r:id="rId458" display="https://wwnj.lanzoup.com/iG4Bp2inl49i"/>
-    <hyperlink ref="C414" r:id="rId459" display="https://wwnj.lanzoup.com/iQR7O2inl4aj"/>
-    <hyperlink ref="C415" r:id="rId460" display="https://wwnj.lanzoup.com/i6wT22inl4ba"/>
-    <hyperlink ref="C416" r:id="rId461" display="https://wwar.lanzout.com/ijdL4312an0f"/>
+    <hyperlink ref="C229" r:id="rId258" display="https://wwar.lanzout.com/il5U530099xa"/>
+    <hyperlink ref="C230" r:id="rId259" display="https://wwnj.lanzoup.com/iRIK02im6u6f"/>
+    <hyperlink ref="C231" r:id="rId260" display="https://wwar.lanzout.com/iXCVR315m40b"/>
+    <hyperlink ref="C232" r:id="rId261" display="https://wwnj.lanzoup.com/iTbr72im6ucb"/>
+    <hyperlink ref="C233" r:id="rId262" display="https://wwnj.lanzoup.com/iqXWE2im6ugf"/>
+    <hyperlink ref="C234" r:id="rId263" display="https://wwnj.lanzoup.com/i1mmB2im6uhg"/>
+    <hyperlink ref="C235" r:id="rId264" display="https://wwnj.lanzoup.com/i1DTe2im6uih"/>
+    <hyperlink ref="C236" r:id="rId265" display="https://wwnj.lanzoup.com/ijj5E2im6uuj"/>
+    <hyperlink ref="B236" r:id="rId266" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/283640/header.jpg?t=1729712419"/>
+    <hyperlink ref="C237" r:id="rId267" display="https://wwnj.lanzoup.com/iBOnm2im6uxc"/>
+    <hyperlink ref="C238" r:id="rId268" display="https://wwnj.lanzoup.com/iBgxh2im6uze"/>
+    <hyperlink ref="C239" r:id="rId269" display="https://wwnj.lanzoup.com/i579C2im6v2h"/>
+    <hyperlink ref="C240" r:id="rId270" display="https://wwnj.lanzoup.com/ifap32im6v3i"/>
+    <hyperlink ref="C241" r:id="rId271" display="https://wwar.lanzout.com/iJsHW326p7uj"/>
+    <hyperlink ref="C242" r:id="rId272" display="https://wwnj.lanzoup.com/ieGiv2im6v7c"/>
+    <hyperlink ref="C243" r:id="rId273" display="https://wwnj.lanzoup.com/imUN12im6vch"/>
+    <hyperlink ref="C244" r:id="rId274" display="https://wwnj.lanzoup.com/iZtyi2im6vdi"/>
+    <hyperlink ref="C245" r:id="rId275" display="https://wwnj.lanzoup.com/ipcNi2oklc6b"/>
+    <hyperlink ref="C246" r:id="rId276" display="https://wwnj.lanzoup.com/iOzRo2im6vlg"/>
+    <hyperlink ref="C247" r:id="rId277" display="https://wwdl.lanzoul.com/iHTaJ34gjbpe"/>
+    <hyperlink ref="C248" r:id="rId278" display="https://wwnj.lanzoup.com/iiEXO2im6vni"/>
+    <hyperlink ref="C249" r:id="rId279" display="https://wwnj.lanzoup.com/in1Ro2im6voj"/>
+    <hyperlink ref="C250" r:id="rId280" display="https://wwnj.lanzoup.com/iE2QO2uwz49i"/>
+    <hyperlink ref="C251" r:id="rId281" display="https://wwnj.lanzoup.com/iLU7b2im6w1c"/>
+    <hyperlink ref="C252" r:id="rId282" display="https://wwnj.lanzoup.com/iI7BS2im6w6h"/>
+    <hyperlink ref="C253" r:id="rId283" display="https://wwnj.lanzoup.com/icq4L2im6wef"/>
+    <hyperlink ref="C254" r:id="rId284" display="https://wwnj.lanzoup.com/ixwFL2im6wfg"/>
+    <hyperlink ref="C255" r:id="rId285" display="https://wwnj.lanzoup.com/iWKzw2im6wij"/>
+    <hyperlink ref="C256" r:id="rId286" display="https://wwnj.lanzoup.com/i1twT2im6wlc"/>
+    <hyperlink ref="C257" r:id="rId287" display="https://wwnj.lanzoup.com/ioGPZ2im6wne"/>
+    <hyperlink ref="C258" r:id="rId288" display="https://wwnj.lanzoup.com/iVvsy2im6wqh"/>
+    <hyperlink ref="C259" r:id="rId289" display="https://wwnj.lanzoup.com/i59Xm2im6wri"/>
+    <hyperlink ref="C260" r:id="rId290" display="https://wwnj.lanzoup.com/iSLYx2im6wta"/>
+    <hyperlink ref="B260" r:id="rId291" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1167450/header.jpg?t=1752000237" tooltip="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1167450/header.jpg?t=1752000237"/>
+    <hyperlink ref="C261" r:id="rId292" display="https://wwnj.lanzoup.com/iIozv2im6wvc"/>
+    <hyperlink ref="C262" r:id="rId293" display="https://wwnj.lanzoup.com/iLsBk2im6x2j" tooltip="https://wwnj.lanzoup.com/iLsBk2im6x2j"/>
+    <hyperlink ref="C263" r:id="rId294" display="https://wwnj.lanzoup.com/i8FbU2im6y7a"/>
+    <hyperlink ref="C264" r:id="rId295" display="https://wwnj.lanzoup.com/ipC6V2r2pslg"/>
+    <hyperlink ref="C265" r:id="rId296" display="https://wwnj.lanzoup.com/i8RX52im6yad"/>
+    <hyperlink ref="C266" r:id="rId297" display="https://wwnj.lanzoup.com/iJziq2im6ydg"/>
+    <hyperlink ref="C267" r:id="rId298" display="https://wwnj.lanzoup.com/iTEwh2im6yfi"/>
+    <hyperlink ref="C268" r:id="rId299" display="https://wwnj.lanzoup.com/ikSyI2im6yib"/>
+    <hyperlink ref="C269" r:id="rId300" display="https://flingtrainer.com/download-trainer.php?path=%2Fwp-content%2Fuploads%2F2020%2F01%2FMonster.Hunter.World.v20200109-v20231017.Plus.67.Trainer-FLiNG.zip" tooltip="https://flingtrainer.com/download-trainer.php?path=%2Fwp-content%2Fuploads%2F2020%2F01%2FMonster.Hunter.World.v20200109-v20231017.Plus.67.Trainer-FLiNG.zip"/>
+    <hyperlink ref="B269" r:id="rId301" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/582010/header.jpg?t=1734656748"/>
+    <hyperlink ref="C270" r:id="rId302" display="https://wwnj.lanzoup.com/isE612im6ysb"/>
+    <hyperlink ref="B270" r:id="rId303" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/492720/header.jpg?t=1755702256"/>
+    <hyperlink ref="C271" r:id="rId304" display="https://wwnj.lanzoup.com/iKmcb2im6yve"/>
+    <hyperlink ref="C272" r:id="rId305" display="https://wwnj.lanzoup.com/ima0t2im6yxg"/>
+    <hyperlink ref="C273" r:id="rId306" display="https://wwnj.lanzoup.com/innOV2im6yzi"/>
+    <hyperlink ref="B273" r:id="rId307" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1336980/header_schinese.jpg?t=1749086245"/>
+    <hyperlink ref="C274" r:id="rId308" display="https://wwnj.lanzoup.com/iJQFO2im702h"/>
+    <hyperlink ref="C275" r:id="rId309" display="https://wwnj.lanzoup.com/itlfp2im705a"/>
+    <hyperlink ref="C276" r:id="rId310" display="https://wwnj.lanzoup.com/iguNF2owfekd"/>
+    <hyperlink ref="C277" r:id="rId311" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=from-jianghu-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=from-jianghu-trainer"/>
+    <hyperlink ref="C278" r:id="rId312" display="https://wwnj.lanzoup.com/idQoR2im70fa"/>
+    <hyperlink ref="C279" r:id="rId313" display="https://wwnj.lanzoup.com/inuux2im70hc"/>
+    <hyperlink ref="C280" r:id="rId314" display="https://wwar.lanzout.com/iD81Z30fes8j"/>
+    <hyperlink ref="C281" r:id="rId315" display="https://wwnj.lanzoup.com/iXzeN2im70qb"/>
+    <hyperlink ref="C282" r:id="rId316" display="https://wwnj.lanzoup.com/iGtdx2im70te"/>
+    <hyperlink ref="B282" r:id="rId317" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/858820/header_schinese.jpg?t=1754417121"/>
+    <hyperlink ref="C283" r:id="rId318" display="https://wwnj.lanzoup.com/iYeeK2im70wh"/>
+    <hyperlink ref="C284" r:id="rId319" display="https://wwnj.lanzoup.com/it3za2im70za"/>
+    <hyperlink ref="C285" r:id="rId320" display="https://wwnj.lanzoup.com/ixKsE2oklchc"/>
+    <hyperlink ref="C286" r:id="rId321" display="https://wwnj.lanzoup.com/iQHFf2im712d"/>
+    <hyperlink ref="C287" r:id="rId322" display="https://wwnj.lanzoup.com/iQRdW2im715g"/>
+    <hyperlink ref="C288" r:id="rId323" display="https://wwnj.lanzoup.com/io0Sv2im73wf"/>
+    <hyperlink ref="C289" r:id="rId324" display="https://wwnj.lanzoup.com/ivELH2im73xg"/>
+    <hyperlink ref="C290" r:id="rId325" display="https://wwnj.lanzoup.com/iQjm92im742b"/>
+    <hyperlink ref="C291" r:id="rId326" display="https://wwnj.lanzoup.com/iaUT02im744d"/>
+    <hyperlink ref="C292" r:id="rId327" display="https://wwnj.lanzoup.com/iGaYT2im748h" tooltip="https://wwnj.lanzoup.com/iGaYT2im748h"/>
+    <hyperlink ref="C293" r:id="rId328" display="https://wwnj.lanzoup.com/ir3W22im74aj"/>
+    <hyperlink ref="C294" r:id="rId329" display="https://wwnj.lanzoup.com/iDxTY2im74od"/>
+    <hyperlink ref="B294" r:id="rId330" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1999770/header_schinese.jpg?t=1754314153"/>
+    <hyperlink ref="C295" r:id="rId331" display="https://wwnj.lanzoup.com/igxHl2im74sh"/>
+    <hyperlink ref="C296" r:id="rId332" display="https://wwnj.lanzoup.com/ipGKb2im74yd"/>
+    <hyperlink ref="C297" r:id="rId333" display="https://wwnj.lanzoup.com/iqm4m2im752h"/>
+    <hyperlink ref="C298" r:id="rId334" display="https://wwnj.lanzoup.com/is0Es2im756b"/>
+    <hyperlink ref="C299" r:id="rId335" display="https://wwnj.lanzoup.com/ir7ko2luio4f"/>
+    <hyperlink ref="C300" r:id="rId336" display="https://wwnj.lanzoup.com/iXtHs2im759e"/>
+    <hyperlink ref="C301" r:id="rId337" display="https://wwnj.lanzoup.com/iSF0M2oklc4j" tooltip="https://wwnj.lanzoup.com/iSF0M2oklc4j"/>
+    <hyperlink ref="C302" r:id="rId338" display="https://wwnj.lanzoup.com/iVS8q2im76xe"/>
+    <hyperlink ref="C303" r:id="rId339" display="https://wwnj.lanzoup.com/ivrgz2im770h"/>
+    <hyperlink ref="C304" r:id="rId340" display="https://wwnj.lanzoup.com/i5OYw2im771i"/>
+    <hyperlink ref="C305" r:id="rId341" display="https://wwnj.lanzoup.com/iDZCE2im774b"/>
+    <hyperlink ref="C306" r:id="rId342" display="https://wwnj.lanzoup.com/iHism2im777e" tooltip="https://wwnj.lanzoup.com/iHism2im777e"/>
+    <hyperlink ref="C307" r:id="rId343" display="https://wwnj.lanzoup.com/iPthE2im78qj"/>
+    <hyperlink ref="C308" r:id="rId344" display="https://wwnj.lanzoup.com/iKgko2im78sb"/>
+    <hyperlink ref="C309" r:id="rId345" display="https://wwnj.lanzoup.com/ixkHQ2im78xg"/>
+    <hyperlink ref="B26" r:id="rId346" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1604270/b8689ca476cd69990b0d81622c1ae33a736a8654/header_schinese.jpg?t=1752235501"/>
+    <hyperlink ref="C310" r:id="rId347" display="https://wwnj.lanzoup.com/iOwBa2im78zi"/>
+    <hyperlink ref="C311" r:id="rId348" display="https://wwnj.lanzoup.com/i8Q8S2im791a"/>
+    <hyperlink ref="C312" r:id="rId349" display="https://wwnj.lanzoup.com/iPfUS2im794d"/>
+    <hyperlink ref="C313" r:id="rId350" display="https://wwnj.lanzoup.com/ilIlu2im798h"/>
+    <hyperlink ref="C314" r:id="rId351" display="https://wwnj.lanzoup.com/i5Egg2imahaf" tooltip="https://wwnj.lanzoup.com/i5Egg2imahaf"/>
+    <hyperlink ref="C315" r:id="rId352" display="https://wwnj.lanzoup.com/iKZJG2inhpzg"/>
+    <hyperlink ref="C316" r:id="rId353" display="https://wwnj.lanzoup.com/iWSQF2inhq0h"/>
+    <hyperlink ref="C317" r:id="rId354" display="https://wwnj.lanzoup.com/imrjJ2inhq2j"/>
+    <hyperlink ref="C318" r:id="rId355" display="https://wwnj.lanzoup.com/iyh9j2inhq4b"/>
+    <hyperlink ref="C319" r:id="rId356" display="https://wwnj.lanzoup.com/i6Twp2inhq5c"/>
+    <hyperlink ref="C320" r:id="rId357" display="https://wwnj.lanzoup.com/iED732inhq7e"/>
+    <hyperlink ref="C321" r:id="rId358" display="https://wwnj.lanzoup.com/ig05q2inhq8f"/>
+    <hyperlink ref="C322" r:id="rId359" display="https://wwnj.lanzoup.com/iW69T2inhq9g"/>
+    <hyperlink ref="C323" r:id="rId360" display="https://wwnj.lanzoup.com/iS5nV2inhqbi"/>
+    <hyperlink ref="C324" r:id="rId361" display="https://wwnj.lanzoup.com/iNVbH2inhqcj"/>
+    <hyperlink ref="C325" r:id="rId362" display="https://wwnj.lanzoup.com/izSp92oklcmh"/>
+    <hyperlink ref="C326" r:id="rId363" display="https://wwnj.lanzoup.com/il00y2inhqgd"/>
+    <hyperlink ref="C327" r:id="rId364" display="https://wwnj.lanzoup.com/iQ8e72inhqif"/>
+    <hyperlink ref="C328" r:id="rId365" display="https://wwnj.lanzoup.com/i36Oe2inhqna"/>
+    <hyperlink ref="C329" r:id="rId366" display="https://wwnj.lanzoup.com/iFdOM2inhqwj"/>
+    <hyperlink ref="C330" r:id="rId367" display="https://wwnj.lanzoup.com/iZptO2inhqxa"/>
+    <hyperlink ref="C331" r:id="rId368" display="https://wwnj.lanzoup.com/i0lSc2inhqyb"/>
+    <hyperlink ref="C332" r:id="rId369" display="https://wwnj.lanzoup.com/iyy472inhr2f"/>
+    <hyperlink ref="C333" r:id="rId370" display="https://wwnj.lanzoup.com/iB4If2uwz4qf"/>
+    <hyperlink ref="C334" r:id="rId371" display="https://wwnj.lanzoup.com/i8vzC2inhr6j"/>
+    <hyperlink ref="C335" r:id="rId372" display="https://wwnj.lanzoup.com/iXeEd2inhr7a"/>
+    <hyperlink ref="C336" r:id="rId373" display="https://wwnj.lanzoup.com/i7eit2inhrad"/>
+    <hyperlink ref="C337" r:id="rId374" display="https://wwnj.lanzoup.com/irZDU2inhrcf"/>
+    <hyperlink ref="C338" r:id="rId375" display="https://wwnj.lanzoup.com/i1TvB2inhrdg"/>
+    <hyperlink ref="C339" r:id="rId376" display="https://wwnj.lanzoup.com/iVaZR2inhrfi"/>
+    <hyperlink ref="C340" r:id="rId377" display="https://wwnj.lanzoup.com/iqBec2inhrha" tooltip="https://wwnj.lanzoup.com/iqBec2inhrha"/>
+    <hyperlink ref="C341" r:id="rId378" display="https://wwnj.lanzoup.com/ixsem2inhrkd"/>
+    <hyperlink ref="C342" r:id="rId379" display="https://wwnj.lanzoup.com/ihDhn2inhrsb"/>
+    <hyperlink ref="C343" r:id="rId380" display="https://wwnj.lanzoup.com/i8Sod2inhrtc"/>
+    <hyperlink ref="C344" r:id="rId381" display="https://wwnj.lanzoup.com/iWaep2inhrwf"/>
+    <hyperlink ref="C345" r:id="rId382" display="https://wwnj.lanzoup.com/iC7lJ2inhrzi"/>
+    <hyperlink ref="C346" r:id="rId383" display="https://wwnj.lanzoup.com/icqxQ2inhs0j"/>
+    <hyperlink ref="C347" r:id="rId384" display="https://wwnj.lanzoup.com/idjfi2inhs2b"/>
+    <hyperlink ref="C348" r:id="rId385" display="https://wwnj.lanzoup.com/icRqt2inhs5e" tooltip="https://wwnj.lanzoup.com/icRqt2inhs5e"/>
+    <hyperlink ref="C349" r:id="rId386" display="https://wwnj.lanzoup.com/im2u42inhs6f"/>
+    <hyperlink ref="C350" r:id="rId387" display="https://wwnj.lanzoup.com/iPP4V2inhs7g" tooltip="https://wwnj.lanzoup.com/iPP4V2inhs7g"/>
+    <hyperlink ref="C351" r:id="rId388" display="https://wwnj.lanzoup.com/iTyMT2inhs8h"/>
+    <hyperlink ref="C352" r:id="rId389" display="https://wwnj.lanzoup.com/i5Gjh2inhs9i"/>
+    <hyperlink ref="C353" r:id="rId390" display="https://wwnj.lanzoup.com/iZK7c2inhscb"/>
+    <hyperlink ref="C354" r:id="rId391" display="https://wwnj.lanzoup.com/io3ZU2inhsdc"/>
+    <hyperlink ref="C355" r:id="rId392" display="https://wwnj.lanzoup.com/iMm2C2inhsnc" tooltip="https://wwnj.lanzoup.com/iMm2C2inhsnc"/>
+    <hyperlink ref="C356" r:id="rId393" display="https://wwnj.lanzoup.com/iipBt2inhsqf"/>
+    <hyperlink ref="C357" r:id="rId394" display="https://wwnj.lanzoup.com/if0Dm2inhsrg"/>
+    <hyperlink ref="C358" r:id="rId395" display="https://wwnj.lanzoup.com/iWuIQ2inhsti"/>
+    <hyperlink ref="C359" r:id="rId396" display="https://wwnj.lanzoup.com/i3ooB2inhsva"/>
+    <hyperlink ref="C360" r:id="rId397" display="https://wwnj.lanzoup.com/i9gL12inhswb" tooltip="https://wwnj.lanzoup.com/i9gL12inhswb"/>
+    <hyperlink ref="C361" r:id="rId398" display="https://wwnj.lanzoup.com/iMV4m2inhsyd"/>
+    <hyperlink ref="C362" r:id="rId399" display="https://wwnj.lanzoup.com/icu522inhsze"/>
+    <hyperlink ref="C363" r:id="rId400" display="https://wwnj.lanzoup.com/i2D7B2inht0f"/>
+    <hyperlink ref="C364" r:id="rId401" display="https://wwnj.lanzoup.com/iHCQv2inht4j"/>
+    <hyperlink ref="C366" r:id="rId402" display="https://wwnj.lanzoup.com/i6QbE2inht6b"/>
+    <hyperlink ref="C365" r:id="rId403" display="https://wwnj.lanzoup.com/i1KR72inht5a"/>
+    <hyperlink ref="C367" r:id="rId404" display="https://wwnj.lanzoup.com/iIeSR2inht8d"/>
+    <hyperlink ref="C368" r:id="rId405" display="https://wwnj.lanzoup.com/ikeG72inhtte"/>
+    <hyperlink ref="C369" r:id="rId406" display="https://wwnj.lanzoup.com/iTJwu2inhtvg"/>
+    <hyperlink ref="B369" r:id="rId407" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/985830/header.jpg?t=1732656565"/>
+    <hyperlink ref="C370" r:id="rId408" display="https://wwnj.lanzoup.com/iRwkV2inhtwh"/>
+    <hyperlink ref="C371" r:id="rId409" display="https://wwnj.lanzoup.com/iQ72p2inhtyj"/>
+    <hyperlink ref="C372" r:id="rId410" display="https://wwnj.lanzoup.com/iFxhU2inhu0b"/>
+    <hyperlink ref="C373" r:id="rId411" display="https://wwnj.lanzoup.com/iIsG22inhu1c"/>
+    <hyperlink ref="C374" r:id="rId412" display="https://wwnj.lanzoup.com/iRCgy2inhu2d"/>
+    <hyperlink ref="C375" r:id="rId413" display="https://wwnj.lanzoup.com/iRU4T2inhu5g"/>
+    <hyperlink ref="B375" r:id="rId414" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1702330/header.jpg?t=1738960230"/>
+    <hyperlink ref="C376" r:id="rId415" display="https://wwnj.lanzoup.com/iKKMh2inhu6h"/>
+    <hyperlink ref="C377" r:id="rId416" display="https://wwnj.lanzoup.com/iYeT62inhu7i"/>
+    <hyperlink ref="C378" r:id="rId417" display="https://wwnj.lanzoup.com/ibKUP2inhubc"/>
+    <hyperlink ref="B378" r:id="rId418" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/784080/header.jpg?t=1750866924"/>
+    <hyperlink ref="C379" r:id="rId419" display="https://wwnj.lanzoup.com/ieoxa2inhucd"/>
+    <hyperlink ref="C380" r:id="rId420" display="https://wwnj.lanzoup.com/ifLE82inhude"/>
+    <hyperlink ref="B380" r:id="rId421" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1749750/header_schinese.jpg?t=1732584372"/>
+    <hyperlink ref="C381" r:id="rId422" display="https://wwnj.lanzoup.com/i0UBP2inhuef"/>
+    <hyperlink ref="B381" r:id="rId423" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/268910/header.jpg?t=1709068852"/>
+    <hyperlink ref="C382" r:id="rId424" display="https://wwnj.lanzoup.com/iEd7c2inhuta"/>
+    <hyperlink ref="B382" r:id="rId425" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/648800/header.jpg?t=1727184011"/>
+    <hyperlink ref="C383" r:id="rId426" display="https://wwnj.lanzoup.com/iBfxY2inhuyf"/>
+    <hyperlink ref="C384" r:id="rId427" display="https://wwnj.lanzoup.com/ipzbK2inhuzg"/>
+    <hyperlink ref="C385" r:id="rId428" display="https://wwnj.lanzoup.com/iVzw82inhv1i"/>
+    <hyperlink ref="C386" r:id="rId429" display="https://wwnj.lanzoup.com/ig5IF2inhv2j"/>
+    <hyperlink ref="C387" r:id="rId430" display="https://wwnj.lanzoup.com/i4vS12inhv4b"/>
+    <hyperlink ref="C388" r:id="rId431" display="https://wwnj.lanzoup.com/iyuA42inhv6d"/>
+    <hyperlink ref="C389" r:id="rId432" display="https://wwnj.lanzoup.com/imZvy2inhv7e"/>
+    <hyperlink ref="C390" r:id="rId433" display="https://wwnj.lanzoup.com/i9UYs2inhv9g"/>
+    <hyperlink ref="B390" r:id="rId434" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1732330/header.jpg?t=1701195602"/>
+    <hyperlink ref="C391" r:id="rId435" display="https://wwnj.lanzoup.com/iVrge2inhvbi"/>
+    <hyperlink ref="C392" r:id="rId436" display="https://wwnj.lanzoup.com/iDxxg2inhvcj"/>
+    <hyperlink ref="C393" r:id="rId437" display="https://wwnj.lanzoup.com/iJCs82inhvvi"/>
+    <hyperlink ref="C394" r:id="rId438" display="https://wwnj.lanzoup.com/iljOX2inhvwj"/>
+    <hyperlink ref="C395" r:id="rId439" display="https://wwnj.lanzoup.com/iFaTv2inhvxa"/>
+    <hyperlink ref="C396" r:id="rId440" display="https://wwnj.lanzoup.com/ixU7c2inhvyb"/>
+    <hyperlink ref="C397" r:id="rId441" display="https://wwnj.lanzoup.com/iIXQR2inhvzc"/>
+    <hyperlink ref="C398" r:id="rId442" display="https://wwnj.lanzoup.com/iFfXf2inhw0d"/>
+    <hyperlink ref="C399" r:id="rId443" display="https://wwnj.lanzoup.com/iWnwm2inhw1e" tooltip="https://wwnj.lanzoup.com/iWnwm2inhw1e"/>
+    <hyperlink ref="C400" r:id="rId444" display="https://wwnj.lanzoup.com/ipmOA2inhw3g"/>
+    <hyperlink ref="C401" r:id="rId445" display="https://wwnj.lanzoup.com/ijcmf2inhw6j"/>
+    <hyperlink ref="C402" r:id="rId446" display="https://wwnj.lanzoup.com/ifspo2inhw7a"/>
+    <hyperlink ref="C403" r:id="rId447" display="https://wwnj.lanzoup.com/i2vqq2inhw8b"/>
+    <hyperlink ref="C404" r:id="rId448" display="https://wwnj.lanzoup.com/iAwRq2inhw9c"/>
+    <hyperlink ref="C405" r:id="rId449" display="https://wwnj.lanzoup.com/idUEe2inhwbe"/>
+    <hyperlink ref="C406" r:id="rId450" display="https://wwnj.lanzoup.com/iX9kK2inhwcf"/>
+    <hyperlink ref="C407" r:id="rId451" display="https://wwnj.lanzoup.com/io0AY2inl3wf"/>
+    <hyperlink ref="C408" r:id="rId452" display="https://wwnj.lanzoup.com/iUIgs2inl3xg"/>
+    <hyperlink ref="C409" r:id="rId453" display="https://wwnj.lanzoup.com/i6oIr2inl3zi"/>
+    <hyperlink ref="C410" r:id="rId454" display="https://wwnj.lanzoup.com/iBBpp2inl40j"/>
+    <hyperlink ref="C411" r:id="rId455" display="https://wwnj.lanzoup.com/id23V2inl43c"/>
+    <hyperlink ref="C412" r:id="rId456" display="https://wwnj.lanzoup.com/iSPZ52inl46f"/>
+    <hyperlink ref="C413" r:id="rId457" display="https://wwnj.lanzoup.com/iG4Bp2inl49i"/>
+    <hyperlink ref="C414" r:id="rId458" display="https://wwnj.lanzoup.com/iQR7O2inl4aj"/>
+    <hyperlink ref="C415" r:id="rId459" display="https://wwnj.lanzoup.com/i6wT22inl4ba"/>
+    <hyperlink ref="C416" r:id="rId460" display="https://wwar.lanzout.com/ijdL4312an0f"/>
     <hyperlink ref="C417" r:id="rId22" display="https://wwar.lanzoup.com/iT5Pa2z65d6d"/>
-    <hyperlink ref="C418" r:id="rId462" display="https://wwnj.lanzoup.com/iVtAn2inl4gf"/>
-    <hyperlink ref="C419" r:id="rId463" display="https://wwnj.lanzoup.com/iULAP2inl4hg"/>
-    <hyperlink ref="C420" r:id="rId464" display="https://wwnj.lanzoup.com/irUxA2inl4ih"/>
-    <hyperlink ref="C421" r:id="rId465" display="https://wwnj.lanzoup.com/igX4o2inl4kj"/>
-    <hyperlink ref="C422" r:id="rId466" display="https://wwnj.lanzoup.com/icy172inl4rg"/>
-    <hyperlink ref="C423" r:id="rId467" display="https://wwnj.lanzoup.com/iVVYp2inl4uj" tooltip="https://wwnj.lanzoup.com/iVVYp2inl4uj"/>
-    <hyperlink ref="C424" r:id="rId468" display="https://wwnj.lanzoup.com/i62P02inl4va"/>
-    <hyperlink ref="C425" r:id="rId469" display="https://wwnj.lanzoup.com/iIbCG2inl4xc"/>
-    <hyperlink ref="C426" r:id="rId470" display="https://wwnj.lanzoup.com/iLPZa2inl4ze"/>
-    <hyperlink ref="C427" r:id="rId471" display="https://wwnj.lanzoup.com/igqAW2inl51g"/>
-    <hyperlink ref="C428" r:id="rId472" display="https://wwnj.lanzoup.com/iJpCF2inl54j"/>
-    <hyperlink ref="C429" r:id="rId473" display="https://wwnj.lanzoup.com/i9DlH2inl55a"/>
-    <hyperlink ref="C430" r:id="rId474" display="https://wwnj.lanzoup.com/iw04V2t65clg"/>
-    <hyperlink ref="C431" r:id="rId475" display="https://wwnj.lanzoup.com/ivDus2inl58d"/>
-    <hyperlink ref="C432" r:id="rId476" display="https://wwnj.lanzoup.com/i9UUA2inl59e"/>
-    <hyperlink ref="C433" r:id="rId477" display="https://wwnj.lanzoup.com/iCX762inl5af"/>
-    <hyperlink ref="C434" r:id="rId478" display="https://wwnj.lanzoup.com/iHhws2inl5bg"/>
-    <hyperlink ref="C435" r:id="rId479" display="https://wwnj.lanzoup.com/idXJr2inl5lg"/>
-    <hyperlink ref="C436" r:id="rId480" display="https://wwnj.lanzoup.com/i6GC12inl5mh"/>
-    <hyperlink ref="C437" r:id="rId481" display="https://wwnj.lanzoup.com/izBHa2inl5oj"/>
-    <hyperlink ref="C438" r:id="rId482" display="https://wwnj.lanzoup.com/ip1Ht2inl5pa"/>
-    <hyperlink ref="C439" r:id="rId483" display="https://wwnj.lanzoup.com/iAkDF2inl5rc"/>
-    <hyperlink ref="C440" r:id="rId484" display="https://wwnj.lanzoup.com/iq7xj2inl5te"/>
-    <hyperlink ref="C441" r:id="rId485" display="https://wwnj.lanzoup.com/iFi4H2inl5vg"/>
-    <hyperlink ref="C442" r:id="rId486" display="https://wwnj.lanzoup.com/igEUb2inl5wh" tooltip="https://wwnj.lanzoup.com/igEUb2inl5wh"/>
-    <hyperlink ref="C443" r:id="rId487" display="https://wwnj.lanzoup.com/iHOeG2inl5xi"/>
-    <hyperlink ref="C444" r:id="rId488" display="https://wwnj.lanzoup.com/iEoj32inl60b"/>
-    <hyperlink ref="C445" r:id="rId489" display="https://wwnj.lanzoup.com/isds12inl62d"/>
-    <hyperlink ref="C446" r:id="rId490" display="https://wwnj.lanzoup.com/iSalx2inl63e"/>
-    <hyperlink ref="C447" r:id="rId491" display="https://wwnj.lanzoup.com/iE5dK2inl64f"/>
-    <hyperlink ref="C448" r:id="rId492" display="https://wwnj.lanzoup.com/isCo72inl67i"/>
-    <hyperlink ref="C449" r:id="rId493" display="https://wwnj.lanzoup.com/iRhPX2inl69a"/>
-    <hyperlink ref="C450" r:id="rId494" display="https://wwnj.lanzoup.com/iCDib2ukuu1e"/>
-    <hyperlink ref="C451" r:id="rId495" display="https://wwnj.lanzoup.com/iCWlT2inl6zg"/>
-    <hyperlink ref="C452" r:id="rId496" display="https://wwnj.lanzoup.com/ieI9L2inl72j"/>
-    <hyperlink ref="C453" r:id="rId497" display="https://wwnj.lanzoup.com/iOWOY2inl76d"/>
-    <hyperlink ref="C454" r:id="rId498" display="https://wwnj.lanzoup.com/i891H2inl77e" tooltip="https://wwnj.lanzoup.com/i891H2inl77e"/>
-    <hyperlink ref="C455" r:id="rId499" display="https://wwnj.lanzoup.com/iTKTB2inl79g"/>
-    <hyperlink ref="C456" r:id="rId500" display="https://wwnj.lanzoup.com/iRMXg2j9qkre"/>
+    <hyperlink ref="C418" r:id="rId461" display="https://wwnj.lanzoup.com/iVtAn2inl4gf"/>
+    <hyperlink ref="C419" r:id="rId462" display="https://wwnj.lanzoup.com/iULAP2inl4hg"/>
+    <hyperlink ref="C420" r:id="rId463" display="https://wwnj.lanzoup.com/irUxA2inl4ih"/>
+    <hyperlink ref="C421" r:id="rId464" display="https://wwnj.lanzoup.com/igX4o2inl4kj"/>
+    <hyperlink ref="C422" r:id="rId465" display="https://wwnj.lanzoup.com/icy172inl4rg"/>
+    <hyperlink ref="C423" r:id="rId466" display="https://wwnj.lanzoup.com/iVVYp2inl4uj" tooltip="https://wwnj.lanzoup.com/iVVYp2inl4uj"/>
+    <hyperlink ref="C424" r:id="rId467" display="https://wwnj.lanzoup.com/i62P02inl4va"/>
+    <hyperlink ref="C425" r:id="rId468" display="https://wwnj.lanzoup.com/iIbCG2inl4xc"/>
+    <hyperlink ref="C426" r:id="rId469" display="https://wwnj.lanzoup.com/iLPZa2inl4ze"/>
+    <hyperlink ref="C427" r:id="rId470" display="https://wwnj.lanzoup.com/igqAW2inl51g"/>
+    <hyperlink ref="C428" r:id="rId471" display="https://wwnj.lanzoup.com/iJpCF2inl54j"/>
+    <hyperlink ref="C429" r:id="rId472" display="https://wwnj.lanzoup.com/i9DlH2inl55a"/>
+    <hyperlink ref="C430" r:id="rId473" display="https://wwnj.lanzoup.com/iw04V2t65clg"/>
+    <hyperlink ref="C431" r:id="rId474" display="https://wwnj.lanzoup.com/ivDus2inl58d"/>
+    <hyperlink ref="C432" r:id="rId475" display="https://wwnj.lanzoup.com/i9UUA2inl59e"/>
+    <hyperlink ref="C433" r:id="rId476" display="https://wwnj.lanzoup.com/iCX762inl5af"/>
+    <hyperlink ref="C434" r:id="rId477" display="https://wwnj.lanzoup.com/iHhws2inl5bg"/>
+    <hyperlink ref="C435" r:id="rId478" display="https://wwnj.lanzoup.com/idXJr2inl5lg"/>
+    <hyperlink ref="C436" r:id="rId479" display="https://wwnj.lanzoup.com/i6GC12inl5mh"/>
+    <hyperlink ref="C437" r:id="rId480" display="https://wwnj.lanzoup.com/izBHa2inl5oj"/>
+    <hyperlink ref="C438" r:id="rId481" display="https://wwnj.lanzoup.com/ip1Ht2inl5pa"/>
+    <hyperlink ref="C439" r:id="rId482" display="https://wwnj.lanzoup.com/iAkDF2inl5rc"/>
+    <hyperlink ref="C440" r:id="rId483" display="https://wwnj.lanzoup.com/iq7xj2inl5te"/>
+    <hyperlink ref="C441" r:id="rId484" display="https://wwnj.lanzoup.com/iFi4H2inl5vg"/>
+    <hyperlink ref="C442" r:id="rId485" display="https://wwnj.lanzoup.com/igEUb2inl5wh" tooltip="https://wwnj.lanzoup.com/igEUb2inl5wh"/>
+    <hyperlink ref="C443" r:id="rId486" display="https://wwnj.lanzoup.com/iHOeG2inl5xi"/>
+    <hyperlink ref="C444" r:id="rId487" display="https://wwnj.lanzoup.com/iEoj32inl60b"/>
+    <hyperlink ref="C445" r:id="rId488" display="https://wwnj.lanzoup.com/isds12inl62d"/>
+    <hyperlink ref="C446" r:id="rId489" display="https://wwnj.lanzoup.com/iSalx2inl63e"/>
+    <hyperlink ref="C447" r:id="rId490" display="https://wwnj.lanzoup.com/iE5dK2inl64f"/>
+    <hyperlink ref="C448" r:id="rId491" display="https://wwnj.lanzoup.com/isCo72inl67i"/>
+    <hyperlink ref="C449" r:id="rId492" display="https://wwnj.lanzoup.com/iRhPX2inl69a"/>
+    <hyperlink ref="C450" r:id="rId493" display="https://wwnj.lanzoup.com/iCDib2ukuu1e"/>
+    <hyperlink ref="C451" r:id="rId494" display="https://wwnj.lanzoup.com/iCWlT2inl6zg"/>
+    <hyperlink ref="C452" r:id="rId495" display="https://wwnj.lanzoup.com/ieI9L2inl72j"/>
+    <hyperlink ref="C453" r:id="rId496" display="https://wwnj.lanzoup.com/iOWOY2inl76d"/>
+    <hyperlink ref="C454" r:id="rId497" display="https://wwnj.lanzoup.com/i891H2inl77e" tooltip="https://wwnj.lanzoup.com/i891H2inl77e"/>
+    <hyperlink ref="C455" r:id="rId498" display="https://wwnj.lanzoup.com/iTKTB2inl79g"/>
+    <hyperlink ref="C456" r:id="rId499" display="https://wwnj.lanzoup.com/iRMXg2j9qkre"/>
     <hyperlink ref="B457" r:id="rId1" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1850570/header.jpg?t=1750697259" tooltip="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1850570/header.jpg?t=1750697259"/>
-    <hyperlink ref="C457" r:id="rId501" display="https://wwnj.lanzoup.com/iTFOq2inhv5c" tooltip="https://wwnj.lanzoup.com/iTFOq2inhv5c"/>
-    <hyperlink ref="D7" r:id="rId502" display="https://wwdl.lanzoul.com/ihaJH34p2tji"/>
-    <hyperlink ref="D10" r:id="rId503" display="https://wwdl.lanzoul.com/iZUmf34kqrkb"/>
-    <hyperlink ref="D31" r:id="rId504" display="https://wwnj.lanzn.com/iJb5q2wzv49e"/>
-    <hyperlink ref="D32" r:id="rId505" display="https://wwnj.lanzn.com/ioBX72xmj45g"/>
-    <hyperlink ref="D50" r:id="rId506" display="https://wwdl.lanzoul.com/i8XAQ34261ah"/>
-    <hyperlink ref="D52" r:id="rId507" display="https://wwnj.lanzoup.com/ioFeX2im0l4d"/>
-    <hyperlink ref="D97" r:id="rId508" display="https://wwnj.lanzoup.com/ihjrp2uwz4dc"/>
-    <hyperlink ref="D148" r:id="rId509" display="https://wwnj.lanzoup.com/itOG32im0jgd"/>
-    <hyperlink ref="D167" r:id="rId510" display="https://wwnj.lanzoup.com/isson2im0nub"/>
-    <hyperlink ref="D170" r:id="rId511" display="https://wwnj.lanzoup.com/imfWi2im0o6d"/>
-    <hyperlink ref="D207" r:id="rId512" display="https://wwnj.lanzoup.com/ifnMG2im12pg"/>
-    <hyperlink ref="D232" r:id="rId513" display="https://wwnj.lanzoup.com/irn4c2im6udc"/>
-    <hyperlink ref="D252" r:id="rId514" display="https://wwnj.lanzoup.com/irBiy2im6w9a"/>
-    <hyperlink ref="D269" r:id="rId515" display="https://wwnj.lanzoup.com/i5diO2im6ypi"/>
-    <hyperlink ref="D307" r:id="rId516" display="https://wwnj.lanzoup.com/iyuAq2im78mf"/>
-    <hyperlink ref="D312" r:id="rId517" display="https://wwnj.lanzoup.com/iyJWD2im796f"/>
-    <hyperlink ref="D324" r:id="rId518" display="https://wwnj.lanzoup.com/iFkyg2inhqeb"/>
-    <hyperlink ref="D367" r:id="rId519" display="https://wwnj.lanzoup.com/i7T522inht9e"/>
-    <hyperlink ref="D410" r:id="rId520" display="https://wwnj.lanzoup.com/iyeAU2inl42b"/>
-    <hyperlink ref="C458" r:id="rId521" display="https://wwnj.lanzoup.com/id6Vl2inl7cj"/>
-    <hyperlink ref="C459" r:id="rId522" display="https://wwnj.lanzoup.com/i5WU42inl7da"/>
-    <hyperlink ref="C460" r:id="rId523" display="https://wwnj.lanzoup.com/i9qCP2inl7eb"/>
-    <hyperlink ref="C461" r:id="rId524" display="https://wwnj.lanzoup.com/i95Xh2inl7he"/>
-    <hyperlink ref="C462" r:id="rId525" display="https://wwnj.lanzoup.com/iNyXZ2inl7if"/>
-    <hyperlink ref="C463" r:id="rId526" display="https://wwnj.lanzoup.com/iSQlG2inl7qd"/>
-    <hyperlink ref="C464" r:id="rId527" display="https://wwnj.lanzoup.com/iHO2R2inl7re"/>
-    <hyperlink ref="C465" r:id="rId528" display="https://wwnj.lanzoup.com/iOQFb2inl7sf"/>
-    <hyperlink ref="C466" r:id="rId529" display="https://wwnj.lanzoup.com/iAU532inl7tg"/>
-    <hyperlink ref="C467" r:id="rId530" display="https://wwnj.lanzoup.com/iCgLA2inl7uh"/>
-    <hyperlink ref="C468" r:id="rId531" display="https://wwnj.lanzoup.com/ialOB2inl7vi"/>
-    <hyperlink ref="C469" r:id="rId532" display="https://wwnj.lanzoup.com/iL2xw2inl7xa"/>
-    <hyperlink ref="C470" r:id="rId533" display="https://wwnj.lanzoup.com/iJArx2inl7zc"/>
-    <hyperlink ref="C471" r:id="rId534" display="https://wwnj.lanzoup.com/ihoIl2inl80d"/>
-    <hyperlink ref="C472" r:id="rId535" display="https://wwnj.lanzoup.com/i8i2J2inl81e"/>
-    <hyperlink ref="C473" r:id="rId536" display="https://wwnj.lanzoup.com/ieAP42inl82f"/>
-    <hyperlink ref="B473" r:id="rId537" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/268500/header.jpg?t=1646157374"/>
-    <hyperlink ref="C474" r:id="rId538" display="https://wwnj.lanzoup.com/iIXbg2inl84h"/>
-    <hyperlink ref="C475" r:id="rId539" display="https://wwnj.lanzoup.com/i4wtz2inl85i"/>
-    <hyperlink ref="D475" r:id="rId540" display="https://wwnj.lanzoup.com/ialua2inl87a"/>
-    <hyperlink ref="C476" r:id="rId541" display="https://wwnj.lanzoup.com/ikZvm2inl89c"/>
-    <hyperlink ref="C477" r:id="rId542" display="https://wwnj.lanzoup.com/iJXoO2inl8tc"/>
-    <hyperlink ref="C478" r:id="rId543" display="https://wwnj.lanzoup.com/igYef2inl8ve"/>
-    <hyperlink ref="C479" r:id="rId544" display="https://wwnj.lanzoup.com/i9L1G2inl8xg"/>
-    <hyperlink ref="C480" r:id="rId545" display="https://wwnj.lanzoup.com/iZPCg2inl8zi"/>
-    <hyperlink ref="B481" r:id="rId546" display="https://ts4.tc.mm.bing.net/th/id/OIP-C.Y-7TVooVsys5Khae4La6VQHaEo?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C481" r:id="rId547" display="https://wwnj.lanzoup.com/iNsf62inl90j"/>
-    <hyperlink ref="C482" r:id="rId548" display="https://wwnj.lanzoup.com/iWvTn2m32ipi"/>
-    <hyperlink ref="C483" r:id="rId549" display="https://wwnj.lanzoup.com/ioBZp2inl96f"/>
-    <hyperlink ref="C484" r:id="rId550" display="https://wwnj.lanzoup.com/ii4fT2inl97g"/>
-    <hyperlink ref="C485" r:id="rId551" display="https://wwnj.lanzoup.com/iLNd12inl98h"/>
-    <hyperlink ref="C486" r:id="rId552" display="https://wwnj.lanzoup.com/iVgXU2inl99i"/>
-    <hyperlink ref="C487" r:id="rId553" display="https://wwnj.lanzoup.com/iqGw42inl9aj" tooltip="https://wwnj.lanzoup.com/iqGw42inl9aj"/>
-    <hyperlink ref="C488" r:id="rId554" display="https://wwnj.lanzoup.com/idAFB2inl9cb"/>
-    <hyperlink ref="C489" r:id="rId555" display="https://wwnj.lanzoup.com/isfx62inl9gf"/>
-    <hyperlink ref="C490" r:id="rId556" display="https://wwnj.lanzoup.com/iQWZ22inl9ji"/>
-    <hyperlink ref="B490" r:id="rId557" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/535930/header_schinese.jpg?t=1726486228"/>
-    <hyperlink ref="C491" r:id="rId558" display="https://wwnj.lanzoup.com/irqB02inl9uj"/>
-    <hyperlink ref="C492" r:id="rId559" display="https://wwnj.lanzoup.com/iCSIu2inl9va"/>
-    <hyperlink ref="C493" r:id="rId560" display="https://wwnj.lanzoup.com/izeez2inl9xc"/>
-    <hyperlink ref="C494" r:id="rId561" display="https://wwnj.lanzoup.com/iJVNu2inl9ze"/>
-    <hyperlink ref="C495" r:id="rId562" display="https://wwnj.lanzoup.com/iA2sc2inla0f"/>
-    <hyperlink ref="C496" r:id="rId563" display="https://wwnj.lanzoup.com/ioN302inla2h"/>
-    <hyperlink ref="C497" r:id="rId564" display="https://wwnj.lanzoup.com/iv2LV2inla3i"/>
-    <hyperlink ref="C498" r:id="rId565" display="https://wwnj.lanzoup.com/ijTxr2inla5a"/>
-    <hyperlink ref="C499" r:id="rId566" display="https://wwnj.lanzoup.com/iBe8h2inla6b"/>
-    <hyperlink ref="C500" r:id="rId567" display="https://wwnj.lanzoup.com/iB9Nf2inrvqd"/>
-    <hyperlink ref="C501" r:id="rId568" display="https://wwnj.lanzoup.com/ibWmr2inrvtg"/>
-    <hyperlink ref="C502" r:id="rId569" display="https://wwnj.lanzoup.com/in5MA2inrvvi"/>
-    <hyperlink ref="C503" r:id="rId570" display="https://wwnj.lanzoup.com/iKy402inrvyb"/>
-    <hyperlink ref="C504" r:id="rId571" display="https://wwnj.lanzoup.com/i1TuM2inrw0d"/>
-    <hyperlink ref="B504" r:id="rId572" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1163550/header.jpg?t=1718965999"/>
-    <hyperlink ref="D504" r:id="rId573" display="https://wwnj.lanzoup.com/iXVCn2inrw2f"/>
-    <hyperlink ref="C505" r:id="rId574" display="https://wwnj.lanzoup.com/ixyS12inrw4h"/>
-    <hyperlink ref="C506" r:id="rId575" display="https://wwnj.lanzoup.com/iPUzl2inrw7a"/>
-    <hyperlink ref="C507" r:id="rId576" display="https://wwnj.lanzoup.com/i34UP2inrw9c"/>
-    <hyperlink ref="B507" r:id="rId577" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/897450/header.jpg?t=1729002422"/>
-    <hyperlink ref="C508" r:id="rId578" display="https://wwnj.lanzoup.com/ibVT22j9qkif"/>
-    <hyperlink ref="C509" r:id="rId579" display="https://wwnj.lanzoup.com/ipg1Q2inrweh"/>
-    <hyperlink ref="C510" r:id="rId580" display="https://wwnj.lanzoup.com/iX3fg2inrwha"/>
-    <hyperlink ref="C511" r:id="rId581" display="https://wwnj.lanzoup.com/ihRje2inrwjc"/>
-    <hyperlink ref="C512" r:id="rId582" display="https://wwnj.lanzoup.com/ieR3u2inrwle"/>
-    <hyperlink ref="C513" r:id="rId583" display="https://wwnj.lanzoup.com/iFMb52inrwng"/>
-    <hyperlink ref="C514" r:id="rId584" display="https://wwnj.lanzoup.com/inREq2inrx0j"/>
-    <hyperlink ref="C515" r:id="rId585" display="https://wwnj.lanzoup.com/iCeJX2inrx3c"/>
-    <hyperlink ref="C516" r:id="rId586" display="https://wwnj.lanzoup.com/iOUpv2inrx8h"/>
-    <hyperlink ref="C517" r:id="rId587" display="https://wwnj.lanzoup.com/ii5662inrxaj"/>
-    <hyperlink ref="C518" r:id="rId588" display="https://wwnj.lanzoup.com/iWfgw2inrxdc"/>
-    <hyperlink ref="C519" r:id="rId589" display="https://wwnj.lanzoup.com/is9MS2inrxih"/>
-    <hyperlink ref="C520" r:id="rId590" display="https://wwnj.lanzoup.com/iKYy72inrxji"/>
-    <hyperlink ref="C521" r:id="rId591" display="https://wwnj.lanzoup.com/iH8SY2inrxnc"/>
-    <hyperlink ref="C522" r:id="rId592" display="https://wwnj.lanzoup.com/iV2602inrxqf" tooltip="https://wwnj.lanzoup.com/iV2602inrxqf"/>
-    <hyperlink ref="C523" r:id="rId593" display="https://wwnj.lanzoup.com/iwzxT2inrxva"/>
-    <hyperlink ref="C524" r:id="rId594" display="https://wwnj.lanzoup.com/it4t82inrxyd"/>
-    <hyperlink ref="C525" r:id="rId595" display="https://wwnj.lanzoup.com/i5VKv2inry0f"/>
-    <hyperlink ref="C526" r:id="rId596" display="https://wwnj.lanzoup.com/ifRko2inrz5g"/>
-    <hyperlink ref="B526" r:id="rId597" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1030840/header.jpg?t=1756416537"/>
-    <hyperlink ref="C527" r:id="rId598" display="https://wwnj.lanzoup.com/ipch72inrz7i"/>
-    <hyperlink ref="B527" r:id="rId599" display="https://www.konami.com/kde_cms/eu_publish/uploads/mock-visual_pes2021.jpg"/>
-    <hyperlink ref="C528" r:id="rId600" display="https://wwnj.lanzoup.com/iTzS42inrz9a"/>
-    <hyperlink ref="C529" r:id="rId601" display="https://wwnj.lanzoup.com/i2vvk2inrzbc"/>
-    <hyperlink ref="C530" r:id="rId602" display="https://wwnj.lanzoup.com/iNjPU2inrzde"/>
-    <hyperlink ref="C531" r:id="rId603" display="https://wwnj.lanzoup.com/iKH8P2inrzfg"/>
-    <hyperlink ref="C532" r:id="rId604" display="https://wwnj.lanzoup.com/iEiJU2inrzja"/>
-    <hyperlink ref="C533" r:id="rId605" display="https://wwnj.lanzoup.com/iqMO22inrzof"/>
-    <hyperlink ref="C534" r:id="rId606" display="https://wwnj.lanzoup.com/iyN8k2inrzqh"/>
-    <hyperlink ref="C535" r:id="rId607" display="https://wwnj.lanzoup.com/iQ4Ei2inrzri"/>
-    <hyperlink ref="B535" r:id="rId608" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1266220/header_schinese.jpg?t=1730837550"/>
-    <hyperlink ref="C536" r:id="rId609" display="https://wwnj.lanzoup.com/iotJh2inrzvc"/>
-    <hyperlink ref="C537" r:id="rId610" display="https://wwnj.lanzoup.com/ije5w2ins00h"/>
-    <hyperlink ref="C538" r:id="rId611" display="https://wwnj.lanzoup.com/i91dq2ins02j"/>
-    <hyperlink ref="C539" r:id="rId612" display="https://wwnj.lanzoup.com/iN6LE2ins04b"/>
-    <hyperlink ref="C540" r:id="rId613" display="https://wwnj.lanzoup.com/iMovg2ins0xa" tooltip="https://wwnj.lanzoup.com/iMovg2ins0xa"/>
-    <hyperlink ref="C541" r:id="rId614" display="https://wwnj.lanzoup.com/iqPaV2ins11e"/>
-    <hyperlink ref="C542" r:id="rId615" display="https://wwnj.lanzoup.com/ixXz42ins19c"/>
-    <hyperlink ref="C543" r:id="rId616" display="https://wwnj.lanzoup.com/iClVY2ins1dg"/>
-    <hyperlink ref="C544" r:id="rId617" display="https://wwnj.lanzoup.com/i3VWm2ins1gj"/>
-    <hyperlink ref="C545" r:id="rId618" display="https://wwnj.lanzoup.com/inySC2ins1kd"/>
-    <hyperlink ref="C546" r:id="rId619" display="https://wwnj.lanzoup.com/iQDQU2ins1ng"/>
-    <hyperlink ref="C547" r:id="rId620" display="https://wwnj.lanzoup.com/iHsRP2ins1ra"/>
-    <hyperlink ref="B547" r:id="rId621" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/969990/header.jpg?t=1754079607"/>
-    <hyperlink ref="C548" r:id="rId622" display="https://wwnj.lanzoup.com/imxfK2ins1ud"/>
-    <hyperlink ref="C549" r:id="rId623" display="https://wwnj.lanzoup.com/icITv2ins1xg"/>
-    <hyperlink ref="C550" r:id="rId624" display="https://wwar.lanzout.com/iRvXq336eueb"/>
-    <hyperlink ref="C551" r:id="rId625" display="https://wwnj.lanzoup.com/i0b4b2ins24d"/>
-    <hyperlink ref="C552" r:id="rId626" display="https://wwnj.lanzoup.com/iAvSV2ins2wb"/>
-    <hyperlink ref="C553" r:id="rId627" display="https://wwnj.lanzoup.com/iPEGu2ins2yd"/>
-    <hyperlink ref="C554" r:id="rId628" display="https://wwnj.lanzoup.com/iGMIA2ins30f"/>
-    <hyperlink ref="C555" r:id="rId629" display="https://wwnj.lanzoup.com/iUqRi2ins34j"/>
-    <hyperlink ref="C556" r:id="rId630" display="https://wwnj.lanzoup.com/i2PAD2ins36b"/>
-    <hyperlink ref="C557" r:id="rId631" display="https://wwnj.lanzoup.com/ikq982ins39e"/>
-    <hyperlink ref="C558" r:id="rId632" display="https://wwnj.lanzoup.com/iO1L82ins3bg"/>
-    <hyperlink ref="D557" r:id="rId515" display="https://wwnj.lanzoup.com/i5diO2im6ypi"/>
-    <hyperlink ref="C559" r:id="rId633" display="https://wwar.lanzout.com/iFV8s3176b6f"/>
-    <hyperlink ref="C560" r:id="rId634" display="https://wwnj.lanzoup.com/iB1UW2ins3ej"/>
-    <hyperlink ref="B560" r:id="rId635" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/646270/header.jpg?t=1737718717"/>
-    <hyperlink ref="C561" r:id="rId636" display="https://wwnj.lanzoup.com/iiXvb2ins3id"/>
-    <hyperlink ref="C562" r:id="rId637" display="https://wwnj.lanzoup.com/itzoj2ins3lg"/>
-    <hyperlink ref="C563" r:id="rId638" display="https://wwnj.lanzoup.com/iV9f52ins3mh"/>
-    <hyperlink ref="C564" r:id="rId639" display="https://wwnj.lanzoup.com/iZz5t2ins3pa"/>
-    <hyperlink ref="C565" r:id="rId640" display="https://wwnj.lanzoup.com/iGNgQ2ins3sd"/>
-    <hyperlink ref="C566" r:id="rId641" display="https://wwnj.lanzoup.com/iHUYk2ins3uf"/>
-    <hyperlink ref="C567" r:id="rId642" display="https://wwnj.lanzoup.com/iE2PR2ins4bc"/>
-    <hyperlink ref="C568" r:id="rId643" display="https://wwnj.lanzoup.com/iYVQs2ins4de"/>
-    <hyperlink ref="C569" r:id="rId644" display="https://wwnj.lanzoup.com/iL80w2ins4ef"/>
-    <hyperlink ref="C570" r:id="rId645" display="https://wwnj.lanzoup.com/iBTms2ins4gh"/>
-    <hyperlink ref="B570" r:id="rId646" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/48220/header.jpg?t=1698436685"/>
-    <hyperlink ref="C571" r:id="rId647" display="https://wwnj.lanzoup.com/iLQSD2ins4ij"/>
-    <hyperlink ref="B571" r:id="rId648" display="https://cdn.fastly.steamstatic.com/steam/apps/370240/capsule_467x181.jpg"/>
-    <hyperlink ref="C572" r:id="rId649" display="https://wwnj.lanzoup.com/i14pj2ins4kb"/>
-    <hyperlink ref="C573" r:id="rId650" display="https://wwnj.lanzoup.com/iWYlI2ins4md" tooltip="https://wwnj.lanzoup.com/iWYlI2ins4md"/>
-    <hyperlink ref="C574" r:id="rId651" display="https://wwnj.lanzoup.com/iGH4y2ins4of"/>
-    <hyperlink ref="C575" r:id="rId652" display="https://wwnj.lanzoup.com/iA4rF2ins4sj"/>
-    <hyperlink ref="C576" r:id="rId653" display="https://wwnj.lanzoup.com/igVMy2ins4xe"/>
-    <hyperlink ref="B576" r:id="rId654" display="https://ts1.tc.mm.bing.net/th/id/R-C.2dab29b02e3ca6491382284ae833783d?rik=UMUrWoC4NNCxuA&amp;riu=http%3a%2f%2fatt.3dmgame.com%2fatt%2fforum%2f201809%2f07%2f125331iybme88j8b7moole.jpg&amp;ehk=xPHMO1s8X5OxLNAqHzNGYA29H%2bPV6t%2bBcLM52DKeFyY%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
-    <hyperlink ref="C577" r:id="rId655" display="https://wwnj.lanzoup.com/i4Ayf2ins50h"/>
-    <hyperlink ref="B577" r:id="rId656" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/384490/header.jpg?t=1711112928"/>
-    <hyperlink ref="C578" r:id="rId657" display="https://wwnj.lanzoup.com/iTxZu2ins52j"/>
-    <hyperlink ref="B578" r:id="rId658" display="https://steamcdn-a.akamaihd.net/steam/apps/1089350/capsule_467x181.jpg"/>
-    <hyperlink ref="C579" r:id="rId659" display="https://wwnj.lanzoup.com/i7TsW2ins54b"/>
-    <hyperlink ref="C580" r:id="rId660" display="https://wwnj.lanzoup.com/iwN8M2ins56d"/>
-    <hyperlink ref="C581" r:id="rId661" display="https://wwnj.lanzoup.com/iAerq2p8jfdi"/>
-    <hyperlink ref="C582" r:id="rId662" display="https://wwnj.lanzoup.com/iXzvz2ins6ha"/>
-    <hyperlink ref="C583" r:id="rId663" display="https://wwnj.lanzoup.com/iyPW62ins6ib"/>
-    <hyperlink ref="B583" r:id="rId664" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/245280/header.jpg?t=1580374672"/>
-    <hyperlink ref="C584" r:id="rId665" display="https://wwnj.lanzoup.com/iQQmF2ins6kd"/>
-    <hyperlink ref="B584" r:id="rId666" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/385730/capsule_231x87.jpg?t=1572397400"/>
-    <hyperlink ref="C585" r:id="rId667" display="https://wwnj.lanzoup.com/iWvB12ins6mf"/>
-    <hyperlink ref="B585" r:id="rId668" display="https://steamcdn-a.akamaihd.net/steam/apps/510510/capsule_467x181.jpg"/>
-    <hyperlink ref="C586" r:id="rId669" display="https://wwnj.lanzoup.com/ittss2ins6pi"/>
-    <hyperlink ref="B586" r:id="rId670" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/550080/header.jpg?t=1594636252"/>
-    <hyperlink ref="C587" r:id="rId671" display="https://wwnj.lanzoup.com/i0zsB2ins6ra"/>
-    <hyperlink ref="B587" r:id="rId672" display="https://steamcdn-a.akamaihd.net/steam/apps/664430/capsule_467x181.jpg"/>
-    <hyperlink ref="C588" r:id="rId673" display="https://wwnj.lanzoup.com/i7rH12ins6wf"/>
-    <hyperlink ref="C589" r:id="rId674" display="https://wwnj.lanzoup.com/iOYgn2ins6yh"/>
-    <hyperlink ref="B589" r:id="rId675" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/817130/header.jpg?t=1657748336"/>
-    <hyperlink ref="C590" r:id="rId676" display="https://wwnj.lanzoup.com/i3atc2ins71a"/>
-    <hyperlink ref="B590" r:id="rId677" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/227080/header.jpg?t=1616766842"/>
-    <hyperlink ref="C591" r:id="rId678" display="https://wwnj.lanzoup.com/ieJC42ins74d"/>
-    <hyperlink ref="B591" r:id="rId679" display="https://steamcdn-a.akamaihd.net/steam/apps/1015500/capsule_467x181.jpg"/>
-    <hyperlink ref="C592" r:id="rId680" display="https://wwnj.lanzoup.com/iLZ9E2ins77g"/>
-    <hyperlink ref="B592" r:id="rId681" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/392160/011284ecabc2b48d2455e0493efbf62a8ea947ac/header_alt_assets_0.jpg?t=1756207716"/>
-    <hyperlink ref="C593" r:id="rId682" display="https://wwnj.lanzoup.com/iTmVl2ins7aj"/>
-    <hyperlink ref="C594" r:id="rId683" display="https://wwnj.lanzoup.com/iVB5j2intu7a"/>
-    <hyperlink ref="B594" r:id="rId684" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/325610/header.jpg?t=1755851473"/>
-    <hyperlink ref="C595" r:id="rId685" display="https://wwnj.lanzoup.com/iRV852inwklc"/>
-    <hyperlink ref="C596" r:id="rId686" display="https://wwnj.lanzoup.com/iNzdJ2inwkof"/>
-    <hyperlink ref="C597" r:id="rId687" display="https://wwnj.lanzoup.com/iuyhv2inwkri"/>
-    <hyperlink ref="C598" r:id="rId688" display="https://wwnj.lanzoup.com/iCIbV2inwkta"/>
-    <hyperlink ref="C599" r:id="rId689" display="https://wwnj.lanzoup.com/i59SU2inwkwd"/>
-    <hyperlink ref="B599" r:id="rId690" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/265000/header.jpg?t=1667816203"/>
-    <hyperlink ref="C600" r:id="rId691" display="https://wwnj.lanzoup.com/iME1M2inwkyf"/>
-    <hyperlink ref="B600" r:id="rId692" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/462780/header.jpg?t=1754079044"/>
-    <hyperlink ref="C601" r:id="rId693" display="https://wwnj.lanzoup.com/ivKPV2inwkzg"/>
-    <hyperlink ref="C602" r:id="rId694" display="https://wwnj.lanzoup.com/iJhWV2inwl1i"/>
-    <hyperlink ref="C603" r:id="rId695" display="https://wwnj.lanzoup.com/iUGe82inwl2j"/>
-    <hyperlink ref="C604" r:id="rId696" display="https://wwnj.lanzoup.com/iFG002inwl5c"/>
-    <hyperlink ref="B604" r:id="rId697" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/529660/header.jpg?t=1729114996"/>
-    <hyperlink ref="C605" r:id="rId698" display="https://wwnj.lanzoup.com/iQy5i2inwl7e"/>
-    <hyperlink ref="C606" r:id="rId699" display="https://wwnj.lanzoup.com/iiU4f2inwl8f"/>
-    <hyperlink ref="B606" r:id="rId700" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/261570/header.jpg?t=1667504148"/>
-    <hyperlink ref="C607" r:id="rId701" display="https://wwnj.lanzoup.com/i4smb2inwlah"/>
-    <hyperlink ref="C608" r:id="rId702" display="https://wwnj.lanzoup.com/iLfiA2inwlcj"/>
-    <hyperlink ref="C609" r:id="rId703" display="https://wwnj.lanzoup.com/izCt02inwleb"/>
-    <hyperlink ref="C610" r:id="rId704" display="https://wwnj.lanzoup.com/ijQsB2inwlgd"/>
-    <hyperlink ref="C611" r:id="rId705" display="https://wwnj.lanzoup.com/iQKul2inwlqd"/>
-    <hyperlink ref="C612" r:id="rId706" display="https://wwnj.lanzoup.com/i7sPK2inwlsf"/>
-    <hyperlink ref="C613" r:id="rId707" display="https://wwnj.lanzoup.com/izC7o2inwluh"/>
-    <hyperlink ref="C614" r:id="rId708" display="https://wwnj.lanzoup.com/iolxo2inwlwj"/>
-    <hyperlink ref="B614" r:id="rId709" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/378540/header.jpg?t=1727864911"/>
-    <hyperlink ref="C615" r:id="rId710" display="https://wwnj.lanzoup.com/ijhmB2inwlyb"/>
-    <hyperlink ref="C616" r:id="rId711" display="https://wwnj.lanzoup.com/iEkyO2inwlzc"/>
-    <hyperlink ref="C617" r:id="rId712" display="https://wwnj.lanzoup.com/iJ0t92inwm0d"/>
-    <hyperlink ref="B617" r:id="rId713" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1150080/header_schinese.jpg?t=1730833361"/>
-    <hyperlink ref="C618" r:id="rId714" display="https://wwnj.lanzoup.com/iiLKU2inwm2f"/>
-    <hyperlink ref="C619" r:id="rId715" display="https://wwnj.lanzoup.com/iqGff2inwm5i"/>
-    <hyperlink ref="C620" r:id="rId716" display="https://wwnj.lanzoup.com/iSwz02inwm7a"/>
-    <hyperlink ref="B620" r:id="rId717" display="https://cdn.fastly.steamstatic.com/steam/apps/338930/capsule_467x181.jpg"/>
-    <hyperlink ref="C621" r:id="rId718" display="https://wwnj.lanzoup.com/i62KM2inwm8b"/>
-    <hyperlink ref="C622" r:id="rId719" display="https://wwnj.lanzoup.com/i8UEG2inwm9c"/>
-    <hyperlink ref="C623" r:id="rId720" display="https://wwnj.lanzoup.com/in84q2inwmqj"/>
-    <hyperlink ref="C624" r:id="rId721" display="https://wwnj.lanzoup.com/ieda42inwmra"/>
-    <hyperlink ref="C625" r:id="rId722" display="https://wwnj.lanzoup.com/ilH2O2inwmtc"/>
-    <hyperlink ref="B625" r:id="rId723" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/646050/header.jpg?t=1549024995"/>
-    <hyperlink ref="C626" r:id="rId724" display="https://wwnj.lanzoup.com/iXofO2inwmve"/>
-    <hyperlink ref="C627" r:id="rId725" display="https://wwnj.lanzoup.com/i2kWy2inwmwf"/>
-    <hyperlink ref="C628" r:id="rId726" display="https://wwnj.lanzoup.com/iPtxl2inwmyh"/>
-    <hyperlink ref="B628" r:id="rId727" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/319910/header.jpg?t=1725007208"/>
-    <hyperlink ref="C629" r:id="rId728" display="https://wwnj.lanzoup.com/ivdpi2inwn0j"/>
-    <hyperlink ref="B629" r:id="rId729" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/690640/header.jpg?t=1730719218"/>
-    <hyperlink ref="C630" r:id="rId730" display="https://wwnj.lanzoup.com/iMoBL2inwn3c"/>
-    <hyperlink ref="B630" r:id="rId731" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/427190/header.jpg?t=1701219182"/>
-    <hyperlink ref="C631" r:id="rId732" display="https://wwnj.lanzoup.com/iSICg2inwn4d"/>
-    <hyperlink ref="B631" r:id="rId733" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/387340/header.jpg?t=1730844630"/>
-    <hyperlink ref="C632" r:id="rId734" display="https://wwnj.lanzoup.com/io5e32inwn6f"/>
-    <hyperlink ref="C633" r:id="rId735" display="https://wwnj.lanzoup.com/icYMP2inwn8h"/>
-    <hyperlink ref="C634" r:id="rId736" display="https://wwnj.lanzoup.com/iCmDT2inwnaj"/>
-    <hyperlink ref="C635" r:id="rId737" display="https://wwnj.lanzoup.com/ixlwF2inwnba"/>
-    <hyperlink ref="C636" r:id="rId738" display="https://wwnj.lanzoup.com/iIQoX2inwnod"/>
-    <hyperlink ref="C637" r:id="rId739" display="https://wwnj.lanzoup.com/iNeGT2inwned"/>
-    <hyperlink ref="C638" r:id="rId740" display="https://wwnj.lanzoup.com/ijJyg2inwnqf"/>
-    <hyperlink ref="C639" r:id="rId741" display="https://wwnj.lanzoup.com/iEaoF2inwnrg"/>
-    <hyperlink ref="B639" r:id="rId742" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/413420/header.jpg?t=1750134103"/>
-    <hyperlink ref="C640" r:id="rId743" display="https://wwnj.lanzoup.com/ixZ5R2inwnsh"/>
-    <hyperlink ref="B640" r:id="rId744" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1659040/c62446d5c95f583a296d7f1b99045a61e2f81dea/header.jpg?t=1755614152"/>
-    <hyperlink ref="C641" r:id="rId745" display="https://wwnj.lanzoup.com/iwzVb2inwnti"/>
-    <hyperlink ref="B641" r:id="rId746" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1061730/header_schinese.jpg?t=1718358459"/>
-    <hyperlink ref="C642" r:id="rId747" display="https://wwnj.lanzoup.com/iQNlb2inwnva" tooltip="https://wwnj.lanzoup.com/iQNlb2inwnva"/>
-    <hyperlink ref="C643" r:id="rId748" display="https://wwnj.lanzoup.com/idV9i2inwnyd"/>
-    <hyperlink ref="C644" r:id="rId749" display="https://wwnj.lanzoup.com/iURgB2inwo0f"/>
-    <hyperlink ref="C645" r:id="rId750" display="https://wwnj.lanzoup.com/iEOwZ2inwo2h"/>
-    <hyperlink ref="C646" r:id="rId751" display="https://wwnj.lanzoup.com/iFzoU2inwo6b"/>
-    <hyperlink ref="B646" r:id="rId752" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/798510/header.jpg?t=1747851825"/>
-    <hyperlink ref="D646" r:id="rId753" display="https://wwnj.lanzoup.com/ixEAp2inwo7c"/>
-    <hyperlink ref="C647" r:id="rId754" display="https://wwnj.lanzoup.com/iKc432inwo9e"/>
-    <hyperlink ref="B647" r:id="rId755" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/502800/header.jpg?t=1741903875"/>
-    <hyperlink ref="C648" r:id="rId756" display="https://wwnj.lanzoup.com/iIOL12inwobg"/>
-    <hyperlink ref="B648" r:id="rId757" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/415480/header.jpg?t=1730839958"/>
-    <hyperlink ref="C649" r:id="rId758" display="https://wwnj.lanzoup.com/izphZ2inwokf" tooltip="https://wwnj.lanzoup.com/izphZ2inwokf"/>
-    <hyperlink ref="B649" r:id="rId759" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/421020/capsule_231x87.jpg?t=1667844319"/>
-    <hyperlink ref="C650" r:id="rId760" display="https://wwnj.lanzoup.com/ipyLZ2inwomh"/>
-    <hyperlink ref="B650" r:id="rId761" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/889510/header.jpg?t=1741902299"/>
-    <hyperlink ref="C651" r:id="rId762" display="https://wwnj.lanzoup.com/iqtM52inwoni"/>
-    <hyperlink ref="B651" r:id="rId763" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/690790/header.jpg?t=1730918452"/>
-    <hyperlink ref="C652" r:id="rId764" display="https://wwnj.lanzoup.com/iR8JI2inwooj"/>
-    <hyperlink ref="B652" r:id="rId765" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/611670/header.jpg?t=1564002443"/>
-    <hyperlink ref="C653" r:id="rId766" display="https://wwnj.lanzoup.com/i5KvK2inwopa"/>
-    <hyperlink ref="B653" r:id="rId767" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/750130/4fb51a8ba323000002ce2c7ffb77ed2a27aba835/header.jpg?t=1749117416"/>
-    <hyperlink ref="C654" r:id="rId768" display="https://wwnj.lanzoup.com/i8CJi2inwoqb"/>
-    <hyperlink ref="B654" r:id="rId769" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/323320/header.jpg?t=1694556095"/>
-    <hyperlink ref="C655" r:id="rId770" display="https://wwnj.lanzoup.com/iM0oa2inwosd"/>
-    <hyperlink ref="B655" r:id="rId771" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/320240/header.jpg?t=1751297177"/>
-    <hyperlink ref="C656" r:id="rId772" display="https://wwnj.lanzoup.com/iuB4o2inwote"/>
-    <hyperlink ref="B656" r:id="rId773" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/241410/header.jpg?t=1727780515"/>
-    <hyperlink ref="C657" r:id="rId774" display="https://wwnj.lanzoup.com/iweHd2inwoxi"/>
-    <hyperlink ref="C658" r:id="rId775" display="https://wwnj.lanzoup.com/i53ja2inwoyj"/>
-    <hyperlink ref="B658" r:id="rId776" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/625980/header.jpg?t=1732665480"/>
-    <hyperlink ref="C659" r:id="rId777" display="https://wwnj.lanzoup.com/ieGyY2inwp0b"/>
-    <hyperlink ref="B659" r:id="rId778" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/286000/header_schinese.jpg?t=1731002783"/>
-    <hyperlink ref="C660" r:id="rId779" display="https://wwnj.lanzoup.com/i6QxN2inwp1c"/>
-    <hyperlink ref="C661" r:id="rId780" display="https://wwnj.lanzoup.com/i1KbU2inwp2d"/>
-    <hyperlink ref="C662" r:id="rId781" display="https://wwnj.lanzoup.com/ibTXW2inwp4f"/>
-    <hyperlink ref="C663" r:id="rId782" display="https://wwnj.lanzoup.com/iYiws2inwplc"/>
-    <hyperlink ref="C664" r:id="rId783" display="https://wwnj.lanzoup.com/i315G2inwpof"/>
-    <hyperlink ref="B664" r:id="rId784" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/bundles/14169/vugq94uy5pvzxxna/header_586x192.jpg?t=1590094499"/>
-    <hyperlink ref="C665" r:id="rId785" display="https://wwnj.lanzoup.com/i9AgR2inwpri"/>
-    <hyperlink ref="C666" r:id="rId786" display="https://wwnj.lanzoup.com/i2PQ72inwpta"/>
-    <hyperlink ref="C667" r:id="rId787" display="https://wwnj.lanzoup.com/i3ZRZ2inwpub"/>
-    <hyperlink ref="C668" r:id="rId788" display="https://wwnj.lanzoup.com/iG6OI2inwpwd"/>
-    <hyperlink ref="C669" r:id="rId789" display="https://wwnj.lanzoup.com/id99k2inwpyf"/>
-    <hyperlink ref="C670" r:id="rId790" display="https://wwnj.lanzoup.com/ivPOB2inwpzg"/>
-    <hyperlink ref="C671" r:id="rId791" display="https://wwnj.lanzoup.com/ipG352inwq1i"/>
-    <hyperlink ref="C672" r:id="rId792" display="https://wwnj.lanzoup.com/iQDLP2inwq4b"/>
-    <hyperlink ref="C673" r:id="rId793" display="https://wwnj.lanzoup.com/i11Gg2inwq8f"/>
-    <hyperlink ref="C674" r:id="rId794" display="https://wwnj.lanzoup.com/iBkkm2inwqah"/>
-    <hyperlink ref="C675" r:id="rId795" display="https://wwnj.lanzoup.com/iHnsC2inwqbi"/>
-    <hyperlink ref="C676" r:id="rId796" display="https://wwnj.lanzoup.com/i0ldg2inwqcj"/>
-    <hyperlink ref="C677" r:id="rId797" display="https://wwnj.lanzoup.com/iBEJ42inwqgd"/>
-    <hyperlink ref="C678" r:id="rId798" display="https://wwnj.lanzoup.com/if6hW2inwtni"/>
-    <hyperlink ref="B677" r:id="rId799" display="https://ts4.tc.mm.bing.net/th/id/OIP-C.cwsP0qpf7mORi33VJuvyxwHaD5?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C679" r:id="rId800" display="https://wwnj.lanzoup.com/i6Sxj2inwtuf"/>
-    <hyperlink ref="C680" r:id="rId801" display="https://wwnj.lanzoup.com/icrLE2inwtvg"/>
-    <hyperlink ref="C681" r:id="rId802" display="https://wwnj.lanzoup.com/iWLwa2inwtyj"/>
-    <hyperlink ref="C682" r:id="rId803" display="https://wwnj.lanzoup.com/icwWd2inwu0b"/>
-    <hyperlink ref="C683" r:id="rId804" display="https://wwnj.lanzoup.com/ihbRp2io6d4d" tooltip="https://wwnj.lanzoup.com/ihbRp2io6d4d"/>
-    <hyperlink ref="C684" r:id="rId805" display="https://wwnj.lanzoup.com/iU0Lv2io6d8h"/>
-    <hyperlink ref="C685" r:id="rId806" display="https://wwnj.lanzoup.com/i6LGE2io6dhg"/>
-    <hyperlink ref="C686" r:id="rId807" display="https://wwnj.lanzoup.com/irZcs2io6dla"/>
-    <hyperlink ref="C687" r:id="rId808" display="https://wwnj.lanzoup.com/iFMZ32io6dpe"/>
-    <hyperlink ref="C688" r:id="rId809" display="https://wwnj.lanzoup.com/i1h9E2io6dsh"/>
-    <hyperlink ref="C689" r:id="rId810" display="https://wwnj.lanzoup.com/iQu5E2io6dxc"/>
-    <hyperlink ref="C690" r:id="rId811" display="https://wwnj.lanzoup.com/iN1ZK2io6e3i"/>
-    <hyperlink ref="C691" r:id="rId812" display="https://wwnj.lanzoup.com/ig10v2io6e6b"/>
-    <hyperlink ref="C692" r:id="rId813" display="https://wwnj.lanzoup.com/iLcfO2io6efa"/>
-    <hyperlink ref="B692" r:id="rId814" display="https://cdn.cloudflare.steamstatic.com/steam/apps/375960/header.jpg" tooltip="https://cdn.cloudflare.steamstatic.com/steam/apps/375960/header.jpg"/>
-    <hyperlink ref="C693" r:id="rId815" display="https://wwnj.lanzoup.com/iCO9G2io6emh"/>
-    <hyperlink ref="C694" r:id="rId816" display="https://wwnj.lanzoup.com/i7td12io6eid"/>
-    <hyperlink ref="C695" r:id="rId817" display="https://wwnj.lanzoup.com/iJhs62io6fxe"/>
-    <hyperlink ref="C696" r:id="rId818" display="https://wwnj.lanzoup.com/iSJO82io6g2j"/>
-    <hyperlink ref="C697" r:id="rId819" display="https://wwnj.lanzoup.com/ibDLA2io6g7e" tooltip="https://wwnj.lanzoup.com/ibDLA2io6g7e"/>
-    <hyperlink ref="C698" r:id="rId820" display="https://wwnj.lanzoup.com/iIrxY2io6gbi"/>
-    <hyperlink ref="C699" r:id="rId821" display="https://wwnj.lanzoup.com/iC9mn2io6geb"/>
-    <hyperlink ref="C700" r:id="rId822" display="https://wwnj.lanzoup.com/iYfiz2io6gif"/>
-    <hyperlink ref="C701" r:id="rId823" display="https://wwnj.lanzoup.com/i7IZO2io6gmj"/>
-    <hyperlink ref="C702" r:id="rId824" display="https://wwnj.lanzoup.com/isBWS2io6gre"/>
-    <hyperlink ref="C703" r:id="rId825" display="https://wwnj.lanzoup.com/iDnLu2io6guh"/>
-    <hyperlink ref="C704" r:id="rId826" display="https://wwnj.lanzoup.com/ijijl2io6gyb"/>
-    <hyperlink ref="C705" r:id="rId827" display="https://wwnj.lanzoup.com/i7LkP2io6h3g"/>
-    <hyperlink ref="C706" r:id="rId828" display="https://wwnj.lanzoup.com/ilM0F2io6h7a"/>
-    <hyperlink ref="C707" r:id="rId829" display="https://wwnj.lanzoup.com/i4oUj2io6hbe"/>
-    <hyperlink ref="C708" r:id="rId830" display="https://wwnj.lanzoup.com/iBSls2io6hgj"/>
-    <hyperlink ref="C709" r:id="rId831" display="https://wwnj.lanzoup.com/ihk8L2io6hjc"/>
-    <hyperlink ref="C710" r:id="rId832" display="https://wwnj.lanzoup.com/i7Ahg2io6igf"/>
-    <hyperlink ref="C711" r:id="rId833" display="https://wwnj.lanzoup.com/ihk082io6ila"/>
-    <hyperlink ref="C712" r:id="rId834" display="https://wwnj.lanzoup.com/ihoCN2io6ipe" tooltip="https://wwnj.lanzoup.com/ihoCN2io6ipe"/>
-    <hyperlink ref="C713" r:id="rId835" display="https://wwnj.lanzoup.com/il2722io6ish"/>
-    <hyperlink ref="C714" r:id="rId836" display="https://wwnj.lanzoup.com/i5SgW2io6iwb"/>
-    <hyperlink ref="C715" r:id="rId837" display="https://wwnj.lanzoup.com/i9L312io6j0f" tooltip="https://wwnj.lanzoup.com/i9L312io6j0f"/>
-    <hyperlink ref="C716" r:id="rId838" display="https://wwnj.lanzoup.com/iAxxX2io6j3i"/>
-    <hyperlink ref="C717" r:id="rId839" display="https://wwnj.lanzoup.com/ipZkE2io6j7c"/>
-    <hyperlink ref="C718" r:id="rId840" display="https://wwnj.lanzoup.com/iz3ur2io6j9e"/>
-    <hyperlink ref="C719" r:id="rId841" display="https://wwnj.lanzoup.com/i6OmA2io6jej"/>
-    <hyperlink ref="C720" r:id="rId842" display="https://wwnj.lanzoup.com/iXTZq2io6jid"/>
-    <hyperlink ref="C721" r:id="rId843" display="https://wwnj.lanzoup.com/iHjT62io6jsd"/>
-    <hyperlink ref="C722" r:id="rId844" display="https://wwnj.lanzoup.com/iRZSx2io6jvg"/>
-    <hyperlink ref="C723" r:id="rId845" display="https://wwnj.lanzoup.com/icur52io6lgd"/>
-    <hyperlink ref="C724" r:id="rId846" display="https://wwnj.lanzoup.com/igguQ2io6ljg"/>
-    <hyperlink ref="C725" r:id="rId847" display="https://wwnj.lanzoup.com/iYD4f2io6lna"/>
-    <hyperlink ref="C726" r:id="rId848" display="https://wwnj.lanzoup.com/iamc92io6lre" tooltip="https://wwnj.lanzoup.com/iamc92io6lre"/>
-    <hyperlink ref="C727" r:id="rId849" display="https://wwnj.lanzoup.com/il59r2io6lwj"/>
-    <hyperlink ref="C728" r:id="rId850" display="https://wwnj.lanzoup.com/iUG8L2io6lzc"/>
-    <hyperlink ref="C729" r:id="rId851" display="https://wwnj.lanzoup.com/ipdHn2io6m5i"/>
-    <hyperlink ref="C730" r:id="rId852" display="https://wwnj.lanzoup.com/iqVJO2io6m8b"/>
-    <hyperlink ref="C731" r:id="rId853" display="https://wwnj.lanzoup.com/iKugo2io6mqj" tooltip="https://wwnj.lanzoup.com/iKugo2io6mqj"/>
-    <hyperlink ref="C732" r:id="rId854" display="https://wwnj.lanzoup.com/ivJcc2io6mgj"/>
-    <hyperlink ref="C733" r:id="rId855" display="https://wwnj.lanzoup.com/iOtPJ2io6mkd"/>
-    <hyperlink ref="C734" r:id="rId856" display="https://wwnj.lanzoup.com/iyKsD2io6mpi"/>
-    <hyperlink ref="C735" r:id="rId857" display="https://wwnj.lanzoup.com/i6Xxg2io6mve"/>
-    <hyperlink ref="C736" r:id="rId858" display="https://wwnj.lanzoup.com/i33lp2io6n0j"/>
-    <hyperlink ref="C737" r:id="rId859" display="https://wwnj.lanzoup.com/i00ti2io6o6b"/>
-    <hyperlink ref="C738" r:id="rId860" display="https://wwnj.lanzoup.com/iyxZ82io6o9e"/>
-    <hyperlink ref="C739" r:id="rId861" display="https://wwnj.lanzoup.com/iSA5U2io6och"/>
-    <hyperlink ref="C740" r:id="rId862" display="https://wwnj.lanzoup.com/i1hmQ2io6ohc" tooltip="https://wwnj.lanzoup.com/i1hmQ2io6ohc"/>
-    <hyperlink ref="C741" r:id="rId863" display="https://wwnj.lanzoup.com/iluCI2io6olg"/>
-    <hyperlink ref="C742" r:id="rId864" display="https://wwnj.lanzoup.com/ibUKI2io6oni"/>
-    <hyperlink ref="C743" r:id="rId865" display="https://wwnj.lanzoup.com/iMcKQ2io6orc"/>
-    <hyperlink ref="C744" r:id="rId866" display="https://wwnj.lanzoup.com/ivDCm2io6ovg"/>
-    <hyperlink ref="D744" r:id="rId867" display="https://wwnj.lanzoup.com/iyZqH2io6owh"/>
-    <hyperlink ref="C745" r:id="rId868" display="https://wwnj.lanzoup.com/izGED2io6p1c"/>
-    <hyperlink ref="C746" r:id="rId869" display="https://wwnj.lanzoup.com/ibgG72io6p7i"/>
-    <hyperlink ref="C747" r:id="rId870" display="https://wwnj.lanzoup.com/iq6bo2io6pbc" tooltip="https://wwnj.lanzoup.com/iq6bo2io6pbc"/>
-    <hyperlink ref="C748" r:id="rId871" display="https://wwnj.lanzoup.com/ieSrd2io6pef"/>
-    <hyperlink ref="C749" r:id="rId872" display="https://wwnj.lanzoup.com/ihlXe2io6phi"/>
-    <hyperlink ref="C750" r:id="rId873" display="https://wwnj.lanzoup.com/iAs2r2io6rha"/>
-    <hyperlink ref="C751" r:id="rId874" display="https://wwnj.lanzoup.com/i3lnm2io6rjc"/>
-    <hyperlink ref="C752" r:id="rId875" display="https://wwnj.lanzoup.com/iYm252io6rkd"/>
-    <hyperlink ref="C753" r:id="rId876" display="https://wwnj.lanzoup.com/iykTq2io6rpi"/>
-    <hyperlink ref="C754" r:id="rId877" display="https://wwnj.lanzoup.com/iyeZQ2io6rsb"/>
-    <hyperlink ref="C755" r:id="rId878" display="https://wwnj.lanzoup.com/iz5zP2io6ryh"/>
-    <hyperlink ref="C756" r:id="rId879" display="https://wwnj.lanzoup.com/i05C02io6s1a"/>
-    <hyperlink ref="C757" r:id="rId880" display="https://wwnj.lanzoup.com/iYeeN2io6s5e"/>
-    <hyperlink ref="C758" r:id="rId881" display="https://wwnj.lanzoup.com/ix3AK2io6s8h"/>
-    <hyperlink ref="C759" r:id="rId882" display="https://wwnj.lanzoup.com/i61hU2io6sba"/>
-    <hyperlink ref="C760" r:id="rId883" display="https://wwnj.lanzoup.com/i2Ifw2io6sdc"/>
-    <hyperlink ref="C761" r:id="rId884" display="https://wwnj.lanzoup.com/iluV12io6sfe"/>
-    <hyperlink ref="B761" r:id="rId885" display="https://cdn.akamai.steamstatic.com/steam/apps/446040/capsule_616x353.jpg?t=1589340936" tooltip="https://cdn.akamai.steamstatic.com/steam/apps/446040/capsule_616x353.jpg?t=1589340936"/>
-    <hyperlink ref="C762" r:id="rId886" display="https://wwnj.lanzoup.com/iCxRW2io6sji"/>
-    <hyperlink ref="C763" r:id="rId887" display="https://wwnj.lanzoup.com/iTcti2io6smb"/>
-    <hyperlink ref="C764" r:id="rId888" display="https://wwnj.lanzoup.com/iaU1i2io6spe" tooltip="https://wwnj.lanzoup.com/iaU1i2io6spe"/>
-    <hyperlink ref="C765" r:id="rId889" display="https://wwnj.lanzoup.com/iTR922io6tqb"/>
-    <hyperlink ref="C766" r:id="rId890" display="https://wwnj.lanzoup.com/igcSf2io6tuf"/>
-    <hyperlink ref="B766" r:id="rId891" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/631510/header.jpg?t=1644282550" tooltip="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/631510/header.jpg?t=1644282550"/>
-    <hyperlink ref="C767" r:id="rId892" display="https://wwnj.lanzoup.com/iyiRC2io6twh"/>
-    <hyperlink ref="C768" r:id="rId893" display="https://wwnj.lanzoup.com/iTH1Z2io6u0b"/>
-    <hyperlink ref="C769" r:id="rId894" display="https://wwnj.lanzoup.com/i1kn32io6u3e"/>
-    <hyperlink ref="B769" r:id="rId895" display="https://shared.steamstatic.com/store_item_assets/steam/apps/6550/header.jpg?t=1706749134"/>
-    <hyperlink ref="C770" r:id="rId896" display="https://wwnj.lanzoup.com/iuv2O2io6u5g"/>
-    <hyperlink ref="C771" r:id="rId897" display="https://wwnj.lanzoup.com/icJCb2io6u8j"/>
-    <hyperlink ref="C772" r:id="rId898" display="https://wwnj.lanzoup.com/i60dS2io6ude"/>
-    <hyperlink ref="C773" r:id="rId899" display="https://wwnj.lanzoup.com/iD3Oe2io6ugh" tooltip="https://wwnj.lanzoup.com/iD3Oe2io6ugh"/>
-    <hyperlink ref="C774" r:id="rId900" display="https://wwnj.lanzoup.com/iQuDu2io6uja"/>
-    <hyperlink ref="C775" r:id="rId901" display="https://wwnj.lanzoup.com/iraBG2io6uof"/>
-    <hyperlink ref="C776" r:id="rId902" display="https://wwnj.lanzoup.com/i5uTI2io6uri" tooltip="https://wwnj.lanzoup.com/i5uTI2io6uri"/>
-    <hyperlink ref="C777" r:id="rId903" display="https://wwnj.lanzoup.com/iH9iX2io6uvc"/>
-    <hyperlink ref="C778" r:id="rId904" display="https://wwnj.lanzoup.com/iih5J2io6uxe"/>
-    <hyperlink ref="C779" r:id="rId905" display="https://wwnj.lanzoup.com/ipk4F2iofq8j"/>
-    <hyperlink ref="B778" r:id="rId906" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/281940/header.jpg?t=1579793250"/>
-    <hyperlink ref="C780" r:id="rId907" display="https://wwnj.lanzoup.com/iQT2e2iofqcd"/>
-    <hyperlink ref="C1" r:id="rId501" display="下载地址" tooltip="https://wwnj.lanzoup.com/iTFOq2inhv5c"/>
-    <hyperlink ref="C781" r:id="rId908" display="https://wwnj.lanzoup.com/iIgVj2iofqhi"/>
-    <hyperlink ref="C782" r:id="rId909" display="https://wwnj.lanzoup.com/ixQ392iofqof"/>
-    <hyperlink ref="C783" r:id="rId910" display="https://wwnj.lanzoup.com/ic6ni2iofqsj"/>
-    <hyperlink ref="C784" r:id="rId911" display="https://wwnj.lanzoup.com/iHmCH2iofqyf"/>
-    <hyperlink ref="C785" r:id="rId912" display="https://wwnj.lanzoup.com/iePRt2iofr4b"/>
-    <hyperlink ref="C786" r:id="rId913" display="https://wwnj.lanzoup.com/iw8yS2iofr7e"/>
-    <hyperlink ref="C787" r:id="rId914" display="https://wwnj.lanzoup.com/igIYW2iofreb"/>
-    <hyperlink ref="C788" r:id="rId915" display="https://wwnj.lanzoup.com/ivSak2iofrjg"/>
-    <hyperlink ref="C789" r:id="rId916" display="https://wwnj.lanzoup.com/ibntG2iofrob"/>
-    <hyperlink ref="C790" r:id="rId917" display="https://wwnj.lanzoup.com/iaeHP2iofruh"/>
-    <hyperlink ref="C791" r:id="rId918" display="https://wwnj.lanzoup.com/iyjwH2iofrzc"/>
-    <hyperlink ref="C792" r:id="rId919" display="https://wwnj.lanzoup.com/i5EGn2iofs3g"/>
-    <hyperlink ref="C793" r:id="rId920" display="https://wwnj.lanzoup.com/iGw4M2iofsad"/>
-    <hyperlink ref="C794" r:id="rId921" display="https://wwnj.lanzoup.com/iKLXp2iofsgj"/>
-    <hyperlink ref="C795" r:id="rId922" display="https://wwnj.lanzoup.com/i1wkI2ioftwb"/>
-    <hyperlink ref="C796" r:id="rId923" display="https://wwnj.lanzoup.com/iBLqo2ioftze"/>
-    <hyperlink ref="B796" r:id="rId924" display="https://th.bing.com/th/id/OIP.kNwWL5u2e7_vAG4y3um6pwHaEo?w=239&amp;h=180&amp;c=7&amp;r=0&amp;o=7&amp;pid=1.7&amp;rm=3"/>
-    <hyperlink ref="C797" r:id="rId925" display="https://wwnj.lanzoup.com/igiTQ2iofu3i"/>
-    <hyperlink ref="C798" r:id="rId926" display="https://wwnj.lanzoup.com/i7ddk2iofuaf"/>
-    <hyperlink ref="C799" r:id="rId927" display="https://wwnj.lanzoup.com/i3jS02iofudi"/>
-    <hyperlink ref="C800" r:id="rId928" display="https://wwnj.lanzoup.com/iTYyZ2iofufa"/>
-    <hyperlink ref="C801" r:id="rId929" display="https://wwnj.lanzoup.com/itnp32iofuid"/>
-    <hyperlink ref="B801" r:id="rId930" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/726950/header.jpg?t=1730835373"/>
-    <hyperlink ref="C802" r:id="rId931" display="https://wwnj.lanzoup.com/i2lXo2iofukf"/>
-    <hyperlink ref="C803" r:id="rId932" display="https://wwnj.lanzoup.com/ifvFA2iofumh"/>
-    <hyperlink ref="C804" r:id="rId933" display="https://wwnj.lanzoup.com/iegBO2iofuoj"/>
-    <hyperlink ref="C805" r:id="rId934" display="https://wwnj.lanzoup.com/ir8d92iofuqb"/>
-    <hyperlink ref="B805" r:id="rId935" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/314830/header.jpg?t=1736357226"/>
-    <hyperlink ref="C806" r:id="rId936" display="https://wwnj.lanzoup.com/ifkjU2iofute"/>
-    <hyperlink ref="C807" r:id="rId937" display="https://wwnj.lanzoup.com/iuLyU2iofuvg"/>
-    <hyperlink ref="B808" r:id="rId938" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1172380/header.jpg?t=1748950986"/>
-    <hyperlink ref="C808" r:id="rId939" display="https://wwnj.lanzoup.com/iMjYW2iofw9g"/>
-    <hyperlink ref="D807" r:id="rId940" display="https://wwnj.lanzoup.com/ii1a52iofuwh"/>
-    <hyperlink ref="B809" r:id="rId941" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/360430/header.jpg?t=1756420682"/>
-    <hyperlink ref="C809" r:id="rId942" display="https://wwnj.lanzoup.com/iDLYt2iofwbi"/>
-    <hyperlink ref="C810" r:id="rId943" display="https://wwnj.lanzoup.com/iXsY82iofweb"/>
-    <hyperlink ref="B810" r:id="rId944" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/403190/header.jpg?t=1743274197"/>
-    <hyperlink ref="C811" r:id="rId945" display="https://wwnj.lanzoup.com/iNX0k2iofwhe"/>
-    <hyperlink ref="B811" r:id="rId946" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/446790/header.jpg?t=1710653365"/>
-    <hyperlink ref="C812" r:id="rId947" display="https://wwnj.lanzoup.com/ingbD2iofwkh"/>
-    <hyperlink ref="B812" r:id="rId948" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/609150/header.jpg?t=1724832639"/>
-    <hyperlink ref="C813" r:id="rId949" display="https://wwnj.lanzoup.com/iCKWN2iofwna"/>
-    <hyperlink ref="B813" r:id="rId950" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/448510/header_schinese.jpg?t=1752062652"/>
-    <hyperlink ref="C814" r:id="rId951" display="https://wwnj.lanzoup.com/iCy902iofwqd"/>
-    <hyperlink ref="B814" r:id="rId952" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/728880/header_schinese.jpg?t=1750087027"/>
-    <hyperlink ref="C815" r:id="rId953" display="https://wwnj.lanzoup.com/i9lso2iofwuh"/>
-    <hyperlink ref="B815" r:id="rId954" display="https://img.3dmgame.com/uploads/images/news/20190416/1555379770_618239.jpg"/>
-    <hyperlink ref="C816" r:id="rId955" display="https://wwnj.lanzoup.com/iELrq2iofwwj"/>
-    <hyperlink ref="B816" r:id="rId956" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/859150/header.jpg?t=1754645187"/>
-    <hyperlink ref="C817" r:id="rId957" display="https://wwnj.lanzoup.com/iFGGo2iofwyb"/>
-    <hyperlink ref="B817" r:id="rId958" display="https://img.fhyx.com/uploads/steam/c3/2020/12/21/2020122110928740.jpg"/>
-    <hyperlink ref="C818" r:id="rId959" display="https://wwnj.lanzoup.com/i5c062iofx2f"/>
-    <hyperlink ref="B818" r:id="rId960" display="https://www.switch520.org/wp-content/uploads/img/ns/nscn_c_MISTOVER.webp"/>
-    <hyperlink ref="C819" r:id="rId961" display="https://wwnj.lanzoup.com/imquY2iofx3g"/>
-    <hyperlink ref="B819" r:id="rId962" display="https://tse3.mm.bing.net/th/id/OIP.Zd60QtC07Aio4-WkK7PfBQHaDq?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C820" r:id="rId963" display="https://wwnj.lanzoup.com/iaBXR2iofx5i"/>
-    <hyperlink ref="B820" r:id="rId964" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/290790/header.jpg?t=1667235522"/>
-    <hyperlink ref="C821" r:id="rId965" display="https://wwnj.lanzoup.com/i594z2iofx8b" tooltip="https://wwnj.lanzoup.com/i594z2iofx8b"/>
-    <hyperlink ref="B821" r:id="rId966" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/347830/header.jpg?t=1730838810"/>
-    <hyperlink ref="C822" r:id="rId967" display="https://wwnj.lanzoup.com/iD13J2iofxad"/>
-    <hyperlink ref="B822" r:id="rId968" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/991560/header.jpg?t=1686067129"/>
-    <hyperlink ref="C823" r:id="rId969" display="https://wwnj.lanzoup.com/iMbaZ2iofxyh"/>
-    <hyperlink ref="B823" r:id="rId970" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/379720/header.jpg?t=1750784856"/>
-    <hyperlink ref="C824" r:id="rId971" display="https://wwnj.lanzoup.com/iyRQC2iofy1a"/>
-    <hyperlink ref="B824" r:id="rId972" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/232050/header.jpg?t=1571149287"/>
-    <hyperlink ref="C825" r:id="rId973" display="https://wwnj.lanzoup.com/iCedC2iofy4d"/>
-    <hyperlink ref="B825" r:id="rId974" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/304530/header.jpg?t=1620292667"/>
-    <hyperlink ref="C826" r:id="rId975" display="https://wwnj.lanzoup.com/i1DpL2iofy6f"/>
-    <hyperlink ref="B826" r:id="rId976" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/587110/header.jpg?t=1751394489"/>
-    <hyperlink ref="C827" r:id="rId977" display="https://wwnj.lanzoup.com/iWwQ52iofy9i"/>
-    <hyperlink ref="B827" r:id="rId978" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1020540/header.jpg?t=1747196780"/>
-    <hyperlink ref="C828" r:id="rId979" display="https://wwnj.lanzoup.com/iGYHG2iofyba"/>
-    <hyperlink ref="B828" r:id="rId980" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/312540/header.jpg?t=1740443601"/>
-    <hyperlink ref="C829" r:id="rId981" display="https://wwnj.lanzoup.com/ioHYP2iofyfe"/>
-    <hyperlink ref="B829" r:id="rId982" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/200710/header.jpg?t=1712608749"/>
-    <hyperlink ref="C830" r:id="rId983" display="https://wwnj.lanzoup.com/iS3re2iofyhg"/>
-    <hyperlink ref="B830" r:id="rId984" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/587100/header.jpg?t=1732151647"/>
-    <hyperlink ref="C831" r:id="rId985" display="https://wwnj.lanzoup.com/iN00T2iofyrg"/>
-    <hyperlink ref="B831" r:id="rId986" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/543870/header.jpg?t=1701323477"/>
-    <hyperlink ref="C832" r:id="rId987" display="https://wwnj.lanzoup.com/iYXi72iofyod"/>
-    <hyperlink ref="B832" r:id="rId988" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/579180/header.jpg?t=1732666782"/>
-    <hyperlink ref="C833" r:id="rId989" display="https://wwnj.lanzoup.com/izVRZ2iofyva"/>
-    <hyperlink ref="C834" r:id="rId990" display="https://wwnj.lanzoup.com/iq9mE2iofyyd"/>
-    <hyperlink ref="B834" r:id="rId991" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/245370/header.jpg?t=1728650181"/>
-    <hyperlink ref="C835" r:id="rId992" display="https://wwnj.lanzoup.com/iG6Zv2iofz0f"/>
-    <hyperlink ref="B835" r:id="rId993" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/349040/header.jpg?t=1703080866"/>
-    <hyperlink ref="C836" r:id="rId994" display="https://wwnj.lanzoup.com/iq8m12iofzoj"/>
-    <hyperlink ref="B836" r:id="rId995" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/226860/header.jpg?t=1747329377"/>
-    <hyperlink ref="C837" r:id="rId996" display="https://wwnj.lanzoup.com/iF8kz2iofzqb"/>
-    <hyperlink ref="B837" r:id="rId997" display="https://www.video-games-museum.com/en/screenshots/Vita/1/73899-title-Eiyuu-Densetsu-Ao-no-Kiseki-Evolution.jpg"/>
-    <hyperlink ref="C838" r:id="rId998" display="https://wwnj.lanzoup.com/iXVRG2iofzsd"/>
-    <hyperlink ref="B838" r:id="rId999" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/338390/header.jpg?t=1712312994"/>
-    <hyperlink ref="C839" r:id="rId1000" display="https://wwnj.lanzoup.com/iZFQ82iofzvg"/>
-    <hyperlink ref="B839" r:id="rId1001" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262560/header.jpg?t=1605151411"/>
-    <hyperlink ref="C840" r:id="rId1002" display="https://wwnj.lanzoup.com/iRLkk2iofzyj"/>
-    <hyperlink ref="B840" r:id="rId1003" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262600/header.jpg?t=1752080349"/>
-    <hyperlink ref="C841" r:id="rId1004" display="https://wwnj.lanzoup.com/iCZrq2iofzza"/>
-    <hyperlink ref="B841" r:id="rId1005" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/231430/header.jpg?t=1750947634"/>
-    <hyperlink ref="C842" r:id="rId1006" display="https://wwnj.lanzoup.com/imBTa2iog01c"/>
-    <hyperlink ref="B842" r:id="rId1007" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262580/header.jpg?t=1692306558"/>
-    <hyperlink ref="C843" r:id="rId1008" display="https://wwnj.lanzoup.com/isvaQ2iog04f"/>
-    <hyperlink ref="B843" r:id="rId1009" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/418240/header.jpg?t=1749228498"/>
-    <hyperlink ref="C844" r:id="rId1010" display="https://wwnj.lanzoup.com/iR7jH2iog06h"/>
-    <hyperlink ref="B844" r:id="rId1011" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/291650/header.jpg?t=1683221851"/>
-    <hyperlink ref="C845" r:id="rId1012" display="https://wwnj.lanzoup.com/ipqAU2iog0ab"/>
-    <hyperlink ref="B845" r:id="rId1013" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/375910/header.jpg?t=1692034365"/>
-    <hyperlink ref="C846" r:id="rId1014" display="https://wwnj.lanzoup.com/ipLxG2iog0cd"/>
-    <hyperlink ref="B846" r:id="rId1015" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/560130/header.jpg?t=1752510563"/>
-    <hyperlink ref="C847" r:id="rId1016" display="https://wwnj.lanzoup.com/iY6Pv2iog0ef"/>
-    <hyperlink ref="B847" r:id="rId1017" display="https://img.3dmgame.com/uploads/allimg/170707/323_170707160622_1_lit.jpg"/>
-    <hyperlink ref="C848" r:id="rId1018" display="https://wwnj.lanzoup.com/irfOF2iog0gh"/>
-    <hyperlink ref="B848" r:id="rId1019" display="https://cdn.cloudflare.steamstatic.com/steam/apps/645730/capsule_616x353_japanese.jpg?t=1542081188"/>
-    <hyperlink ref="C849" r:id="rId1020" display="https://wwnj.lanzoup.com/iMsIk2iog0kb"/>
-    <hyperlink ref="B849" r:id="rId1021" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/281610/header.jpg?t=1754416775"/>
-    <hyperlink ref="C850" r:id="rId1022" display="https://wwnj.lanzoup.com/iw9G02iog19g"/>
-    <hyperlink ref="B850" r:id="rId1023" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/502280/header.jpg?t=1748478952"/>
-    <hyperlink ref="C851" r:id="rId1024" display="https://wwnj.lanzoup.com/itr2i2iog1bi"/>
-    <hyperlink ref="B851" r:id="rId1025" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/410850/header.jpg?t=1596103807"/>
-    <hyperlink ref="C852" r:id="rId1026" display="https://wwnj.lanzoup.com/iA19I2iog1fc"/>
-    <hyperlink ref="B852" r:id="rId1027" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/350310/header.jpg?t=1748479689"/>
-    <hyperlink ref="C853" r:id="rId1028" display="https://wwnj.lanzoup.com/iTdGn2iog1jg"/>
-    <hyperlink ref="B853" r:id="rId1029" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/574050/header.jpg?t=1727790087"/>
-    <hyperlink ref="C854" r:id="rId1030" display="https://wwnj.lanzoup.com/ibTX42iog1li"/>
-    <hyperlink ref="B854" r:id="rId1031" display="https://media.cdn.queniuqe.com/steam/apps/325600/capsule_467x181.jpg"/>
-    <hyperlink ref="C855" r:id="rId1032" display="https://wwnj.lanzoup.com/it8aH2iog1na"/>
-    <hyperlink ref="B855" r:id="rId1033" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1295510/header_schinese.jpg?t=1727228467"/>
-    <hyperlink ref="C856" r:id="rId1034" display="https://wwnj.lanzoup.com/igMtA2iog1qd"/>
-    <hyperlink ref="B856" r:id="rId1035" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/679900/header.jpg?t=1746137100"/>
-    <hyperlink ref="C857" r:id="rId1036" display="https://wwnj.lanzoup.com/iPpFC2iog1sf"/>
-    <hyperlink ref="B857" r:id="rId1037" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/210770/header.jpg?t=1602684218"/>
-    <hyperlink ref="C858" r:id="rId1038" display="https://wwnj.lanzoup.com/iia892iog1uh"/>
-    <hyperlink ref="B858" r:id="rId1039" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/339230/header.jpg?t=1680018023"/>
-    <hyperlink ref="C859" r:id="rId1040" display="https://wwnj.lanzoup.com/iMIkA2iog1wj"/>
-    <hyperlink ref="B859" r:id="rId1041" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/200510/header.jpg?t=1587584126"/>
-    <hyperlink ref="C860" r:id="rId1042" display="https://wwnj.lanzoup.com/i4Fpl2iog22f"/>
-    <hyperlink ref="B860" r:id="rId1043" display="https://ts1.tc.mm.bing.net/th/id/R-C.a463f3daa014be4b15de2267d63d7750?rik=1qD7h1qHVpDIxA&amp;riu=http%3a%2f%2fyx.giaoyx.com%2fwp-content%2fuploads%2f2022%2f01%2f1643207595-e7c1c23e0f53a8a.jpg&amp;ehk=ddkceSG2ybxwJoGUx3PsTxhBJaUj1V%2bnz9B28DGdLvY%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
-    <hyperlink ref="C861" r:id="rId1044" display="https://wwnj.lanzoup.com/iPmm02iog24h"/>
-    <hyperlink ref="B861" r:id="rId1045" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/446390/header.jpg?t=1728663743"/>
-    <hyperlink ref="C862" r:id="rId1046" display="https://wwnj.lanzoup.com/iReKR2iog25i"/>
-    <hyperlink ref="B862" r:id="rId1047" display="https://ts1.tc.mm.bing.net/th/id/R-C.31b5c8cb87e5bcac5a7b0d8e7ddf6204?rik=%2fPX7paUQ2q2%2fEA&amp;riu=http%3a%2f%2fpic.962.net%2fup%2f2014-6%2f14029858896119459.jpg&amp;ehk=3TVTiFKArczO%2fFpjRCaUbJIM0bO2fqrWwytPA8%2fWYSE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
-    <hyperlink ref="C863" r:id="rId1048" display="https://wwnj.lanzoup.com/ipRjt2iog2sb"/>
-    <hyperlink ref="B863" r:id="rId1049" display="https://ts1.tc.mm.bing.net/th/id/OIP-C.ie753_uleSlL3_-QM8EK4AHaEo?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C864" r:id="rId1050" display="https://wwnj.lanzoup.com/ilAnJ2iog2wf"/>
-    <hyperlink ref="B864" r:id="rId1051" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/449800/header.jpg?t=1748478864"/>
-    <hyperlink ref="C865" r:id="rId1052" display="https://wwnj.lanzoup.com/izoyf2iog2yh"/>
-    <hyperlink ref="C866" r:id="rId1053" display="https://wwnj.lanzoup.com/iqlqf2iog31a"/>
-    <hyperlink ref="B866" r:id="rId1054" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/601050/header.jpg?t=1748480803"/>
-    <hyperlink ref="C867" r:id="rId1055" display="https://wwnj.lanzoup.com/ipNsH2iog32b"/>
-    <hyperlink ref="B867" r:id="rId1056" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/445190/header.jpg?t=1660137029"/>
-    <hyperlink ref="C868" r:id="rId1057" display="https://wwnj.lanzoup.com/iuwKN2iog35e"/>
-    <hyperlink ref="B868" r:id="rId1058" display="https://ts3.tc.mm.bing.net/th/id/OIP-C.nqaCQhSQ97i7u5-2hPlBbQHaDQ?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C869" r:id="rId1059" display="https://wwnj.lanzoup.com/iX8SS2iog38h"/>
-    <hyperlink ref="B869" r:id="rId1060" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/222730/header_schinese.jpg?t=1730204355"/>
-    <hyperlink ref="C870" r:id="rId1061" display="https://wwnj.lanzoup.com/ihHh02iog3aj"/>
-    <hyperlink ref="B870" r:id="rId1062" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/378800/header.jpg?t=1729175314"/>
-    <hyperlink ref="C871" r:id="rId1063" display="https://wwnj.lanzoup.com/irNKg2iog3cb"/>
-    <hyperlink ref="B871" r:id="rId1064" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/312660/header.jpg?t=1681207252"/>
-    <hyperlink ref="C872" r:id="rId1065" display="https://wwnj.lanzoup.com/iYr7J2iog3fe"/>
-    <hyperlink ref="C873" r:id="rId1066" display="https://wwnj.lanzoup.com/i8tdn2iog3ji"/>
-    <hyperlink ref="B873" r:id="rId1067" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/368070/header.jpg?t=1728377817"/>
-    <hyperlink ref="C874" r:id="rId1068" display="https://wwnj.lanzoup.com/i6WFi2iog3kj"/>
-    <hyperlink ref="B874" r:id="rId1069" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/348470/header.jpg?t=1748479250"/>
-    <hyperlink ref="C875" r:id="rId1070" display="https://wwnj.lanzoup.com/ixaTh2iog3qf"/>
-    <hyperlink ref="B875" r:id="rId1071" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/451020/header.jpg?t=1751623470"/>
-    <hyperlink ref="C876" r:id="rId1072" display="https://wwnj.lanzoup.com/ij8S32iog3ti"/>
-    <hyperlink ref="B876" r:id="rId1073" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/450250/header.jpg?t=1711394681"/>
-    <hyperlink ref="C877" r:id="rId1074" display="https://wwnj.lanzoup.com/i72wN2iog48d"/>
-    <hyperlink ref="B877" r:id="rId1075" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1097840/header.jpg?t=1684425784"/>
-    <hyperlink ref="C878" r:id="rId1076" display="https://wwnj.lanzoup.com/im7ox2iog4af"/>
-    <hyperlink ref="B878" r:id="rId1077" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/975270/header_schinese.jpg?t=1659991962"/>
-    <hyperlink ref="C879" r:id="rId1078" display="https://wwnj.lanzoup.com/i9XLl2iog4di"/>
-    <hyperlink ref="B879" r:id="rId1079" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/443810/header.jpg?t=1725011264"/>
-    <hyperlink ref="C880" r:id="rId1080" display="https://wwnj.lanzoup.com/iO7tm2iog4gb"/>
-    <hyperlink ref="B880" r:id="rId1081" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/785740/header.jpg?t=1727253481"/>
-    <hyperlink ref="C881" r:id="rId1082" display="https://wwnj.lanzoup.com/idrB82iog4je"/>
-    <hyperlink ref="B881" r:id="rId1083" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/893180/header.jpg?t=1603127197"/>
-    <hyperlink ref="C882" r:id="rId1084" display="https://wwnj.lanzoup.com/iWNs32iog4mh"/>
-    <hyperlink ref="B882" r:id="rId1085" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/282070/header.jpg?t=1749488980"/>
-    <hyperlink ref="C883" r:id="rId1086" display="https://wwnj.lanzoup.com/igcRD2iog4pa"/>
-    <hyperlink ref="B883" r:id="rId1087" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/322520/header_schinese.jpg?t=1748480092"/>
-    <hyperlink ref="C884" r:id="rId1088" display="https://wwnj.lanzoup.com/igCML2iog4te"/>
-    <hyperlink ref="B884" r:id="rId1089" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/730310/header_schinese.jpg?t=1748480390"/>
-    <hyperlink ref="C885" r:id="rId1090" display="https://wwnj.lanzoup.com/iMKR02iog4wh" tooltip="https://wwnj.lanzoup.com/iMKR02iog4wh"/>
-    <hyperlink ref="B885" r:id="rId1091" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/460810/header.jpg?t=1721737247"/>
-    <hyperlink ref="C886" r:id="rId1092" display="https://wwnj.lanzoup.com/ig6l42iog4xi"/>
-    <hyperlink ref="B886" r:id="rId1093" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/447290/header.jpg?t=1748282919"/>
-    <hyperlink ref="C887" r:id="rId1094" display="https://wwnj.lanzoup.com/iIJU12iog51c"/>
-    <hyperlink ref="B887" r:id="rId1095" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/225540/header.jpg?t=1728396027"/>
-    <hyperlink ref="C888" r:id="rId1096" display="https://wwnj.lanzoup.com/iKG4L2iog53e"/>
-    <hyperlink ref="B888" r:id="rId1097" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/204450/header.jpg?t=1728907994"/>
-    <hyperlink ref="C889" r:id="rId1098" display="https://wwnj.lanzoup.com/i6N5E2iog55g"/>
-    <hyperlink ref="B889" r:id="rId1099" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/429660/header.jpg?t=1701306268"/>
-    <hyperlink ref="C890" r:id="rId1100" display="https://wwnj.lanzoup.com/iyZtu2iog58j"/>
-    <hyperlink ref="B890" r:id="rId1101" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1121560/header_schinese.jpg?t=1754314106"/>
-    <hyperlink ref="C891" r:id="rId1102" display="https://wwnj.lanzoup.com/ingwb2iog5ab"/>
-    <hyperlink ref="B891" r:id="rId1103" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1238000/8c7ff2de01854469c5202e522d8f8c00ab6ad052/header.jpg?t=1756158782"/>
-    <hyperlink ref="C892" r:id="rId1104" display="https://wwnj.lanzoup.com/iWbrP2iog5sj" tooltip="https://wwnj.lanzoup.com/iWbrP2iog5sj"/>
-    <hyperlink ref="B892" r:id="rId1105" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/658260/header.jpg?t=1749026715"/>
-    <hyperlink ref="C893" r:id="rId1106" display="https://wwnj.lanzoup.com/iBEER2iog5ub"/>
-    <hyperlink ref="B893" r:id="rId1107" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1238020/header.jpg?t=1683275829"/>
-    <hyperlink ref="C894" r:id="rId1108" display="https://wwnj.lanzoup.com/iDKNC2iog5wd"/>
-    <hyperlink ref="B894" r:id="rId1109" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/405310/header.jpg?t=1745541213"/>
-    <hyperlink ref="C895" r:id="rId1110" display="https://wwnj.lanzoup.com/ibh4B2iog5yf"/>
-    <hyperlink ref="B895" r:id="rId1111" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/249130/header.jpg?t=1745537557"/>
-    <hyperlink ref="C896" r:id="rId1112" display="https://wwnj.lanzoup.com/iSOQF2iog61i"/>
-    <hyperlink ref="B896" r:id="rId1113" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/356190/header_schinese.jpg?t=1747346596"/>
-    <hyperlink ref="C897" r:id="rId1114" display="https://wwnj.lanzoup.com/iUlWA2iog63a"/>
-    <hyperlink ref="B897" r:id="rId1115" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/438640/header.jpg?t=1745615896"/>
-    <hyperlink ref="C898" r:id="rId1116" display="https://wwnj.lanzoup.com/iHdoK2iog66d"/>
-    <hyperlink ref="B898" r:id="rId1117" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/357190/header.jpg?t=1644282901"/>
-    <hyperlink ref="C899" r:id="rId1118" display="https://wwnj.lanzoup.com/ifiTS2iog68f"/>
-    <hyperlink ref="B899" r:id="rId1119" display="https://gpstatic.com/acache/37/37/1/fr/t620x300-2b25b84e8546ed7ffd7e295e0fcb6e62.jpg"/>
-    <hyperlink ref="C900" r:id="rId1120" display="https://wwnj.lanzoup.com/iMU3R2iog6bi"/>
-    <hyperlink ref="B900" r:id="rId1121" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/626630/header.jpg?t=1577627542"/>
-    <hyperlink ref="C901" r:id="rId1122" display="https://wwnj.lanzoup.com/ihmXx2iog6da"/>
-    <hyperlink ref="B901" r:id="rId1123" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/311290/header.jpg?t=1725002687"/>
-    <hyperlink ref="C902" r:id="rId1124" display="https://wwnj.lanzoup.com/ipUP42iog6fc"/>
-    <hyperlink ref="B902" r:id="rId1125" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/474960/header.jpg?t=1682524073"/>
-    <hyperlink ref="C903" r:id="rId1126" display="https://wwnj.lanzoup.com/iPBQP2iog6if"/>
-    <hyperlink ref="B903" r:id="rId1127" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/817540/header.jpg?t=1727857389"/>
-    <hyperlink ref="C904" r:id="rId1128" display="https://wwnj.lanzoup.com/iovEW2iog6jg"/>
-    <hyperlink ref="B904" r:id="rId1129" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/460790/header.jpg?t=1721737243"/>
-    <hyperlink ref="C905" r:id="rId1130" display="https://wwnj.lanzoup.com/irrnP2iog6li"/>
-    <hyperlink ref="B905" r:id="rId1131" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/322630/header.jpg?t=1711394595"/>
-    <hyperlink ref="C906" r:id="rId1132" display="https://wwnj.lanzoup.com/iCE9y2iog6pc"/>
-    <hyperlink ref="B906" r:id="rId1133" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1449280/header.jpg?t=1607351334"/>
-    <hyperlink ref="C907" r:id="rId1134" display="https://wwnj.lanzoup.com/iAoIR2iog76j"/>
-    <hyperlink ref="B907" r:id="rId1135" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/409870/header.jpg?t=1753896042"/>
-    <hyperlink ref="C908" r:id="rId1136" display="https://wwnj.lanzoup.com/iiORa2iog79c"/>
-    <hyperlink ref="B908" r:id="rId1137" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1163590/header.jpg?t=1727942220"/>
-    <hyperlink ref="C909" r:id="rId1138" display="https://wwnj.lanzoup.com/iafPU2iog7cf"/>
-    <hyperlink ref="B909" r:id="rId1139" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/620590/header.jpg?t=1713951716"/>
-    <hyperlink ref="C910" r:id="rId1140" display="https://wwnj.lanzoup.com/iiTMc2iog7eh"/>
-    <hyperlink ref="B910" r:id="rId1141" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/496460/header.jpg?t=1595944132"/>
-    <hyperlink ref="C911" r:id="rId1142" display="https://wwnj.lanzoup.com/i4StU2iog7fi"/>
-    <hyperlink ref="B911" r:id="rId1143" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/435530/header.jpg?t=1752529763"/>
-    <hyperlink ref="C912" r:id="rId1144" display="https://wwnj.lanzoup.com/ivKJ92iog7ib"/>
-    <hyperlink ref="B912" r:id="rId1145" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1222690/header.jpg?t=1726253375"/>
-    <hyperlink ref="C913" r:id="rId1146" display="https://wwnj.lanzoup.com/igpVF2iog7kd"/>
-    <hyperlink ref="B913" r:id="rId1147" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/552700/header.jpg?t=1724998897"/>
-    <hyperlink ref="C914" r:id="rId1148" display="https://wwnj.lanzoup.com/iY9Z22iog7ng"/>
-    <hyperlink ref="B914" r:id="rId1149" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/359870/header.jpg?t=1746079842"/>
-    <hyperlink ref="C915" r:id="rId1150" display="https://wwnj.lanzoup.com/iTyJy2iog7pi"/>
-    <hyperlink ref="B915" r:id="rId1151" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/323470/header.jpg?t=1701323766"/>
-    <hyperlink ref="C916" r:id="rId1152" display="https://wwnj.lanzoup.com/iLPmZ2iog7sb"/>
-    <hyperlink ref="B916" r:id="rId1153" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/595520/header.jpg?t=1746070496"/>
-    <hyperlink ref="C917" r:id="rId1154" display="https://wwnj.lanzoup.com/iV0xV2iog7ve"/>
-    <hyperlink ref="B917" r:id="rId1155" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/292120/header.jpg?t=1746070365"/>
-    <hyperlink ref="C918" r:id="rId1156" display="https://wwnj.lanzoup.com/iyRbY2iog7xg"/>
-    <hyperlink ref="B918" r:id="rId1157" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/345350/header.jpg?t=1746070303"/>
-    <hyperlink ref="C919" r:id="rId1158" display="https://wwnj.lanzoup.com/iBZlu2iog7zi"/>
-    <hyperlink ref="B919" r:id="rId1159" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1045620/header.jpg?t=1749026538" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1045620/header.jpg?t=1749026538"/>
-    <hyperlink ref="C920" r:id="rId1160" display="https://wwnj.lanzoup.com/iYdRv2iog81a"/>
-    <hyperlink ref="B920" r:id="rId1161" display="https://tse2.mm.bing.net/th/id/OIP.-a7YosPB-kqmcFkdmqyFYgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://tse2.mm.bing.net/th/id/OIP.-a7YosPB-kqmcFkdmqyFYgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C921" r:id="rId1162" display="https://wwnj.lanzoup.com/iHCt62iog83c"/>
-    <hyperlink ref="B921" r:id="rId1163" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/742300/header.jpg?t=1701220165"/>
-    <hyperlink ref="C922" r:id="rId1164" display="https://wwnj.lanzoup.com/iZ4HE2iog8nc"/>
-    <hyperlink ref="B922" r:id="rId1165" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/340170/header.jpg?t=1615560326"/>
-    <hyperlink ref="C923" r:id="rId1166" display="https://wwnj.lanzoup.com/iPMmq2iog8pe"/>
-    <hyperlink ref="B923" r:id="rId1167" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/520440/header.jpg?t=1667365271"/>
-    <hyperlink ref="C924" r:id="rId1168" display="https://wwnj.lanzoup.com/itgP02iog8rg"/>
-    <hyperlink ref="B924" r:id="rId1169" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/493840/header.jpg?t=1752626251"/>
-    <hyperlink ref="C925" r:id="rId1170" display="https://wwnj.lanzoup.com/idYPi2iog8uj"/>
-    <hyperlink ref="B925" r:id="rId1171" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/376300/header.jpg?t=1671009243"/>
-    <hyperlink ref="C926" r:id="rId1172" display="https://wwnj.lanzoup.com/iCgfD2iog8wb"/>
-    <hyperlink ref="B926" r:id="rId1173" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1100410/header.jpg?t=1744213240"/>
-    <hyperlink ref="C927" r:id="rId1174" display="https://wwnj.lanzoup.com/iu3Da2iog90f"/>
-    <hyperlink ref="B927" r:id="rId1175" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/437000/header.jpg?t=1671012068"/>
-    <hyperlink ref="C928" r:id="rId1176" display="https://wwnj.lanzoup.com/i9GSO2ild9pe" tooltip="https://wwnj.lanzoup.com/i9GSO2ild9pe"/>
-    <hyperlink ref="B928" r:id="rId1177" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1641960/77759270e8c71630a2a3c54971a3abfacddb9253/header_schinese.jpg?t=1756384934"/>
-    <hyperlink ref="C929" r:id="rId1178" display="https://wwnj.lanzoup.com/imsVu2ild9qf"/>
-    <hyperlink ref="B929" r:id="rId1179" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1971870/header.jpg?t=1750176505"/>
-    <hyperlink ref="C930" r:id="rId1180" display="https://wwnj.lanzoup.com/ioitG2wd0kad"/>
-    <hyperlink ref="B930" r:id="rId1181" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1601580/header.jpg?t=1756391134"/>
-    <hyperlink ref="C931" r:id="rId1182" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=warhammer-40000-space-marine-2-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=warhammer-40000-space-marine-2-trainer"/>
-    <hyperlink ref="B931" r:id="rId1183" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2183900/header_schinese.jpg?t=1756470993"/>
-    <hyperlink ref="C932" r:id="rId1184" display="https://wwar.lanzout.com/i6tAY336en7c"/>
-    <hyperlink ref="B932" r:id="rId1185" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1527950/595870daa009e93ccf9445d39ec277636fd0a662/header_alt_assets_14.jpg?t=1755512479"/>
-    <hyperlink ref="C933" r:id="rId1186" display="https://wwnj.lanzoup.com/i6JJj2ilda4j"/>
-    <hyperlink ref="B933" r:id="rId1187" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1659040/c62446d5c95f583a296d7f1b99045a61e2f81dea/header.jpg?t=1755614152"/>
-    <hyperlink ref="C934" r:id="rId1188" display="https://wwnj.lanzoup.com/iySzr2ilda7c"/>
-    <hyperlink ref="B934" r:id="rId1189" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1149460/header_schinese.jpg?t=1753143921"/>
-    <hyperlink ref="C935" r:id="rId1190" display="https://wwar.lanzout.com/ikpA7336exni"/>
-    <hyperlink ref="B935" r:id="rId1191" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2080690/header.jpg?t=1748457033"/>
-    <hyperlink ref="C936" r:id="rId1192" display="https://wwnj.lanzoup.com/icXT02ildahc"/>
-    <hyperlink ref="B936" r:id="rId1193" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1366540/header_schinese.jpg?t=1755848894"/>
-    <hyperlink ref="B937" r:id="rId1194" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2243210/header.jpg?t=1717062639"/>
-    <hyperlink ref="C938" r:id="rId1195" display="https://wwar.lanzout.com/ix2C42zrnjmj"/>
-    <hyperlink ref="B938" r:id="rId1196" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1643320/header.jpg?t=1754580652"/>
-    <hyperlink ref="C939" r:id="rId1197" display="https://wwar.lanzout.com/iDdOZ31jxqxg"/>
-    <hyperlink ref="B939" r:id="rId1198" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1611600/header.jpg?t=1752163598"/>
-    <hyperlink ref="C937" r:id="rId1199" display="https://wwdl.lanzoul.com/ihGRA34bh3yd"/>
-    <hyperlink ref="C940" r:id="rId1200" display="https://wwnj.lanzoup.com/i2J5V2ildcfc"/>
-    <hyperlink ref="B940" r:id="rId1201" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1401590/feba53ee089c62699c8f60cc4423ae4b3cc8372d/header_alt_assets_2.jpg?t=1755698316"/>
-    <hyperlink ref="C941" r:id="rId1202" display="https://wwnj.lanzoup.com/irrzD2ildcif"/>
-    <hyperlink ref="B941" r:id="rId1203" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1201230/17f0d0a9664adafb16f3238152780743708f7d6a/header_schinese.jpg?t=1753262056"/>
-    <hyperlink ref="C942" r:id="rId1204" display="https://wwnj.lanzoup.com/ifecp2ildcli"/>
-    <hyperlink ref="B942" r:id="rId1205" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1268590/header.jpg?t=1734339413"/>
-    <hyperlink ref="C943" r:id="rId1206" display="https://wwnj.lanzoup.com/imxCg2izpmha" tooltip="https://wwnj.lanzoup.com/imxCg2izpmha"/>
-    <hyperlink ref="B943" r:id="rId1207" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/220240/header.jpg?t=1752169206"/>
-    <hyperlink ref="C944" r:id="rId1208" display="https://wwnj.lanzoup.com/iaOyP2v2y9kj"/>
-    <hyperlink ref="B944" r:id="rId1209" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1371980/84ed28a12e7ab7547deaa2b979c653219ba17ef5/header.jpg?t=1753815511"/>
-    <hyperlink ref="C945" r:id="rId1210" display="https://wwnj.lanzoup.com/ih7zz2uwz4nc"/>
-    <hyperlink ref="B945" r:id="rId1211" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1812450/header.jpg?t=1747140005"/>
-    <hyperlink ref="C946" r:id="rId1212" display="https://wwnj.lanzoup.com/i1CJl2luindi"/>
-    <hyperlink ref="B946" r:id="rId1213" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3319980/header_schinese.jpg?t=1739507056"/>
-    <hyperlink ref="C947" r:id="rId1214" display="https://wwnj.lanzoup.com/iVg0E2ildcpc"/>
-    <hyperlink ref="B947" r:id="rId1215" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1290000/header_schinese.jpg?t=1750418634"/>
-    <hyperlink ref="C948" r:id="rId1216" display="https://wwnj.lanzoup.com/isB052ildcqd"/>
-    <hyperlink ref="B948" r:id="rId1217" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2933080/header.jpg?t=1753197166"/>
-    <hyperlink ref="C949" r:id="rId1218" display="https://wwnj.lanzn.com/ii19Q2y2s1ud"/>
-    <hyperlink ref="B949" r:id="rId1219" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1575940/header.jpg?t=1755107395" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1575940/header.jpg?t=1755107395"/>
-    <hyperlink ref="B950" r:id="rId1220" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/780310/dd5bfa48472fc06f2d802de1844d4dee850eb23b/header_alt_assets_6_schinese.jpg?t=1756478745"/>
-    <hyperlink ref="C951" r:id="rId1221" display="https://wwnj.lanzoup.com/iHtAn2ildcyb"/>
-    <hyperlink ref="B951" r:id="rId1222" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2021880/header.jpg?t=1750273812"/>
-    <hyperlink ref="C952" r:id="rId1223" display="https://wwnj.lanzoup.com/iXIeH2uwz4ed"/>
-    <hyperlink ref="B952" r:id="rId1224" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2103140/aea46491dd64ede9886db2290702f4ebd18f35c7/header_schinese.jpg?t=1751460044"/>
-    <hyperlink ref="C953" r:id="rId1225" display="https://wwnj.lanzoup.com/iZbcT2ilddxg"/>
-    <hyperlink ref="B953" r:id="rId1226" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2807150/f1d0b1b635e524cde6fe543702963274572f563b/header.jpg?t=1748003417"/>
-    <hyperlink ref="C954" r:id="rId1227" display="https://wwnj.lanzoup.com/it8942t3ljxi"/>
-    <hyperlink ref="B954" r:id="rId1228" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2457220/header.jpg?t=1752606152"/>
-    <hyperlink ref="C955" r:id="rId1229" display="https://wwar.lanzout.com/iISrS336ew2b" tooltip="https://wwar.lanzout.com/iISrS336ew2b"/>
-    <hyperlink ref="B955" r:id="rId1230" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3178350/header_schinese.jpg?t=1751598056"/>
-    <hyperlink ref="C956" r:id="rId1231" display="https://wwnj.lanzoup.com/iXKvo2osxzbe" tooltip="https://wwnj.lanzoup.com/iXKvo2osxzbe"/>
-    <hyperlink ref="B956" r:id="rId1232" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/638970/header_schinese.jpg?t=1741340656"/>
-    <hyperlink ref="B957" r:id="rId1233" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/927380/header_schinese.jpg?t=1741336670"/>
-    <hyperlink ref="C957" r:id="rId1234" display="https://wwnj.lanzoup.com/iBFsE2osxzfi"/>
-    <hyperlink ref="C958" r:id="rId1235" display="https://wwnj.lanzoup.com/i2JCW2osxzjc"/>
-    <hyperlink ref="B958" r:id="rId1236" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/834530/header_schinese.jpg?t=1741324846"/>
-    <hyperlink ref="C959" r:id="rId1237" display="https://wwnj.lanzoup.com/iJVOP2osy0ih"/>
-    <hyperlink ref="B959" r:id="rId1238" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2072450/header_schinese.jpg?t=1741338012"/>
-    <hyperlink ref="C960" r:id="rId1239" display="https://wwnj.lanzoup.com/iSWmT2r2psid"/>
-    <hyperlink ref="B960" r:id="rId1240" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3061810/header_schinese.jpg?t=1748588899"/>
-    <hyperlink ref="C961" r:id="rId1241" display="https://wwnj.lanzoup.com/igUxK2osxzpi"/>
-    <hyperlink ref="B961" r:id="rId1242" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1235140/header_schinese.jpg?t=1741337797"/>
-    <hyperlink ref="C962" r:id="rId1243" display="https://wwnj.lanzoup.com/iqfXS2osy0ba"/>
-    <hyperlink ref="B962" r:id="rId1244" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2375550/header_schinese.jpg?t=1741337896"/>
-    <hyperlink ref="C963" r:id="rId1245" display="https://wwnj.lanzoup.com/idtY02osy04d"/>
-    <hyperlink ref="B963" r:id="rId1246" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1388590/header_schinese.jpg?t=1741337639"/>
-    <hyperlink ref="C964" r:id="rId1247" display="https://wwnj.lanzoup.com/iX1Ip2osy00j"/>
-    <hyperlink ref="B964" r:id="rId1248" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1105510/header_schinese.jpg?t=1741336953"/>
-    <hyperlink ref="C965" r:id="rId1249" display="https://wwnj.lanzoup.com/iyf2Q2osxzsb"/>
-    <hyperlink ref="B965" r:id="rId1250" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1105500/header_schinese.jpg?t=1741336902"/>
-    <hyperlink ref="C966" r:id="rId1251" display="https://wwnj.lanzoup.com/ivjU82osxzxg"/>
-    <hyperlink ref="B966" r:id="rId1252" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1088710/header_schinese.jpg?t=1741336858"/>
-    <hyperlink ref="C967" r:id="rId1253" display="https://wwnj.lanzoup.com/iVxpW2osy07g"/>
-    <hyperlink ref="B967" r:id="rId1254" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1805480/header_schinese.jpg?t=1741337729"/>
-    <hyperlink ref="C968" r:id="rId1255" display="https://wwnj.lanzoup.com/iyzGm2ot1bdg"/>
-    <hyperlink ref="B968" r:id="rId1256" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1238810/header.jpg?t=1747167586" tooltip="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1238810/header.jpg?t=1747167586"/>
-    <hyperlink ref="C969" r:id="rId1257" display="https://wwnj.lanzoup.com/iOiru2ot1kjg"/>
-    <hyperlink ref="B969" r:id="rId1258" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/476600/header.jpg?t=1751302904"/>
-    <hyperlink ref="C970" r:id="rId1259" display="https://wwnj.lanzoup.com/ievlA2ot1khe"/>
-    <hyperlink ref="B970" r:id="rId1260" display="https://www.vortez.net/news_thumb/18661_callofduty-modern-warfare-2-remastered.jpg"/>
-    <hyperlink ref="C971" r:id="rId1261" display="https://wwnj.lanzoup.com/iBd512uwz4ba"/>
-    <hyperlink ref="B971" r:id="rId1262" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2445690/header.jpg?t=1755685015"/>
-    <hyperlink ref="C972" r:id="rId1263" display="https://wwnj.lanzoup.com/i1Yq22owb0ej"/>
-    <hyperlink ref="B972" r:id="rId1264" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1466860/header.jpg?t=1755633307"/>
-    <hyperlink ref="C973" r:id="rId1265" display="https://wwnj.lanzoup.com/iEF9d2m8s3nc"/>
-    <hyperlink ref="B973" r:id="rId1266" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2530980/header_schinese.jpg?t=1739758056"/>
-    <hyperlink ref="C974" r:id="rId1267" display="https://wwnj.lanzoup.com/iNRLs2t3ljmh"/>
-    <hyperlink ref="B974" r:id="rId1268" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1340990/header_schinese.jpg?t=1749459550"/>
-    <hyperlink ref="C975" r:id="rId1269" display="https://wwnj.lanzoup.com/iLpAq2qlk4ji"/>
-    <hyperlink ref="B975" r:id="rId1270" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1971650/header.jpg?t=1751339832"/>
-    <hyperlink ref="C976" r:id="rId1271" display="https://wwnj.lanzoup.com/idKmv2mgg6kd"/>
-    <hyperlink ref="B976" r:id="rId1272" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1991040/header.jpg?t=1750920038"/>
-    <hyperlink ref="C977" r:id="rId1273" display="https://wwar.lanzout.com/i6Gin326p7sh"/>
-    <hyperlink ref="B977" r:id="rId1274" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2287330/header.jpg?t=1752740587"/>
-    <hyperlink ref="C978" r:id="rId1275" display="https://wwnj.lanzoup.com/iuhYi2rnisyd"/>
-    <hyperlink ref="B978" r:id="rId1276" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3123410/header_schinese.jpg?t=1756083666"/>
-    <hyperlink ref="C979" r:id="rId1277" display="https://wwnj.lanzoup.com/iKhya2tb0oah"/>
-    <hyperlink ref="B979" r:id="rId1278" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1371580/header_schinese.jpg?t=1754043330"/>
-    <hyperlink ref="B980" r:id="rId1279" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/899770/250e7649349ffe7a23b29e14a9f035b0419f2d8d/header_alt_assets_0.jpg?t=1755792910"/>
-    <hyperlink ref="C980" r:id="rId1280" display="https://wwdl.lanzoul.com/iItwy34bgtsh"/>
-    <hyperlink ref="C981" r:id="rId1281" display="https://wwdl.lanzoul.com/i9sjW33mhiva"/>
-    <hyperlink ref="B981" r:id="rId1282" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2928600/cc87d8c871fe561f427e00722663de7cdc41b772/header_schinese.jpg?t=1755677388"/>
-    <hyperlink ref="C982" r:id="rId1283" display="https://wwnj.lanzoup.com/ibes82py91re"/>
-    <hyperlink ref="C983" r:id="rId1284" display="https://wwnj.lanzoup.com/isYzm2oszfsd"/>
-    <hyperlink ref="B983" r:id="rId1285" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/271590/header.jpg?t=1753979045"/>
-    <hyperlink ref="C984" r:id="rId1286" display="https://wwnj.lanzoup.com/io59w2osytdg"/>
-    <hyperlink ref="B984" r:id="rId1287" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1547000/header.jpg?t=1741117455"/>
-    <hyperlink ref="C985" r:id="rId1288" display="https://wwnj.lanzoup.com/iFMXW2osytra"/>
-    <hyperlink ref="B985" r:id="rId1289" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1546970/header.jpg?t=1741117830"/>
-    <hyperlink ref="C986" r:id="rId1290" display="https://wwnj.lanzoup.com/iIxMh2osytng"/>
-    <hyperlink ref="B986" r:id="rId1291" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1546990/header.jpg?t=1741117543"/>
-    <hyperlink ref="D983" r:id="rId1292" display="https://wwnj.lanzoup.com/itbrK2oszfwh"/>
-    <hyperlink ref="D982" r:id="rId1293" display="https://wwnj.lanzoup.com/iMbF22py91sf"/>
-    <hyperlink ref="C987" r:id="rId1294" display="https://wwnj.lanzoup.com/ij1aV2ot01jg"/>
-    <hyperlink ref="B987" r:id="rId1295" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1196590/header.jpg?t=1741142800"/>
-    <hyperlink ref="D987" r:id="rId1296" display="https://wwnj.lanzoup.com/id2vg2ot01he"/>
-    <hyperlink ref="C988" r:id="rId1297" display="https://wwnj.lanzoup.com/iYFX92ot01bi"/>
-    <hyperlink ref="B988" r:id="rId1298" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/418370/header.jpg?t=1728436752"/>
-    <hyperlink ref="C989" r:id="rId1299" display="https://wwnj.lanzoup.com/i0HAY2ot016d"/>
-    <hyperlink ref="B989" r:id="rId1300" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/221040/header.jpg?t=1700452901"/>
-    <hyperlink ref="C990" r:id="rId1301" display="https://wwnj.lanzoup.com/iZh2F2ot01pc"/>
-    <hyperlink ref="B990" r:id="rId1302" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/21690/header.jpg?t=1712193350"/>
-    <hyperlink ref="C991" r:id="rId1303" display="https://wwnj.lanzoup.com/i6CqW2ot01na"/>
-    <hyperlink ref="B991" r:id="rId1304" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2050650/header.jpg?t=1736385712"/>
-    <hyperlink ref="D991" r:id="rId1305" display="https://wwnj.lanzoup.com/izBdm2ot01mj"/>
-    <hyperlink ref="C992" r:id="rId1306" display="https://wwnj.lanzoup.com/ixxrA2ot01cj"/>
-    <hyperlink ref="B992" r:id="rId1307" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/952060/header.jpg?t=1728438347"/>
-    <hyperlink ref="C993" r:id="rId1308" display="https://wwnj.lanzoup.com/io0yk2ot01da"/>
-    <hyperlink ref="B993" r:id="rId1309" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/883710/header_schinese.jpg?t=1728438541" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/883710/header_schinese.jpg?t=1728438541"/>
-    <hyperlink ref="C994" r:id="rId1310" display="https://wwnj.lanzoup.com/iYnYn2ot014b"/>
-    <hyperlink ref="B994" r:id="rId1311" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/304240/header.jpg?t=1709710949"/>
-    <hyperlink ref="C995" r:id="rId1312" display="https://wwnj.lanzoup.com/i6Z2G2ot018f"/>
-    <hyperlink ref="B995" r:id="rId1313" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/287290/header.jpg?t=1700453056"/>
-    <hyperlink ref="C996" r:id="rId1314" display="https://wwnj.lanzoup.com/i4ZG52ot01ah"/>
-    <hyperlink ref="B996" r:id="rId1315" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/222480/header.jpg?t=1756429321"/>
-    <hyperlink ref="C997" r:id="rId1316" display="https://wwnj.lanzoup.com/iFJZ22ot1oab"/>
-    <hyperlink ref="D997" r:id="rId1316" display="https://wwnj.lanzoup.com/iFJZ22ot1oab"/>
-    <hyperlink ref="C998" r:id="rId1317" display="https://wwnj.lanzoup.com/iFqwW2ot1ocd"/>
-    <hyperlink ref="D998" r:id="rId1318" display="https://wwnj.lanzoup.com/iGeoM2ot1obc"/>
-    <hyperlink ref="B997" r:id="rId1319" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/447040/header.jpg?t=1751986887"/>
-    <hyperlink ref="B998" r:id="rId1320" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2239550/header.jpg?t=1747655055"/>
-    <hyperlink ref="C999" r:id="rId1321" display="https://wwnj.lanzoup.com/iU1dV2r2psoj"/>
-    <hyperlink ref="B999" r:id="rId1322" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/394360/67bbd0057627fc2244793bcdd09260c2539499cf/header.jpg?t=1747327288"/>
-    <hyperlink ref="C1000" r:id="rId1323" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=lost-soul-aside-trainer"/>
-    <hyperlink ref="C1001" r:id="rId1324" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=story-of-seasons-grand-bazaar-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=story-of-seasons-grand-bazaar-trainer"/>
-    <hyperlink ref="B1001" r:id="rId1325" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/2508780/b5b3cc42745093e94b1e5d28643f17d210cec0b5/header_schinese.jpg?t=1756419033"/>
-    <hyperlink ref="C1002" r:id="rId1326" display="https://wwoq.lanzouo.com/i0uJq335jagh"/>
-    <hyperlink ref="B1002" r:id="rId1327" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/209650/header.jpg?t=1646762527"/>
-    <hyperlink ref="C1003" r:id="rId1328" display="https://wwoq.lanzouo.com/izOnH333o4xg"/>
-    <hyperlink ref="C1004" r:id="rId1329" display="https://wwoq.lanzouo.com/iivjZ32sznli"/>
-    <hyperlink ref="B1004" r:id="rId1330" display="https://tse1.mm.bing.net/th/id/OIP.sroSuOliHB3H0iQLr9oQXgHaEK?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://tse1.mm.bing.net/th/id/OIP.sroSuOliHB3H0iQLr9oQXgHaEK?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C1005" r:id="rId1331" display="https://wwoq.lanzouo.com/i27Xa32mm3pi"/>
-    <hyperlink ref="C1006" r:id="rId1332" display="https://wwoq.lanzouo.com/iLOC633qrvqh"/>
-    <hyperlink ref="C1007" r:id="rId1333" display="https://wwnj.lanzoup.com/ilrd62im11lg" tooltip="https://wwnj.lanzoup.com/ilrd62im11lg"/>
-    <hyperlink ref="B1007" r:id="rId1334" display="https://img9.doubanio.com/lpic/s33963630.jpg" tooltip="https://img9.doubanio.com/lpic/s33963630.jpg"/>
-    <hyperlink ref="C1008" r:id="rId1335" display="https://wwnj.lanzoup.com/iF8iK2im11oj"/>
-    <hyperlink ref="C1009" r:id="rId1336" display="https://wwnj.lanzoup.com/iUUcY2r2pssd"/>
-    <hyperlink ref="A1009" r:id="rId1336" display="最终幻想3（Final Fantasy III） 像素复刻版" tooltip="https://wwnj.lanzoup.com/iUUcY2r2pssd"/>
-    <hyperlink ref="C1010" r:id="rId1337" display="https://wwnj.lanzoup.com/iHWmb2im11te"/>
-    <hyperlink ref="C1011" r:id="rId1338" display="https://wwnj.lanzoup.com/iDXKv2im11uf"/>
-    <hyperlink ref="B1011" r:id="rId1339" display="https://ts3.tc.mm.bing.net/th/id/OIP-C.zRDrlHf_lGPjHNSxPPQtqgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://ts3.tc.mm.bing.net/th/id/OIP-C.zRDrlHf_lGPjHNSxPPQtqgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
-    <hyperlink ref="C1012" r:id="rId1340" display="https://wwnj.lanzoup.com/iHVRo2im11xi"/>
-    <hyperlink ref="B1003" r:id="rId1341" display="https://wx.y.gtimg.cn/music/photo_new/T053XD00002LWLDO4LIDGt.jpg"/>
-    <hyperlink ref="B1005" r:id="rId1342" display="https://www.npbeta.com/wp-content/uploads/2017/08/2017-06-10-3-1-825x477.png"/>
-    <hyperlink ref="B1006" r:id="rId1343" display="https://th.bing.com/th/id/R.82a8fb76954c152f438a419ec0b1838f?rik=GdFXLHqftyrfDg&amp;riu=http%3a%2f%2fpic.3h3.com%2fup%2f2019-12%2f201912161658255166.jpg&amp;ehk=iAHUraJ%2fUJrlDa9W993NFssdc4dAvc0KYP1EydMSE4Y%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
-    <hyperlink ref="B1008" r:id="rId1344" display="https://img1.doubanio.com/lpic/s33963639.jpg"/>
-    <hyperlink ref="B1009" r:id="rId1345" display="https://img9.doubanio.com/lpic/s33964174.jpg"/>
-    <hyperlink ref="B1010" r:id="rId1346" display="https://www.pcgameres.com/upload/portal/20211205/c70c7d3bb69b8fd88dc75fbeb3e9828b.jpg" tooltip="https://www.pcgameres.com/upload/portal/20211205/c70c7d3bb69b8fd88dc75fbeb3e9828b.jpg"/>
-    <hyperlink ref="B1012" r:id="rId1347" display="https://www.pcgameres.com/upload/portal/20220820/389c87186a882fe1ab3f8e281a9d3c75.jpg" tooltip="https://www.pcgameres.com/upload/portal/20220820/389c87186a882fe1ab3f8e281a9d3c75.jpg"/>
-    <hyperlink ref="B453" r:id="rId1348" display="https://imgheybox.max-c.com/bbs/2021/07/09/92ec1caa2f573ffc341df1bbcfbab984/thumb.png" tooltip="https://imgheybox.max-c.com/bbs/2021/07/09/92ec1caa2f573ffc341df1bbcfbab984/thumb.png"/>
-    <hyperlink ref="B454" r:id="rId1349" display="https://th.bing.com/th/id/R.3f310025edbc8655600e3a4c572b287c?rik=HUBeYIKUqKnAJg&amp;riu=http%3a%2f%2fi0.hdslb.com%2fbfs%2farchive%2fec4ba51ffbec11f0010248e4760c498f16ae3d56.png&amp;ehk=Rb%2bQHXHSVvuiahHkLAjOlBeWBJunwtVW9CCZgeNvgX0%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
-    <hyperlink ref="B71" r:id="rId1350" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3287520/header.jpg?t=1749459551" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3287520/header.jpg?t=1749459551"/>
-    <hyperlink ref="B451" r:id="rId1351" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1369760/ss_d9c2a038d2633169e2a8de8ff3dd80f6b804a4ca.1920x1080.jpg" tooltip="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1369760/ss_d9c2a038d2633169e2a8de8ff3dd80f6b804a4ca.1920x1080.jpg"/>
-    <hyperlink ref="C1013" r:id="rId1352" display="https://wwdl.lanzoul.com/iZfmd2zn7yjg"/>
-    <hyperlink ref="B1013" r:id="rId1353" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/460930/header.jpg?t=1734366779"/>
-    <hyperlink ref="D1013" r:id="rId1354" display="https://wwnj.lanzoup.com/iTGfi2iog20d"/>
-    <hyperlink ref="B698" r:id="rId1355" display="https://s3.gaming-cdn.com/images/products/8381/380x218/pro-evolution-soccer-2019-david-beckham-edition-david-beckham-edition-pc-game-steam-europe-cover.jpg?v=1673766000"/>
-    <hyperlink ref="C1014" r:id="rId1356" display="https://archive.flingtrainer.com/files/Alan%20Wake%20v1.03-v1.05.16.3541%20Plus%2011%20Trainer.rar"/>
-    <hyperlink ref="B1014" r:id="rId1357" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/108710/header.jpg?t=1726554283"/>
-    <hyperlink ref="B5" r:id="rId1358" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1030300/7983574d464e6559ac7e24275727f73a8bcca1f3/header.jpg?t=1756994410"/>
-    <hyperlink ref="C5" r:id="rId1359" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=hollow-knight-silksong-trainer"/>
-    <hyperlink ref="C4" r:id="rId1360" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=daemon-x-machina-titanic-scion-trainer"/>
-    <hyperlink ref="B4" r:id="rId1361" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1342490/dc5fd7e61c483622ee093b53b1a0928e4ea90996/header.jpg?t=1757095114"/>
-    <hyperlink ref="D931" r:id="rId1362" display="https://wwoq.lanzouo.com/ia04D35t21ne"/>
-    <hyperlink ref="C3" r:id="rId1363" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=cronos-the-new-dawn-trainer"/>
-    <hyperlink ref="C2" r:id="rId1364" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=borderlands-4-trainer"/>
-    <hyperlink ref="B2" r:id="rId1365" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1285190/986a88d1b0e1420b00183def2a7034508353afa3/header.jpg?t=1757716331"/>
-    <hyperlink ref="C950" r:id="rId1366" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=the-riftbreaker-trainer"/>
-    <hyperlink ref="C75" r:id="rId1367" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=kingdom-come-deliverance-ii-trainer"/>
+    <hyperlink ref="C457" r:id="rId500" display="https://wwnj.lanzoup.com/iTFOq2inhv5c" tooltip="https://wwnj.lanzoup.com/iTFOq2inhv5c"/>
+    <hyperlink ref="D7" r:id="rId501" display="https://wwdl.lanzoul.com/ihaJH34p2tji"/>
+    <hyperlink ref="D10" r:id="rId502" display="https://wwdl.lanzoul.com/iZUmf34kqrkb"/>
+    <hyperlink ref="D31" r:id="rId503" display="https://wwnj.lanzn.com/iJb5q2wzv49e"/>
+    <hyperlink ref="D32" r:id="rId504" display="https://wwnj.lanzn.com/ioBX72xmj45g"/>
+    <hyperlink ref="D50" r:id="rId505" display="https://wwdl.lanzoul.com/i8XAQ34261ah"/>
+    <hyperlink ref="D52" r:id="rId506" display="https://wwnj.lanzoup.com/ioFeX2im0l4d"/>
+    <hyperlink ref="D97" r:id="rId507" display="https://wwnj.lanzoup.com/ihjrp2uwz4dc"/>
+    <hyperlink ref="D148" r:id="rId508" display="https://wwnj.lanzoup.com/itOG32im0jgd"/>
+    <hyperlink ref="D167" r:id="rId509" display="https://wwnj.lanzoup.com/isson2im0nub"/>
+    <hyperlink ref="D170" r:id="rId510" display="https://wwnj.lanzoup.com/imfWi2im0o6d"/>
+    <hyperlink ref="D207" r:id="rId511" display="https://wwnj.lanzoup.com/ifnMG2im12pg"/>
+    <hyperlink ref="D232" r:id="rId512" display="https://wwnj.lanzoup.com/irn4c2im6udc"/>
+    <hyperlink ref="D252" r:id="rId513" display="https://wwnj.lanzoup.com/irBiy2im6w9a"/>
+    <hyperlink ref="D269" r:id="rId514" display="https://wwnj.lanzoup.com/i5diO2im6ypi"/>
+    <hyperlink ref="D307" r:id="rId515" display="https://wwnj.lanzoup.com/iyuAq2im78mf"/>
+    <hyperlink ref="D312" r:id="rId516" display="https://wwnj.lanzoup.com/iyJWD2im796f"/>
+    <hyperlink ref="D324" r:id="rId517" display="https://wwnj.lanzoup.com/iFkyg2inhqeb"/>
+    <hyperlink ref="D367" r:id="rId518" display="https://wwnj.lanzoup.com/i7T522inht9e"/>
+    <hyperlink ref="D410" r:id="rId519" display="https://wwnj.lanzoup.com/iyeAU2inl42b"/>
+    <hyperlink ref="C458" r:id="rId520" display="https://wwnj.lanzoup.com/id6Vl2inl7cj"/>
+    <hyperlink ref="C459" r:id="rId521" display="https://wwnj.lanzoup.com/i5WU42inl7da"/>
+    <hyperlink ref="C460" r:id="rId522" display="https://wwnj.lanzoup.com/i9qCP2inl7eb"/>
+    <hyperlink ref="C461" r:id="rId523" display="https://wwnj.lanzoup.com/i95Xh2inl7he"/>
+    <hyperlink ref="C462" r:id="rId524" display="https://wwnj.lanzoup.com/iNyXZ2inl7if"/>
+    <hyperlink ref="C463" r:id="rId525" display="https://wwnj.lanzoup.com/iSQlG2inl7qd"/>
+    <hyperlink ref="C464" r:id="rId526" display="https://wwnj.lanzoup.com/iHO2R2inl7re"/>
+    <hyperlink ref="C465" r:id="rId527" display="https://wwnj.lanzoup.com/iOQFb2inl7sf"/>
+    <hyperlink ref="C466" r:id="rId528" display="https://wwnj.lanzoup.com/iAU532inl7tg"/>
+    <hyperlink ref="C467" r:id="rId529" display="https://wwnj.lanzoup.com/iCgLA2inl7uh"/>
+    <hyperlink ref="C468" r:id="rId530" display="https://wwnj.lanzoup.com/ialOB2inl7vi"/>
+    <hyperlink ref="C469" r:id="rId531" display="https://wwnj.lanzoup.com/iL2xw2inl7xa"/>
+    <hyperlink ref="C470" r:id="rId532" display="https://wwnj.lanzoup.com/iJArx2inl7zc"/>
+    <hyperlink ref="C471" r:id="rId533" display="https://wwnj.lanzoup.com/ihoIl2inl80d"/>
+    <hyperlink ref="C472" r:id="rId534" display="https://wwnj.lanzoup.com/i8i2J2inl81e"/>
+    <hyperlink ref="C473" r:id="rId535" display="https://wwnj.lanzoup.com/ieAP42inl82f"/>
+    <hyperlink ref="B473" r:id="rId536" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/268500/header.jpg?t=1646157374"/>
+    <hyperlink ref="C474" r:id="rId537" display="https://wwnj.lanzoup.com/iIXbg2inl84h"/>
+    <hyperlink ref="C475" r:id="rId538" display="https://wwnj.lanzoup.com/i4wtz2inl85i"/>
+    <hyperlink ref="D475" r:id="rId539" display="https://wwnj.lanzoup.com/ialua2inl87a"/>
+    <hyperlink ref="C476" r:id="rId540" display="https://wwnj.lanzoup.com/ikZvm2inl89c"/>
+    <hyperlink ref="C477" r:id="rId541" display="https://wwnj.lanzoup.com/iJXoO2inl8tc"/>
+    <hyperlink ref="C478" r:id="rId542" display="https://wwnj.lanzoup.com/igYef2inl8ve"/>
+    <hyperlink ref="C479" r:id="rId543" display="https://wwnj.lanzoup.com/i9L1G2inl8xg"/>
+    <hyperlink ref="C480" r:id="rId544" display="https://wwnj.lanzoup.com/iZPCg2inl8zi"/>
+    <hyperlink ref="B481" r:id="rId545" display="https://ts4.tc.mm.bing.net/th/id/OIP-C.Y-7TVooVsys5Khae4La6VQHaEo?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C481" r:id="rId546" display="https://wwnj.lanzoup.com/iNsf62inl90j"/>
+    <hyperlink ref="C482" r:id="rId547" display="https://wwnj.lanzoup.com/iWvTn2m32ipi"/>
+    <hyperlink ref="C483" r:id="rId548" display="https://wwnj.lanzoup.com/ioBZp2inl96f"/>
+    <hyperlink ref="C484" r:id="rId549" display="https://wwnj.lanzoup.com/ii4fT2inl97g"/>
+    <hyperlink ref="C485" r:id="rId550" display="https://wwnj.lanzoup.com/iLNd12inl98h"/>
+    <hyperlink ref="C486" r:id="rId551" display="https://wwnj.lanzoup.com/iVgXU2inl99i"/>
+    <hyperlink ref="C487" r:id="rId552" display="https://wwnj.lanzoup.com/iqGw42inl9aj" tooltip="https://wwnj.lanzoup.com/iqGw42inl9aj"/>
+    <hyperlink ref="C488" r:id="rId553" display="https://wwnj.lanzoup.com/idAFB2inl9cb"/>
+    <hyperlink ref="C489" r:id="rId554" display="https://wwnj.lanzoup.com/isfx62inl9gf"/>
+    <hyperlink ref="C490" r:id="rId555" display="https://wwnj.lanzoup.com/iQWZ22inl9ji"/>
+    <hyperlink ref="B490" r:id="rId556" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/535930/header_schinese.jpg?t=1726486228"/>
+    <hyperlink ref="C491" r:id="rId557" display="https://wwnj.lanzoup.com/irqB02inl9uj"/>
+    <hyperlink ref="C492" r:id="rId558" display="https://wwnj.lanzoup.com/iCSIu2inl9va"/>
+    <hyperlink ref="C493" r:id="rId559" display="https://wwnj.lanzoup.com/izeez2inl9xc"/>
+    <hyperlink ref="C494" r:id="rId560" display="https://wwnj.lanzoup.com/iJVNu2inl9ze"/>
+    <hyperlink ref="C495" r:id="rId561" display="https://wwnj.lanzoup.com/iA2sc2inla0f"/>
+    <hyperlink ref="C496" r:id="rId562" display="https://wwnj.lanzoup.com/ioN302inla2h"/>
+    <hyperlink ref="C497" r:id="rId563" display="https://wwnj.lanzoup.com/iv2LV2inla3i"/>
+    <hyperlink ref="C498" r:id="rId564" display="https://wwnj.lanzoup.com/ijTxr2inla5a"/>
+    <hyperlink ref="C499" r:id="rId565" display="https://wwnj.lanzoup.com/iBe8h2inla6b"/>
+    <hyperlink ref="C500" r:id="rId566" display="https://wwnj.lanzoup.com/iB9Nf2inrvqd"/>
+    <hyperlink ref="C501" r:id="rId567" display="https://wwnj.lanzoup.com/ibWmr2inrvtg"/>
+    <hyperlink ref="C502" r:id="rId568" display="https://wwnj.lanzoup.com/in5MA2inrvvi"/>
+    <hyperlink ref="C503" r:id="rId569" display="https://wwnj.lanzoup.com/iKy402inrvyb"/>
+    <hyperlink ref="C504" r:id="rId570" display="https://wwnj.lanzoup.com/i1TuM2inrw0d"/>
+    <hyperlink ref="B504" r:id="rId571" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1163550/header.jpg?t=1718965999"/>
+    <hyperlink ref="D504" r:id="rId572" display="https://wwnj.lanzoup.com/iXVCn2inrw2f"/>
+    <hyperlink ref="C505" r:id="rId573" display="https://wwnj.lanzoup.com/ixyS12inrw4h"/>
+    <hyperlink ref="C506" r:id="rId574" display="https://wwnj.lanzoup.com/iPUzl2inrw7a"/>
+    <hyperlink ref="C507" r:id="rId575" display="https://wwnj.lanzoup.com/i34UP2inrw9c"/>
+    <hyperlink ref="B507" r:id="rId576" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/897450/header.jpg?t=1729002422"/>
+    <hyperlink ref="C508" r:id="rId577" display="https://wwnj.lanzoup.com/ibVT22j9qkif"/>
+    <hyperlink ref="C509" r:id="rId578" display="https://wwnj.lanzoup.com/ipg1Q2inrweh"/>
+    <hyperlink ref="C510" r:id="rId579" display="https://wwnj.lanzoup.com/iX3fg2inrwha"/>
+    <hyperlink ref="C511" r:id="rId580" display="https://wwnj.lanzoup.com/ihRje2inrwjc"/>
+    <hyperlink ref="C512" r:id="rId581" display="https://wwnj.lanzoup.com/ieR3u2inrwle"/>
+    <hyperlink ref="C513" r:id="rId582" display="https://wwnj.lanzoup.com/iFMb52inrwng"/>
+    <hyperlink ref="C514" r:id="rId583" display="https://wwnj.lanzoup.com/inREq2inrx0j"/>
+    <hyperlink ref="C515" r:id="rId584" display="https://wwnj.lanzoup.com/iCeJX2inrx3c"/>
+    <hyperlink ref="C516" r:id="rId585" display="https://wwnj.lanzoup.com/iOUpv2inrx8h"/>
+    <hyperlink ref="C517" r:id="rId586" display="https://wwnj.lanzoup.com/ii5662inrxaj"/>
+    <hyperlink ref="C518" r:id="rId587" display="https://wwnj.lanzoup.com/iWfgw2inrxdc"/>
+    <hyperlink ref="C519" r:id="rId588" display="https://wwnj.lanzoup.com/is9MS2inrxih"/>
+    <hyperlink ref="C520" r:id="rId589" display="https://wwnj.lanzoup.com/iKYy72inrxji"/>
+    <hyperlink ref="C521" r:id="rId590" display="https://wwnj.lanzoup.com/iH8SY2inrxnc"/>
+    <hyperlink ref="C522" r:id="rId591" display="https://wwnj.lanzoup.com/iV2602inrxqf" tooltip="https://wwnj.lanzoup.com/iV2602inrxqf"/>
+    <hyperlink ref="C523" r:id="rId592" display="https://wwnj.lanzoup.com/iwzxT2inrxva"/>
+    <hyperlink ref="C524" r:id="rId593" display="https://wwnj.lanzoup.com/it4t82inrxyd"/>
+    <hyperlink ref="C525" r:id="rId594" display="https://wwnj.lanzoup.com/i5VKv2inry0f"/>
+    <hyperlink ref="C526" r:id="rId595" display="https://wwnj.lanzoup.com/ifRko2inrz5g"/>
+    <hyperlink ref="B526" r:id="rId596" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1030840/header.jpg?t=1756416537"/>
+    <hyperlink ref="C527" r:id="rId597" display="https://wwnj.lanzoup.com/ipch72inrz7i"/>
+    <hyperlink ref="B527" r:id="rId598" display="https://www.konami.com/kde_cms/eu_publish/uploads/mock-visual_pes2021.jpg"/>
+    <hyperlink ref="C528" r:id="rId599" display="https://wwnj.lanzoup.com/iTzS42inrz9a"/>
+    <hyperlink ref="C529" r:id="rId600" display="https://wwnj.lanzoup.com/i2vvk2inrzbc"/>
+    <hyperlink ref="C530" r:id="rId601" display="https://wwnj.lanzoup.com/iNjPU2inrzde"/>
+    <hyperlink ref="C531" r:id="rId602" display="https://wwnj.lanzoup.com/iKH8P2inrzfg"/>
+    <hyperlink ref="C532" r:id="rId603" display="https://wwnj.lanzoup.com/iEiJU2inrzja"/>
+    <hyperlink ref="C533" r:id="rId604" display="https://wwnj.lanzoup.com/iqMO22inrzof"/>
+    <hyperlink ref="C534" r:id="rId605" display="https://wwnj.lanzoup.com/iyN8k2inrzqh"/>
+    <hyperlink ref="C535" r:id="rId606" display="https://wwnj.lanzoup.com/iQ4Ei2inrzri"/>
+    <hyperlink ref="B535" r:id="rId607" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1266220/header_schinese.jpg?t=1730837550"/>
+    <hyperlink ref="C536" r:id="rId608" display="https://wwnj.lanzoup.com/iotJh2inrzvc"/>
+    <hyperlink ref="C537" r:id="rId609" display="https://wwnj.lanzoup.com/ije5w2ins00h"/>
+    <hyperlink ref="C538" r:id="rId610" display="https://wwnj.lanzoup.com/i91dq2ins02j"/>
+    <hyperlink ref="C539" r:id="rId611" display="https://wwnj.lanzoup.com/iN6LE2ins04b"/>
+    <hyperlink ref="C540" r:id="rId612" display="https://wwnj.lanzoup.com/iMovg2ins0xa" tooltip="https://wwnj.lanzoup.com/iMovg2ins0xa"/>
+    <hyperlink ref="C541" r:id="rId613" display="https://wwnj.lanzoup.com/iqPaV2ins11e"/>
+    <hyperlink ref="C542" r:id="rId614" display="https://wwnj.lanzoup.com/ixXz42ins19c"/>
+    <hyperlink ref="C543" r:id="rId615" display="https://wwnj.lanzoup.com/iClVY2ins1dg"/>
+    <hyperlink ref="C544" r:id="rId616" display="https://wwnj.lanzoup.com/i3VWm2ins1gj"/>
+    <hyperlink ref="C545" r:id="rId617" display="https://wwnj.lanzoup.com/inySC2ins1kd"/>
+    <hyperlink ref="C546" r:id="rId618" display="https://wwnj.lanzoup.com/iQDQU2ins1ng"/>
+    <hyperlink ref="C547" r:id="rId619" display="https://wwnj.lanzoup.com/iHsRP2ins1ra"/>
+    <hyperlink ref="B547" r:id="rId620" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/969990/header.jpg?t=1754079607"/>
+    <hyperlink ref="C548" r:id="rId621" display="https://wwnj.lanzoup.com/imxfK2ins1ud"/>
+    <hyperlink ref="C549" r:id="rId622" display="https://wwnj.lanzoup.com/icITv2ins1xg"/>
+    <hyperlink ref="C550" r:id="rId623" display="https://wwar.lanzout.com/iRvXq336eueb"/>
+    <hyperlink ref="C551" r:id="rId624" display="https://wwnj.lanzoup.com/i0b4b2ins24d"/>
+    <hyperlink ref="C552" r:id="rId625" display="https://wwnj.lanzoup.com/iAvSV2ins2wb"/>
+    <hyperlink ref="C553" r:id="rId626" display="https://wwnj.lanzoup.com/iPEGu2ins2yd"/>
+    <hyperlink ref="C554" r:id="rId627" display="https://wwnj.lanzoup.com/iGMIA2ins30f"/>
+    <hyperlink ref="C555" r:id="rId628" display="https://wwnj.lanzoup.com/iUqRi2ins34j"/>
+    <hyperlink ref="C556" r:id="rId629" display="https://wwnj.lanzoup.com/i2PAD2ins36b"/>
+    <hyperlink ref="C557" r:id="rId630" display="https://wwnj.lanzoup.com/ikq982ins39e"/>
+    <hyperlink ref="C558" r:id="rId631" display="https://wwnj.lanzoup.com/iO1L82ins3bg"/>
+    <hyperlink ref="D557" r:id="rId514" display="https://wwnj.lanzoup.com/i5diO2im6ypi"/>
+    <hyperlink ref="C559" r:id="rId632" display="https://wwar.lanzout.com/iFV8s3176b6f"/>
+    <hyperlink ref="C560" r:id="rId633" display="https://wwnj.lanzoup.com/iB1UW2ins3ej"/>
+    <hyperlink ref="B560" r:id="rId634" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/646270/header.jpg?t=1737718717"/>
+    <hyperlink ref="C561" r:id="rId635" display="https://wwnj.lanzoup.com/iiXvb2ins3id"/>
+    <hyperlink ref="C562" r:id="rId636" display="https://wwnj.lanzoup.com/itzoj2ins3lg"/>
+    <hyperlink ref="C563" r:id="rId637" display="https://wwnj.lanzoup.com/iV9f52ins3mh"/>
+    <hyperlink ref="C564" r:id="rId638" display="https://wwnj.lanzoup.com/iZz5t2ins3pa"/>
+    <hyperlink ref="C565" r:id="rId639" display="https://wwnj.lanzoup.com/iGNgQ2ins3sd"/>
+    <hyperlink ref="C566" r:id="rId640" display="https://wwnj.lanzoup.com/iHUYk2ins3uf"/>
+    <hyperlink ref="C567" r:id="rId641" display="https://wwnj.lanzoup.com/iE2PR2ins4bc"/>
+    <hyperlink ref="C568" r:id="rId642" display="https://wwnj.lanzoup.com/iYVQs2ins4de"/>
+    <hyperlink ref="C569" r:id="rId643" display="https://wwnj.lanzoup.com/iL80w2ins4ef"/>
+    <hyperlink ref="C570" r:id="rId644" display="https://wwnj.lanzoup.com/iBTms2ins4gh"/>
+    <hyperlink ref="B570" r:id="rId645" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/48220/header.jpg?t=1698436685"/>
+    <hyperlink ref="C571" r:id="rId646" display="https://wwnj.lanzoup.com/iLQSD2ins4ij"/>
+    <hyperlink ref="B571" r:id="rId647" display="https://cdn.fastly.steamstatic.com/steam/apps/370240/capsule_467x181.jpg"/>
+    <hyperlink ref="C572" r:id="rId648" display="https://wwnj.lanzoup.com/i14pj2ins4kb"/>
+    <hyperlink ref="C573" r:id="rId649" display="https://wwnj.lanzoup.com/iWYlI2ins4md" tooltip="https://wwnj.lanzoup.com/iWYlI2ins4md"/>
+    <hyperlink ref="C574" r:id="rId650" display="https://wwnj.lanzoup.com/iGH4y2ins4of"/>
+    <hyperlink ref="C575" r:id="rId651" display="https://wwnj.lanzoup.com/iA4rF2ins4sj"/>
+    <hyperlink ref="C576" r:id="rId652" display="https://wwnj.lanzoup.com/igVMy2ins4xe"/>
+    <hyperlink ref="B576" r:id="rId653" display="https://ts1.tc.mm.bing.net/th/id/R-C.2dab29b02e3ca6491382284ae833783d?rik=UMUrWoC4NNCxuA&amp;riu=http%3a%2f%2fatt.3dmgame.com%2fatt%2fforum%2f201809%2f07%2f125331iybme88j8b7moole.jpg&amp;ehk=xPHMO1s8X5OxLNAqHzNGYA29H%2bPV6t%2bBcLM52DKeFyY%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
+    <hyperlink ref="C577" r:id="rId654" display="https://wwnj.lanzoup.com/i4Ayf2ins50h"/>
+    <hyperlink ref="B577" r:id="rId655" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/384490/header.jpg?t=1711112928"/>
+    <hyperlink ref="C578" r:id="rId656" display="https://wwnj.lanzoup.com/iTxZu2ins52j"/>
+    <hyperlink ref="B578" r:id="rId657" display="https://steamcdn-a.akamaihd.net/steam/apps/1089350/capsule_467x181.jpg"/>
+    <hyperlink ref="C579" r:id="rId658" display="https://wwnj.lanzoup.com/i7TsW2ins54b"/>
+    <hyperlink ref="C580" r:id="rId659" display="https://wwnj.lanzoup.com/iwN8M2ins56d"/>
+    <hyperlink ref="C581" r:id="rId660" display="https://wwnj.lanzoup.com/iAerq2p8jfdi"/>
+    <hyperlink ref="C582" r:id="rId661" display="https://wwnj.lanzoup.com/iXzvz2ins6ha"/>
+    <hyperlink ref="C583" r:id="rId662" display="https://wwnj.lanzoup.com/iyPW62ins6ib"/>
+    <hyperlink ref="B583" r:id="rId663" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/245280/header.jpg?t=1580374672"/>
+    <hyperlink ref="C584" r:id="rId664" display="https://wwnj.lanzoup.com/iQQmF2ins6kd"/>
+    <hyperlink ref="B584" r:id="rId665" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/385730/capsule_231x87.jpg?t=1572397400"/>
+    <hyperlink ref="C585" r:id="rId666" display="https://wwnj.lanzoup.com/iWvB12ins6mf"/>
+    <hyperlink ref="B585" r:id="rId667" display="https://steamcdn-a.akamaihd.net/steam/apps/510510/capsule_467x181.jpg"/>
+    <hyperlink ref="C586" r:id="rId668" display="https://wwnj.lanzoup.com/ittss2ins6pi"/>
+    <hyperlink ref="B586" r:id="rId669" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/550080/header.jpg?t=1594636252"/>
+    <hyperlink ref="C587" r:id="rId670" display="https://wwnj.lanzoup.com/i0zsB2ins6ra"/>
+    <hyperlink ref="B587" r:id="rId671" display="https://steamcdn-a.akamaihd.net/steam/apps/664430/capsule_467x181.jpg"/>
+    <hyperlink ref="C588" r:id="rId672" display="https://wwnj.lanzoup.com/i7rH12ins6wf"/>
+    <hyperlink ref="C589" r:id="rId673" display="https://wwnj.lanzoup.com/iOYgn2ins6yh"/>
+    <hyperlink ref="B589" r:id="rId674" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/817130/header.jpg?t=1657748336"/>
+    <hyperlink ref="C590" r:id="rId675" display="https://wwnj.lanzoup.com/i3atc2ins71a"/>
+    <hyperlink ref="B590" r:id="rId676" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/227080/header.jpg?t=1616766842"/>
+    <hyperlink ref="C591" r:id="rId677" display="https://wwnj.lanzoup.com/ieJC42ins74d"/>
+    <hyperlink ref="B591" r:id="rId678" display="https://steamcdn-a.akamaihd.net/steam/apps/1015500/capsule_467x181.jpg"/>
+    <hyperlink ref="C592" r:id="rId679" display="https://wwnj.lanzoup.com/iLZ9E2ins77g"/>
+    <hyperlink ref="B592" r:id="rId680" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/392160/011284ecabc2b48d2455e0493efbf62a8ea947ac/header_alt_assets_0.jpg?t=1756207716"/>
+    <hyperlink ref="C593" r:id="rId681" display="https://wwnj.lanzoup.com/iTmVl2ins7aj"/>
+    <hyperlink ref="C594" r:id="rId682" display="https://wwnj.lanzoup.com/iVB5j2intu7a"/>
+    <hyperlink ref="B594" r:id="rId683" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/325610/header.jpg?t=1755851473"/>
+    <hyperlink ref="C595" r:id="rId684" display="https://wwnj.lanzoup.com/iRV852inwklc"/>
+    <hyperlink ref="C596" r:id="rId685" display="https://wwnj.lanzoup.com/iNzdJ2inwkof"/>
+    <hyperlink ref="C597" r:id="rId686" display="https://wwnj.lanzoup.com/iuyhv2inwkri"/>
+    <hyperlink ref="C598" r:id="rId687" display="https://wwnj.lanzoup.com/iCIbV2inwkta"/>
+    <hyperlink ref="C599" r:id="rId688" display="https://wwnj.lanzoup.com/i59SU2inwkwd"/>
+    <hyperlink ref="B599" r:id="rId689" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/265000/header.jpg?t=1667816203"/>
+    <hyperlink ref="C600" r:id="rId690" display="https://wwnj.lanzoup.com/iME1M2inwkyf"/>
+    <hyperlink ref="B600" r:id="rId691" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/462780/header.jpg?t=1754079044"/>
+    <hyperlink ref="C601" r:id="rId692" display="https://wwnj.lanzoup.com/ivKPV2inwkzg"/>
+    <hyperlink ref="C602" r:id="rId693" display="https://wwnj.lanzoup.com/iJhWV2inwl1i"/>
+    <hyperlink ref="C603" r:id="rId694" display="https://wwnj.lanzoup.com/iUGe82inwl2j"/>
+    <hyperlink ref="C604" r:id="rId695" display="https://wwnj.lanzoup.com/iFG002inwl5c"/>
+    <hyperlink ref="B604" r:id="rId696" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/529660/header.jpg?t=1729114996"/>
+    <hyperlink ref="C605" r:id="rId697" display="https://wwnj.lanzoup.com/iQy5i2inwl7e"/>
+    <hyperlink ref="C606" r:id="rId698" display="https://wwnj.lanzoup.com/iiU4f2inwl8f"/>
+    <hyperlink ref="B606" r:id="rId699" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/261570/header.jpg?t=1667504148"/>
+    <hyperlink ref="C607" r:id="rId700" display="https://wwnj.lanzoup.com/i4smb2inwlah"/>
+    <hyperlink ref="C608" r:id="rId701" display="https://wwnj.lanzoup.com/iLfiA2inwlcj"/>
+    <hyperlink ref="C609" r:id="rId702" display="https://wwnj.lanzoup.com/izCt02inwleb"/>
+    <hyperlink ref="C610" r:id="rId703" display="https://wwnj.lanzoup.com/ijQsB2inwlgd"/>
+    <hyperlink ref="C611" r:id="rId704" display="https://wwnj.lanzoup.com/iQKul2inwlqd"/>
+    <hyperlink ref="C612" r:id="rId705" display="https://wwnj.lanzoup.com/i7sPK2inwlsf"/>
+    <hyperlink ref="C613" r:id="rId706" display="https://wwnj.lanzoup.com/izC7o2inwluh"/>
+    <hyperlink ref="C614" r:id="rId707" display="https://wwnj.lanzoup.com/iolxo2inwlwj"/>
+    <hyperlink ref="B614" r:id="rId708" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/378540/header.jpg?t=1727864911"/>
+    <hyperlink ref="C615" r:id="rId709" display="https://wwnj.lanzoup.com/ijhmB2inwlyb"/>
+    <hyperlink ref="C616" r:id="rId710" display="https://wwnj.lanzoup.com/iEkyO2inwlzc"/>
+    <hyperlink ref="C617" r:id="rId711" display="https://wwnj.lanzoup.com/iJ0t92inwm0d"/>
+    <hyperlink ref="B617" r:id="rId712" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1150080/header_schinese.jpg?t=1730833361"/>
+    <hyperlink ref="C618" r:id="rId713" display="https://wwnj.lanzoup.com/iiLKU2inwm2f"/>
+    <hyperlink ref="C619" r:id="rId714" display="https://wwnj.lanzoup.com/iqGff2inwm5i"/>
+    <hyperlink ref="C620" r:id="rId715" display="https://wwnj.lanzoup.com/iSwz02inwm7a"/>
+    <hyperlink ref="B620" r:id="rId716" display="https://cdn.fastly.steamstatic.com/steam/apps/338930/capsule_467x181.jpg"/>
+    <hyperlink ref="C621" r:id="rId717" display="https://wwnj.lanzoup.com/i62KM2inwm8b"/>
+    <hyperlink ref="C622" r:id="rId718" display="https://wwnj.lanzoup.com/i8UEG2inwm9c"/>
+    <hyperlink ref="C623" r:id="rId719" display="https://wwnj.lanzoup.com/in84q2inwmqj"/>
+    <hyperlink ref="C624" r:id="rId720" display="https://wwnj.lanzoup.com/ieda42inwmra"/>
+    <hyperlink ref="C625" r:id="rId721" display="https://wwnj.lanzoup.com/ilH2O2inwmtc"/>
+    <hyperlink ref="B625" r:id="rId722" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/646050/header.jpg?t=1549024995"/>
+    <hyperlink ref="C626" r:id="rId723" display="https://wwnj.lanzoup.com/iXofO2inwmve"/>
+    <hyperlink ref="C627" r:id="rId724" display="https://wwnj.lanzoup.com/i2kWy2inwmwf"/>
+    <hyperlink ref="C628" r:id="rId725" display="https://wwnj.lanzoup.com/iPtxl2inwmyh"/>
+    <hyperlink ref="B628" r:id="rId726" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/319910/header.jpg?t=1725007208"/>
+    <hyperlink ref="C629" r:id="rId727" display="https://wwnj.lanzoup.com/ivdpi2inwn0j"/>
+    <hyperlink ref="B629" r:id="rId728" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/690640/header.jpg?t=1730719218"/>
+    <hyperlink ref="C630" r:id="rId729" display="https://wwnj.lanzoup.com/iMoBL2inwn3c"/>
+    <hyperlink ref="B630" r:id="rId730" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/427190/header.jpg?t=1701219182"/>
+    <hyperlink ref="C631" r:id="rId731" display="https://wwnj.lanzoup.com/iSICg2inwn4d"/>
+    <hyperlink ref="B631" r:id="rId732" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/387340/header.jpg?t=1730844630"/>
+    <hyperlink ref="C632" r:id="rId733" display="https://wwnj.lanzoup.com/io5e32inwn6f"/>
+    <hyperlink ref="C633" r:id="rId734" display="https://wwnj.lanzoup.com/icYMP2inwn8h"/>
+    <hyperlink ref="C634" r:id="rId735" display="https://wwnj.lanzoup.com/iCmDT2inwnaj"/>
+    <hyperlink ref="C635" r:id="rId736" display="https://wwnj.lanzoup.com/ixlwF2inwnba"/>
+    <hyperlink ref="C636" r:id="rId737" display="https://wwnj.lanzoup.com/iIQoX2inwnod"/>
+    <hyperlink ref="C637" r:id="rId738" display="https://wwnj.lanzoup.com/iNeGT2inwned"/>
+    <hyperlink ref="C638" r:id="rId739" display="https://wwnj.lanzoup.com/ijJyg2inwnqf"/>
+    <hyperlink ref="C639" r:id="rId740" display="https://wwnj.lanzoup.com/iEaoF2inwnrg"/>
+    <hyperlink ref="B639" r:id="rId741" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/413420/header.jpg?t=1750134103"/>
+    <hyperlink ref="C640" r:id="rId742" display="https://wwnj.lanzoup.com/ixZ5R2inwnsh"/>
+    <hyperlink ref="B640" r:id="rId743" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1659040/c62446d5c95f583a296d7f1b99045a61e2f81dea/header.jpg?t=1755614152"/>
+    <hyperlink ref="C641" r:id="rId744" display="https://wwnj.lanzoup.com/iwzVb2inwnti"/>
+    <hyperlink ref="B641" r:id="rId745" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1061730/header_schinese.jpg?t=1718358459"/>
+    <hyperlink ref="C642" r:id="rId746" display="https://wwnj.lanzoup.com/iQNlb2inwnva" tooltip="https://wwnj.lanzoup.com/iQNlb2inwnva"/>
+    <hyperlink ref="C643" r:id="rId747" display="https://wwnj.lanzoup.com/idV9i2inwnyd"/>
+    <hyperlink ref="C644" r:id="rId748" display="https://wwnj.lanzoup.com/iURgB2inwo0f"/>
+    <hyperlink ref="C645" r:id="rId749" display="https://wwnj.lanzoup.com/iEOwZ2inwo2h"/>
+    <hyperlink ref="C646" r:id="rId750" display="https://wwnj.lanzoup.com/iFzoU2inwo6b"/>
+    <hyperlink ref="B646" r:id="rId751" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/798510/header.jpg?t=1747851825"/>
+    <hyperlink ref="D646" r:id="rId752" display="https://wwnj.lanzoup.com/ixEAp2inwo7c"/>
+    <hyperlink ref="C647" r:id="rId753" display="https://wwnj.lanzoup.com/iKc432inwo9e"/>
+    <hyperlink ref="B647" r:id="rId754" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/502800/header.jpg?t=1741903875"/>
+    <hyperlink ref="C648" r:id="rId755" display="https://wwnj.lanzoup.com/iIOL12inwobg"/>
+    <hyperlink ref="B648" r:id="rId756" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/415480/header.jpg?t=1730839958"/>
+    <hyperlink ref="C649" r:id="rId757" display="https://wwnj.lanzoup.com/izphZ2inwokf" tooltip="https://wwnj.lanzoup.com/izphZ2inwokf"/>
+    <hyperlink ref="B649" r:id="rId758" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/421020/capsule_231x87.jpg?t=1667844319"/>
+    <hyperlink ref="C650" r:id="rId759" display="https://wwnj.lanzoup.com/ipyLZ2inwomh"/>
+    <hyperlink ref="B650" r:id="rId760" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/889510/header.jpg?t=1741902299"/>
+    <hyperlink ref="C651" r:id="rId761" display="https://wwnj.lanzoup.com/iqtM52inwoni"/>
+    <hyperlink ref="B651" r:id="rId762" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/690790/header.jpg?t=1730918452"/>
+    <hyperlink ref="C652" r:id="rId763" display="https://wwnj.lanzoup.com/iR8JI2inwooj"/>
+    <hyperlink ref="B652" r:id="rId764" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/611670/header.jpg?t=1564002443"/>
+    <hyperlink ref="C653" r:id="rId765" display="https://wwnj.lanzoup.com/i5KvK2inwopa"/>
+    <hyperlink ref="B653" r:id="rId766" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/750130/4fb51a8ba323000002ce2c7ffb77ed2a27aba835/header.jpg?t=1749117416"/>
+    <hyperlink ref="C654" r:id="rId767" display="https://wwnj.lanzoup.com/i8CJi2inwoqb"/>
+    <hyperlink ref="B654" r:id="rId768" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/323320/header.jpg?t=1694556095"/>
+    <hyperlink ref="C655" r:id="rId769" display="https://wwnj.lanzoup.com/iM0oa2inwosd"/>
+    <hyperlink ref="B655" r:id="rId770" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/320240/header.jpg?t=1751297177"/>
+    <hyperlink ref="C656" r:id="rId771" display="https://wwnj.lanzoup.com/iuB4o2inwote"/>
+    <hyperlink ref="B656" r:id="rId772" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/241410/header.jpg?t=1727780515"/>
+    <hyperlink ref="C657" r:id="rId773" display="https://wwnj.lanzoup.com/iweHd2inwoxi"/>
+    <hyperlink ref="C658" r:id="rId774" display="https://wwnj.lanzoup.com/i53ja2inwoyj"/>
+    <hyperlink ref="B658" r:id="rId775" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/625980/header.jpg?t=1732665480"/>
+    <hyperlink ref="C659" r:id="rId776" display="https://wwnj.lanzoup.com/ieGyY2inwp0b"/>
+    <hyperlink ref="B659" r:id="rId777" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/286000/header_schinese.jpg?t=1731002783"/>
+    <hyperlink ref="C660" r:id="rId778" display="https://wwnj.lanzoup.com/i6QxN2inwp1c"/>
+    <hyperlink ref="C661" r:id="rId779" display="https://wwnj.lanzoup.com/i1KbU2inwp2d"/>
+    <hyperlink ref="C662" r:id="rId780" display="https://wwnj.lanzoup.com/ibTXW2inwp4f"/>
+    <hyperlink ref="C663" r:id="rId781" display="https://wwnj.lanzoup.com/iYiws2inwplc"/>
+    <hyperlink ref="C664" r:id="rId782" display="https://wwnj.lanzoup.com/i315G2inwpof"/>
+    <hyperlink ref="B664" r:id="rId783" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/bundles/14169/vugq94uy5pvzxxna/header_586x192.jpg?t=1590094499"/>
+    <hyperlink ref="C665" r:id="rId784" display="https://wwnj.lanzoup.com/i9AgR2inwpri"/>
+    <hyperlink ref="C666" r:id="rId785" display="https://wwnj.lanzoup.com/i2PQ72inwpta"/>
+    <hyperlink ref="C667" r:id="rId786" display="https://wwnj.lanzoup.com/i3ZRZ2inwpub"/>
+    <hyperlink ref="C668" r:id="rId787" display="https://wwnj.lanzoup.com/iG6OI2inwpwd"/>
+    <hyperlink ref="C669" r:id="rId788" display="https://wwnj.lanzoup.com/id99k2inwpyf"/>
+    <hyperlink ref="C670" r:id="rId789" display="https://wwnj.lanzoup.com/ivPOB2inwpzg"/>
+    <hyperlink ref="C671" r:id="rId790" display="https://wwnj.lanzoup.com/ipG352inwq1i"/>
+    <hyperlink ref="C672" r:id="rId791" display="https://wwnj.lanzoup.com/iQDLP2inwq4b"/>
+    <hyperlink ref="C673" r:id="rId792" display="https://wwnj.lanzoup.com/i11Gg2inwq8f"/>
+    <hyperlink ref="C674" r:id="rId793" display="https://wwnj.lanzoup.com/iBkkm2inwqah"/>
+    <hyperlink ref="C675" r:id="rId794" display="https://wwnj.lanzoup.com/iHnsC2inwqbi"/>
+    <hyperlink ref="C676" r:id="rId795" display="https://wwnj.lanzoup.com/i0ldg2inwqcj"/>
+    <hyperlink ref="C677" r:id="rId796" display="https://wwnj.lanzoup.com/iBEJ42inwqgd"/>
+    <hyperlink ref="C678" r:id="rId797" display="https://wwnj.lanzoup.com/if6hW2inwtni"/>
+    <hyperlink ref="B677" r:id="rId798" display="https://ts4.tc.mm.bing.net/th/id/OIP-C.cwsP0qpf7mORi33VJuvyxwHaD5?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C679" r:id="rId799" display="https://wwnj.lanzoup.com/i6Sxj2inwtuf"/>
+    <hyperlink ref="C680" r:id="rId800" display="https://wwnj.lanzoup.com/icrLE2inwtvg"/>
+    <hyperlink ref="C681" r:id="rId801" display="https://wwnj.lanzoup.com/iWLwa2inwtyj"/>
+    <hyperlink ref="C682" r:id="rId802" display="https://wwnj.lanzoup.com/icwWd2inwu0b"/>
+    <hyperlink ref="C683" r:id="rId803" display="https://wwnj.lanzoup.com/ihbRp2io6d4d" tooltip="https://wwnj.lanzoup.com/ihbRp2io6d4d"/>
+    <hyperlink ref="C684" r:id="rId804" display="https://wwnj.lanzoup.com/iU0Lv2io6d8h"/>
+    <hyperlink ref="C685" r:id="rId805" display="https://wwnj.lanzoup.com/i6LGE2io6dhg"/>
+    <hyperlink ref="C686" r:id="rId806" display="https://wwnj.lanzoup.com/irZcs2io6dla"/>
+    <hyperlink ref="C687" r:id="rId807" display="https://wwnj.lanzoup.com/iFMZ32io6dpe"/>
+    <hyperlink ref="C688" r:id="rId808" display="https://wwnj.lanzoup.com/i1h9E2io6dsh"/>
+    <hyperlink ref="C689" r:id="rId809" display="https://wwnj.lanzoup.com/iQu5E2io6dxc"/>
+    <hyperlink ref="C690" r:id="rId810" display="https://wwnj.lanzoup.com/iN1ZK2io6e3i"/>
+    <hyperlink ref="C691" r:id="rId811" display="https://wwnj.lanzoup.com/ig10v2io6e6b"/>
+    <hyperlink ref="C692" r:id="rId812" display="https://wwnj.lanzoup.com/iLcfO2io6efa"/>
+    <hyperlink ref="B692" r:id="rId813" display="https://cdn.cloudflare.steamstatic.com/steam/apps/375960/header.jpg" tooltip="https://cdn.cloudflare.steamstatic.com/steam/apps/375960/header.jpg"/>
+    <hyperlink ref="C693" r:id="rId814" display="https://wwnj.lanzoup.com/iCO9G2io6emh"/>
+    <hyperlink ref="C694" r:id="rId815" display="https://wwnj.lanzoup.com/i7td12io6eid"/>
+    <hyperlink ref="C695" r:id="rId816" display="https://wwnj.lanzoup.com/iJhs62io6fxe"/>
+    <hyperlink ref="C696" r:id="rId817" display="https://wwnj.lanzoup.com/iSJO82io6g2j"/>
+    <hyperlink ref="C697" r:id="rId818" display="https://wwnj.lanzoup.com/ibDLA2io6g7e" tooltip="https://wwnj.lanzoup.com/ibDLA2io6g7e"/>
+    <hyperlink ref="C698" r:id="rId819" display="https://wwnj.lanzoup.com/iIrxY2io6gbi"/>
+    <hyperlink ref="C699" r:id="rId820" display="https://wwnj.lanzoup.com/iC9mn2io6geb"/>
+    <hyperlink ref="C700" r:id="rId821" display="https://wwnj.lanzoup.com/iYfiz2io6gif"/>
+    <hyperlink ref="C701" r:id="rId822" display="https://wwnj.lanzoup.com/i7IZO2io6gmj"/>
+    <hyperlink ref="C702" r:id="rId823" display="https://wwnj.lanzoup.com/isBWS2io6gre"/>
+    <hyperlink ref="C703" r:id="rId824" display="https://wwnj.lanzoup.com/iDnLu2io6guh"/>
+    <hyperlink ref="C704" r:id="rId825" display="https://wwnj.lanzoup.com/ijijl2io6gyb"/>
+    <hyperlink ref="C705" r:id="rId826" display="https://wwnj.lanzoup.com/i7LkP2io6h3g"/>
+    <hyperlink ref="C706" r:id="rId827" display="https://wwnj.lanzoup.com/ilM0F2io6h7a"/>
+    <hyperlink ref="C707" r:id="rId828" display="https://wwnj.lanzoup.com/i4oUj2io6hbe"/>
+    <hyperlink ref="C708" r:id="rId829" display="https://wwnj.lanzoup.com/iBSls2io6hgj"/>
+    <hyperlink ref="C709" r:id="rId830" display="https://wwnj.lanzoup.com/ihk8L2io6hjc"/>
+    <hyperlink ref="C710" r:id="rId831" display="https://wwnj.lanzoup.com/i7Ahg2io6igf"/>
+    <hyperlink ref="C711" r:id="rId832" display="https://wwnj.lanzoup.com/ihk082io6ila"/>
+    <hyperlink ref="C712" r:id="rId833" display="https://wwnj.lanzoup.com/ihoCN2io6ipe" tooltip="https://wwnj.lanzoup.com/ihoCN2io6ipe"/>
+    <hyperlink ref="C713" r:id="rId834" display="https://wwnj.lanzoup.com/il2722io6ish"/>
+    <hyperlink ref="C714" r:id="rId835" display="https://wwnj.lanzoup.com/i5SgW2io6iwb"/>
+    <hyperlink ref="C715" r:id="rId836" display="https://wwnj.lanzoup.com/i9L312io6j0f" tooltip="https://wwnj.lanzoup.com/i9L312io6j0f"/>
+    <hyperlink ref="C716" r:id="rId837" display="https://wwnj.lanzoup.com/iAxxX2io6j3i"/>
+    <hyperlink ref="C717" r:id="rId838" display="https://wwnj.lanzoup.com/ipZkE2io6j7c"/>
+    <hyperlink ref="C718" r:id="rId839" display="https://wwnj.lanzoup.com/iz3ur2io6j9e"/>
+    <hyperlink ref="C719" r:id="rId840" display="https://wwnj.lanzoup.com/i6OmA2io6jej"/>
+    <hyperlink ref="C720" r:id="rId841" display="https://wwnj.lanzoup.com/iXTZq2io6jid"/>
+    <hyperlink ref="C721" r:id="rId842" display="https://wwnj.lanzoup.com/iHjT62io6jsd"/>
+    <hyperlink ref="C722" r:id="rId843" display="https://wwnj.lanzoup.com/iRZSx2io6jvg"/>
+    <hyperlink ref="C723" r:id="rId844" display="https://wwnj.lanzoup.com/icur52io6lgd"/>
+    <hyperlink ref="C724" r:id="rId845" display="https://wwnj.lanzoup.com/igguQ2io6ljg"/>
+    <hyperlink ref="C725" r:id="rId846" display="https://wwnj.lanzoup.com/iYD4f2io6lna"/>
+    <hyperlink ref="C726" r:id="rId847" display="https://wwnj.lanzoup.com/iamc92io6lre" tooltip="https://wwnj.lanzoup.com/iamc92io6lre"/>
+    <hyperlink ref="C727" r:id="rId848" display="https://wwnj.lanzoup.com/il59r2io6lwj"/>
+    <hyperlink ref="C728" r:id="rId849" display="https://wwnj.lanzoup.com/iUG8L2io6lzc"/>
+    <hyperlink ref="C729" r:id="rId850" display="https://wwnj.lanzoup.com/ipdHn2io6m5i"/>
+    <hyperlink ref="C730" r:id="rId851" display="https://wwnj.lanzoup.com/iqVJO2io6m8b"/>
+    <hyperlink ref="C731" r:id="rId852" display="https://wwnj.lanzoup.com/iKugo2io6mqj" tooltip="https://wwnj.lanzoup.com/iKugo2io6mqj"/>
+    <hyperlink ref="C732" r:id="rId853" display="https://wwnj.lanzoup.com/ivJcc2io6mgj"/>
+    <hyperlink ref="C733" r:id="rId854" display="https://wwnj.lanzoup.com/iOtPJ2io6mkd"/>
+    <hyperlink ref="C734" r:id="rId855" display="https://wwnj.lanzoup.com/iyKsD2io6mpi"/>
+    <hyperlink ref="C735" r:id="rId856" display="https://wwnj.lanzoup.com/i6Xxg2io6mve"/>
+    <hyperlink ref="C736" r:id="rId857" display="https://wwnj.lanzoup.com/i33lp2io6n0j"/>
+    <hyperlink ref="C737" r:id="rId858" display="https://wwnj.lanzoup.com/i00ti2io6o6b"/>
+    <hyperlink ref="C738" r:id="rId859" display="https://wwnj.lanzoup.com/iyxZ82io6o9e"/>
+    <hyperlink ref="C739" r:id="rId860" display="https://wwnj.lanzoup.com/iSA5U2io6och"/>
+    <hyperlink ref="C740" r:id="rId861" display="https://wwnj.lanzoup.com/i1hmQ2io6ohc" tooltip="https://wwnj.lanzoup.com/i1hmQ2io6ohc"/>
+    <hyperlink ref="C741" r:id="rId862" display="https://wwnj.lanzoup.com/iluCI2io6olg"/>
+    <hyperlink ref="C742" r:id="rId863" display="https://wwnj.lanzoup.com/ibUKI2io6oni"/>
+    <hyperlink ref="C743" r:id="rId864" display="https://wwnj.lanzoup.com/iMcKQ2io6orc"/>
+    <hyperlink ref="C744" r:id="rId865" display="https://wwnj.lanzoup.com/ivDCm2io6ovg"/>
+    <hyperlink ref="D744" r:id="rId866" display="https://wwnj.lanzoup.com/iyZqH2io6owh"/>
+    <hyperlink ref="C745" r:id="rId867" display="https://wwnj.lanzoup.com/izGED2io6p1c"/>
+    <hyperlink ref="C746" r:id="rId868" display="https://wwnj.lanzoup.com/ibgG72io6p7i"/>
+    <hyperlink ref="C747" r:id="rId869" display="https://wwnj.lanzoup.com/iq6bo2io6pbc" tooltip="https://wwnj.lanzoup.com/iq6bo2io6pbc"/>
+    <hyperlink ref="C748" r:id="rId870" display="https://wwnj.lanzoup.com/ieSrd2io6pef"/>
+    <hyperlink ref="C749" r:id="rId871" display="https://wwnj.lanzoup.com/ihlXe2io6phi"/>
+    <hyperlink ref="C750" r:id="rId872" display="https://wwnj.lanzoup.com/iAs2r2io6rha"/>
+    <hyperlink ref="C751" r:id="rId873" display="https://wwnj.lanzoup.com/i3lnm2io6rjc"/>
+    <hyperlink ref="C752" r:id="rId874" display="https://wwnj.lanzoup.com/iYm252io6rkd"/>
+    <hyperlink ref="C753" r:id="rId875" display="https://wwnj.lanzoup.com/iykTq2io6rpi"/>
+    <hyperlink ref="C754" r:id="rId876" display="https://wwnj.lanzoup.com/iyeZQ2io6rsb"/>
+    <hyperlink ref="C755" r:id="rId877" display="https://wwnj.lanzoup.com/iz5zP2io6ryh"/>
+    <hyperlink ref="C756" r:id="rId878" display="https://wwnj.lanzoup.com/i05C02io6s1a"/>
+    <hyperlink ref="C757" r:id="rId879" display="https://wwnj.lanzoup.com/iYeeN2io6s5e"/>
+    <hyperlink ref="C758" r:id="rId880" display="https://wwnj.lanzoup.com/ix3AK2io6s8h"/>
+    <hyperlink ref="C759" r:id="rId881" display="https://wwnj.lanzoup.com/i61hU2io6sba"/>
+    <hyperlink ref="C760" r:id="rId882" display="https://wwnj.lanzoup.com/i2Ifw2io6sdc"/>
+    <hyperlink ref="C761" r:id="rId883" display="https://wwnj.lanzoup.com/iluV12io6sfe"/>
+    <hyperlink ref="B761" r:id="rId884" display="https://cdn.akamai.steamstatic.com/steam/apps/446040/capsule_616x353.jpg?t=1589340936" tooltip="https://cdn.akamai.steamstatic.com/steam/apps/446040/capsule_616x353.jpg?t=1589340936"/>
+    <hyperlink ref="C762" r:id="rId885" display="https://wwnj.lanzoup.com/iCxRW2io6sji"/>
+    <hyperlink ref="C763" r:id="rId886" display="https://wwnj.lanzoup.com/iTcti2io6smb"/>
+    <hyperlink ref="C764" r:id="rId887" display="https://wwnj.lanzoup.com/iaU1i2io6spe" tooltip="https://wwnj.lanzoup.com/iaU1i2io6spe"/>
+    <hyperlink ref="C765" r:id="rId888" display="https://wwnj.lanzoup.com/iTR922io6tqb"/>
+    <hyperlink ref="C766" r:id="rId889" display="https://wwnj.lanzoup.com/igcSf2io6tuf"/>
+    <hyperlink ref="B766" r:id="rId890" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/631510/header.jpg?t=1644282550" tooltip="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/631510/header.jpg?t=1644282550"/>
+    <hyperlink ref="C767" r:id="rId891" display="https://wwnj.lanzoup.com/iyiRC2io6twh"/>
+    <hyperlink ref="C768" r:id="rId892" display="https://wwnj.lanzoup.com/iTH1Z2io6u0b"/>
+    <hyperlink ref="C769" r:id="rId893" display="https://wwnj.lanzoup.com/i1kn32io6u3e"/>
+    <hyperlink ref="B769" r:id="rId894" display="https://shared.steamstatic.com/store_item_assets/steam/apps/6550/header.jpg?t=1706749134"/>
+    <hyperlink ref="C770" r:id="rId895" display="https://wwnj.lanzoup.com/iuv2O2io6u5g"/>
+    <hyperlink ref="C771" r:id="rId896" display="https://wwnj.lanzoup.com/icJCb2io6u8j"/>
+    <hyperlink ref="C772" r:id="rId897" display="https://wwnj.lanzoup.com/i60dS2io6ude"/>
+    <hyperlink ref="C773" r:id="rId898" display="https://wwnj.lanzoup.com/iD3Oe2io6ugh" tooltip="https://wwnj.lanzoup.com/iD3Oe2io6ugh"/>
+    <hyperlink ref="C774" r:id="rId899" display="https://wwnj.lanzoup.com/iQuDu2io6uja"/>
+    <hyperlink ref="C775" r:id="rId900" display="https://wwnj.lanzoup.com/iraBG2io6uof"/>
+    <hyperlink ref="C776" r:id="rId901" display="https://wwnj.lanzoup.com/i5uTI2io6uri" tooltip="https://wwnj.lanzoup.com/i5uTI2io6uri"/>
+    <hyperlink ref="C777" r:id="rId902" display="https://wwnj.lanzoup.com/iH9iX2io6uvc"/>
+    <hyperlink ref="C778" r:id="rId903" display="https://wwnj.lanzoup.com/iih5J2io6uxe"/>
+    <hyperlink ref="C779" r:id="rId904" display="https://wwnj.lanzoup.com/ipk4F2iofq8j"/>
+    <hyperlink ref="B778" r:id="rId905" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/281940/header.jpg?t=1579793250"/>
+    <hyperlink ref="C780" r:id="rId906" display="https://wwnj.lanzoup.com/iQT2e2iofqcd"/>
+    <hyperlink ref="C1" r:id="rId500" display="下载地址" tooltip="https://wwnj.lanzoup.com/iTFOq2inhv5c"/>
+    <hyperlink ref="C781" r:id="rId907" display="https://wwnj.lanzoup.com/iIgVj2iofqhi"/>
+    <hyperlink ref="C782" r:id="rId908" display="https://wwnj.lanzoup.com/ixQ392iofqof"/>
+    <hyperlink ref="C783" r:id="rId909" display="https://wwnj.lanzoup.com/ic6ni2iofqsj"/>
+    <hyperlink ref="C784" r:id="rId910" display="https://wwnj.lanzoup.com/iHmCH2iofqyf"/>
+    <hyperlink ref="C785" r:id="rId911" display="https://wwnj.lanzoup.com/iePRt2iofr4b"/>
+    <hyperlink ref="C786" r:id="rId912" display="https://wwnj.lanzoup.com/iw8yS2iofr7e"/>
+    <hyperlink ref="C787" r:id="rId913" display="https://wwnj.lanzoup.com/igIYW2iofreb"/>
+    <hyperlink ref="C788" r:id="rId914" display="https://wwnj.lanzoup.com/ivSak2iofrjg"/>
+    <hyperlink ref="C789" r:id="rId915" display="https://wwnj.lanzoup.com/ibntG2iofrob"/>
+    <hyperlink ref="C790" r:id="rId916" display="https://wwnj.lanzoup.com/iaeHP2iofruh"/>
+    <hyperlink ref="C791" r:id="rId917" display="https://wwnj.lanzoup.com/iyjwH2iofrzc"/>
+    <hyperlink ref="C792" r:id="rId918" display="https://wwnj.lanzoup.com/i5EGn2iofs3g"/>
+    <hyperlink ref="C793" r:id="rId919" display="https://wwnj.lanzoup.com/iGw4M2iofsad"/>
+    <hyperlink ref="C794" r:id="rId920" display="https://wwnj.lanzoup.com/iKLXp2iofsgj"/>
+    <hyperlink ref="C795" r:id="rId921" display="https://wwnj.lanzoup.com/i1wkI2ioftwb"/>
+    <hyperlink ref="C796" r:id="rId922" display="https://wwnj.lanzoup.com/iBLqo2ioftze"/>
+    <hyperlink ref="B796" r:id="rId923" display="https://th.bing.com/th/id/OIP.kNwWL5u2e7_vAG4y3um6pwHaEo?w=239&amp;h=180&amp;c=7&amp;r=0&amp;o=7&amp;pid=1.7&amp;rm=3"/>
+    <hyperlink ref="C797" r:id="rId924" display="https://wwnj.lanzoup.com/igiTQ2iofu3i"/>
+    <hyperlink ref="C798" r:id="rId925" display="https://wwnj.lanzoup.com/i7ddk2iofuaf"/>
+    <hyperlink ref="C799" r:id="rId926" display="https://wwnj.lanzoup.com/i3jS02iofudi"/>
+    <hyperlink ref="C800" r:id="rId927" display="https://wwnj.lanzoup.com/iTYyZ2iofufa"/>
+    <hyperlink ref="C801" r:id="rId928" display="https://wwnj.lanzoup.com/itnp32iofuid"/>
+    <hyperlink ref="B801" r:id="rId929" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/726950/header.jpg?t=1730835373"/>
+    <hyperlink ref="C802" r:id="rId930" display="https://wwnj.lanzoup.com/i2lXo2iofukf"/>
+    <hyperlink ref="C803" r:id="rId931" display="https://wwnj.lanzoup.com/ifvFA2iofumh"/>
+    <hyperlink ref="C804" r:id="rId932" display="https://wwnj.lanzoup.com/iegBO2iofuoj"/>
+    <hyperlink ref="C805" r:id="rId933" display="https://wwnj.lanzoup.com/ir8d92iofuqb"/>
+    <hyperlink ref="B805" r:id="rId934" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/314830/header.jpg?t=1736357226"/>
+    <hyperlink ref="C806" r:id="rId935" display="https://wwnj.lanzoup.com/ifkjU2iofute"/>
+    <hyperlink ref="C807" r:id="rId936" display="https://wwnj.lanzoup.com/iuLyU2iofuvg"/>
+    <hyperlink ref="B808" r:id="rId937" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1172380/header.jpg?t=1748950986"/>
+    <hyperlink ref="C808" r:id="rId938" display="https://wwnj.lanzoup.com/iMjYW2iofw9g"/>
+    <hyperlink ref="D807" r:id="rId939" display="https://wwnj.lanzoup.com/ii1a52iofuwh"/>
+    <hyperlink ref="B809" r:id="rId940" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/360430/header.jpg?t=1756420682"/>
+    <hyperlink ref="C809" r:id="rId941" display="https://wwnj.lanzoup.com/iDLYt2iofwbi"/>
+    <hyperlink ref="C810" r:id="rId942" display="https://wwnj.lanzoup.com/iXsY82iofweb"/>
+    <hyperlink ref="B810" r:id="rId943" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/403190/header.jpg?t=1743274197"/>
+    <hyperlink ref="C811" r:id="rId944" display="https://wwnj.lanzoup.com/iNX0k2iofwhe"/>
+    <hyperlink ref="B811" r:id="rId945" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/446790/header.jpg?t=1710653365"/>
+    <hyperlink ref="C812" r:id="rId946" display="https://wwnj.lanzoup.com/ingbD2iofwkh"/>
+    <hyperlink ref="B812" r:id="rId947" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/609150/header.jpg?t=1724832639"/>
+    <hyperlink ref="C813" r:id="rId948" display="https://wwnj.lanzoup.com/iCKWN2iofwna"/>
+    <hyperlink ref="B813" r:id="rId949" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/448510/header_schinese.jpg?t=1752062652"/>
+    <hyperlink ref="C814" r:id="rId950" display="https://wwnj.lanzoup.com/iCy902iofwqd"/>
+    <hyperlink ref="B814" r:id="rId951" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/728880/header_schinese.jpg?t=1750087027"/>
+    <hyperlink ref="C815" r:id="rId952" display="https://wwnj.lanzoup.com/i9lso2iofwuh"/>
+    <hyperlink ref="B815" r:id="rId953" display="https://img.3dmgame.com/uploads/images/news/20190416/1555379770_618239.jpg"/>
+    <hyperlink ref="C816" r:id="rId954" display="https://wwnj.lanzoup.com/iELrq2iofwwj"/>
+    <hyperlink ref="B816" r:id="rId955" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/859150/header.jpg?t=1754645187"/>
+    <hyperlink ref="C817" r:id="rId956" display="https://wwnj.lanzoup.com/iFGGo2iofwyb"/>
+    <hyperlink ref="B817" r:id="rId957" display="https://img.fhyx.com/uploads/steam/c3/2020/12/21/2020122110928740.jpg"/>
+    <hyperlink ref="C818" r:id="rId958" display="https://wwnj.lanzoup.com/i5c062iofx2f"/>
+    <hyperlink ref="B818" r:id="rId959" display="https://www.switch520.org/wp-content/uploads/img/ns/nscn_c_MISTOVER.webp"/>
+    <hyperlink ref="C819" r:id="rId960" display="https://wwnj.lanzoup.com/imquY2iofx3g"/>
+    <hyperlink ref="B819" r:id="rId961" display="https://tse3.mm.bing.net/th/id/OIP.Zd60QtC07Aio4-WkK7PfBQHaDq?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C820" r:id="rId962" display="https://wwnj.lanzoup.com/iaBXR2iofx5i"/>
+    <hyperlink ref="B820" r:id="rId963" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/290790/header.jpg?t=1667235522"/>
+    <hyperlink ref="C821" r:id="rId964" display="https://wwnj.lanzoup.com/i594z2iofx8b" tooltip="https://wwnj.lanzoup.com/i594z2iofx8b"/>
+    <hyperlink ref="B821" r:id="rId965" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/347830/header.jpg?t=1730838810"/>
+    <hyperlink ref="C822" r:id="rId966" display="https://wwnj.lanzoup.com/iD13J2iofxad"/>
+    <hyperlink ref="B822" r:id="rId967" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/991560/header.jpg?t=1686067129"/>
+    <hyperlink ref="C823" r:id="rId968" display="https://wwnj.lanzoup.com/iMbaZ2iofxyh"/>
+    <hyperlink ref="B823" r:id="rId969" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/379720/header.jpg?t=1750784856"/>
+    <hyperlink ref="C824" r:id="rId970" display="https://wwnj.lanzoup.com/iyRQC2iofy1a"/>
+    <hyperlink ref="B824" r:id="rId971" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/232050/header.jpg?t=1571149287"/>
+    <hyperlink ref="C825" r:id="rId972" display="https://wwnj.lanzoup.com/iCedC2iofy4d"/>
+    <hyperlink ref="B825" r:id="rId973" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/304530/header.jpg?t=1620292667"/>
+    <hyperlink ref="C826" r:id="rId974" display="https://wwnj.lanzoup.com/i1DpL2iofy6f"/>
+    <hyperlink ref="B826" r:id="rId975" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/587110/header.jpg?t=1751394489"/>
+    <hyperlink ref="C827" r:id="rId976" display="https://wwnj.lanzoup.com/iWwQ52iofy9i"/>
+    <hyperlink ref="B827" r:id="rId977" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1020540/header.jpg?t=1747196780"/>
+    <hyperlink ref="C828" r:id="rId978" display="https://wwnj.lanzoup.com/iGYHG2iofyba"/>
+    <hyperlink ref="B828" r:id="rId979" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/312540/header.jpg?t=1740443601"/>
+    <hyperlink ref="C829" r:id="rId980" display="https://wwnj.lanzoup.com/ioHYP2iofyfe"/>
+    <hyperlink ref="B829" r:id="rId981" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/200710/header.jpg?t=1712608749"/>
+    <hyperlink ref="C830" r:id="rId982" display="https://wwnj.lanzoup.com/iS3re2iofyhg"/>
+    <hyperlink ref="B830" r:id="rId983" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/587100/header.jpg?t=1732151647"/>
+    <hyperlink ref="C831" r:id="rId984" display="https://wwnj.lanzoup.com/iN00T2iofyrg"/>
+    <hyperlink ref="B831" r:id="rId985" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/543870/header.jpg?t=1701323477"/>
+    <hyperlink ref="C832" r:id="rId986" display="https://wwnj.lanzoup.com/iYXi72iofyod"/>
+    <hyperlink ref="B832" r:id="rId987" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/579180/header.jpg?t=1732666782"/>
+    <hyperlink ref="C833" r:id="rId988" display="https://wwnj.lanzoup.com/izVRZ2iofyva"/>
+    <hyperlink ref="C834" r:id="rId989" display="https://wwnj.lanzoup.com/iq9mE2iofyyd"/>
+    <hyperlink ref="B834" r:id="rId990" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/245370/header.jpg?t=1728650181"/>
+    <hyperlink ref="C835" r:id="rId991" display="https://wwnj.lanzoup.com/iG6Zv2iofz0f"/>
+    <hyperlink ref="B835" r:id="rId992" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/349040/header.jpg?t=1703080866"/>
+    <hyperlink ref="C836" r:id="rId993" display="https://wwnj.lanzoup.com/iq8m12iofzoj"/>
+    <hyperlink ref="B836" r:id="rId994" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/226860/header.jpg?t=1747329377"/>
+    <hyperlink ref="C837" r:id="rId995" display="https://wwnj.lanzoup.com/iF8kz2iofzqb"/>
+    <hyperlink ref="B837" r:id="rId996" display="https://www.video-games-museum.com/en/screenshots/Vita/1/73899-title-Eiyuu-Densetsu-Ao-no-Kiseki-Evolution.jpg"/>
+    <hyperlink ref="C838" r:id="rId997" display="https://wwnj.lanzoup.com/iXVRG2iofzsd"/>
+    <hyperlink ref="B838" r:id="rId998" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/338390/header.jpg?t=1712312994"/>
+    <hyperlink ref="C839" r:id="rId999" display="https://wwnj.lanzoup.com/iZFQ82iofzvg"/>
+    <hyperlink ref="B839" r:id="rId1000" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262560/header.jpg?t=1605151411"/>
+    <hyperlink ref="C840" r:id="rId1001" display="https://wwnj.lanzoup.com/iRLkk2iofzyj"/>
+    <hyperlink ref="B840" r:id="rId1002" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262600/header.jpg?t=1752080349"/>
+    <hyperlink ref="C841" r:id="rId1003" display="https://wwnj.lanzoup.com/iCZrq2iofzza"/>
+    <hyperlink ref="B841" r:id="rId1004" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/231430/header.jpg?t=1750947634"/>
+    <hyperlink ref="C842" r:id="rId1005" display="https://wwnj.lanzoup.com/imBTa2iog01c"/>
+    <hyperlink ref="B842" r:id="rId1006" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1262580/header.jpg?t=1692306558"/>
+    <hyperlink ref="C843" r:id="rId1007" display="https://wwnj.lanzoup.com/isvaQ2iog04f"/>
+    <hyperlink ref="B843" r:id="rId1008" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/418240/header.jpg?t=1749228498"/>
+    <hyperlink ref="C844" r:id="rId1009" display="https://wwnj.lanzoup.com/iR7jH2iog06h"/>
+    <hyperlink ref="B844" r:id="rId1010" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/291650/header.jpg?t=1683221851"/>
+    <hyperlink ref="C845" r:id="rId1011" display="https://wwnj.lanzoup.com/ipqAU2iog0ab"/>
+    <hyperlink ref="B845" r:id="rId1012" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/375910/header.jpg?t=1692034365"/>
+    <hyperlink ref="C846" r:id="rId1013" display="https://wwnj.lanzoup.com/ipLxG2iog0cd"/>
+    <hyperlink ref="B846" r:id="rId1014" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/560130/header.jpg?t=1752510563"/>
+    <hyperlink ref="C847" r:id="rId1015" display="https://wwnj.lanzoup.com/iY6Pv2iog0ef"/>
+    <hyperlink ref="B847" r:id="rId1016" display="https://img.3dmgame.com/uploads/allimg/170707/323_170707160622_1_lit.jpg"/>
+    <hyperlink ref="C848" r:id="rId1017" display="https://wwnj.lanzoup.com/irfOF2iog0gh"/>
+    <hyperlink ref="B848" r:id="rId1018" display="https://cdn.cloudflare.steamstatic.com/steam/apps/645730/capsule_616x353_japanese.jpg?t=1542081188"/>
+    <hyperlink ref="C849" r:id="rId1019" display="https://wwnj.lanzoup.com/iMsIk2iog0kb"/>
+    <hyperlink ref="B849" r:id="rId1020" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/281610/header.jpg?t=1754416775"/>
+    <hyperlink ref="C850" r:id="rId1021" display="https://wwnj.lanzoup.com/iw9G02iog19g"/>
+    <hyperlink ref="B850" r:id="rId1022" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/502280/header.jpg?t=1748478952"/>
+    <hyperlink ref="C851" r:id="rId1023" display="https://wwnj.lanzoup.com/itr2i2iog1bi"/>
+    <hyperlink ref="B851" r:id="rId1024" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/410850/header.jpg?t=1596103807"/>
+    <hyperlink ref="C852" r:id="rId1025" display="https://wwnj.lanzoup.com/iA19I2iog1fc"/>
+    <hyperlink ref="B852" r:id="rId1026" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/350310/header.jpg?t=1748479689"/>
+    <hyperlink ref="C853" r:id="rId1027" display="https://wwnj.lanzoup.com/iTdGn2iog1jg"/>
+    <hyperlink ref="B853" r:id="rId1028" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/574050/header.jpg?t=1727790087"/>
+    <hyperlink ref="C854" r:id="rId1029" display="https://wwnj.lanzoup.com/ibTX42iog1li"/>
+    <hyperlink ref="B854" r:id="rId1030" display="https://media.cdn.queniuqe.com/steam/apps/325600/capsule_467x181.jpg"/>
+    <hyperlink ref="C855" r:id="rId1031" display="https://wwnj.lanzoup.com/it8aH2iog1na"/>
+    <hyperlink ref="B855" r:id="rId1032" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1295510/header_schinese.jpg?t=1727228467"/>
+    <hyperlink ref="C856" r:id="rId1033" display="https://wwnj.lanzoup.com/igMtA2iog1qd"/>
+    <hyperlink ref="B856" r:id="rId1034" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/679900/header.jpg?t=1746137100"/>
+    <hyperlink ref="C857" r:id="rId1035" display="https://wwnj.lanzoup.com/iPpFC2iog1sf"/>
+    <hyperlink ref="B857" r:id="rId1036" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/210770/header.jpg?t=1602684218"/>
+    <hyperlink ref="C858" r:id="rId1037" display="https://wwnj.lanzoup.com/iia892iog1uh"/>
+    <hyperlink ref="B858" r:id="rId1038" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/339230/header.jpg?t=1680018023"/>
+    <hyperlink ref="C859" r:id="rId1039" display="https://wwnj.lanzoup.com/iMIkA2iog1wj"/>
+    <hyperlink ref="B859" r:id="rId1040" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/200510/header.jpg?t=1587584126"/>
+    <hyperlink ref="C860" r:id="rId1041" display="https://wwnj.lanzoup.com/i4Fpl2iog22f"/>
+    <hyperlink ref="B860" r:id="rId1042" display="https://ts1.tc.mm.bing.net/th/id/R-C.a463f3daa014be4b15de2267d63d7750?rik=1qD7h1qHVpDIxA&amp;riu=http%3a%2f%2fyx.giaoyx.com%2fwp-content%2fuploads%2f2022%2f01%2f1643207595-e7c1c23e0f53a8a.jpg&amp;ehk=ddkceSG2ybxwJoGUx3PsTxhBJaUj1V%2bnz9B28DGdLvY%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
+    <hyperlink ref="C861" r:id="rId1043" display="https://wwnj.lanzoup.com/iPmm02iog24h"/>
+    <hyperlink ref="B861" r:id="rId1044" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/446390/header.jpg?t=1728663743"/>
+    <hyperlink ref="C862" r:id="rId1045" display="https://wwnj.lanzoup.com/iReKR2iog25i"/>
+    <hyperlink ref="B862" r:id="rId1046" display="https://ts1.tc.mm.bing.net/th/id/R-C.31b5c8cb87e5bcac5a7b0d8e7ddf6204?rik=%2fPX7paUQ2q2%2fEA&amp;riu=http%3a%2f%2fpic.962.net%2fup%2f2014-6%2f14029858896119459.jpg&amp;ehk=3TVTiFKArczO%2fFpjRCaUbJIM0bO2fqrWwytPA8%2fWYSE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
+    <hyperlink ref="C863" r:id="rId1047" display="https://wwnj.lanzoup.com/ipRjt2iog2sb"/>
+    <hyperlink ref="B863" r:id="rId1048" display="https://ts1.tc.mm.bing.net/th/id/OIP-C.ie753_uleSlL3_-QM8EK4AHaEo?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C864" r:id="rId1049" display="https://wwnj.lanzoup.com/ilAnJ2iog2wf"/>
+    <hyperlink ref="B864" r:id="rId1050" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/449800/header.jpg?t=1748478864"/>
+    <hyperlink ref="C865" r:id="rId1051" display="https://wwnj.lanzoup.com/izoyf2iog2yh"/>
+    <hyperlink ref="C866" r:id="rId1052" display="https://wwnj.lanzoup.com/iqlqf2iog31a"/>
+    <hyperlink ref="B866" r:id="rId1053" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/601050/header.jpg?t=1748480803"/>
+    <hyperlink ref="C867" r:id="rId1054" display="https://wwnj.lanzoup.com/ipNsH2iog32b"/>
+    <hyperlink ref="B867" r:id="rId1055" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/445190/header.jpg?t=1660137029"/>
+    <hyperlink ref="C868" r:id="rId1056" display="https://wwnj.lanzoup.com/iuwKN2iog35e"/>
+    <hyperlink ref="B868" r:id="rId1057" display="https://ts3.tc.mm.bing.net/th/id/OIP-C.nqaCQhSQ97i7u5-2hPlBbQHaDQ?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C869" r:id="rId1058" display="https://wwnj.lanzoup.com/iX8SS2iog38h"/>
+    <hyperlink ref="B869" r:id="rId1059" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/222730/header_schinese.jpg?t=1730204355"/>
+    <hyperlink ref="C870" r:id="rId1060" display="https://wwnj.lanzoup.com/ihHh02iog3aj"/>
+    <hyperlink ref="B870" r:id="rId1061" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/378800/header.jpg?t=1729175314"/>
+    <hyperlink ref="C871" r:id="rId1062" display="https://wwnj.lanzoup.com/irNKg2iog3cb"/>
+    <hyperlink ref="B871" r:id="rId1063" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/312660/header.jpg?t=1681207252"/>
+    <hyperlink ref="C872" r:id="rId1064" display="https://wwnj.lanzoup.com/iYr7J2iog3fe"/>
+    <hyperlink ref="C873" r:id="rId1065" display="https://wwnj.lanzoup.com/i8tdn2iog3ji"/>
+    <hyperlink ref="B873" r:id="rId1066" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/368070/header.jpg?t=1728377817"/>
+    <hyperlink ref="C874" r:id="rId1067" display="https://wwnj.lanzoup.com/i6WFi2iog3kj"/>
+    <hyperlink ref="B874" r:id="rId1068" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/348470/header.jpg?t=1748479250"/>
+    <hyperlink ref="C875" r:id="rId1069" display="https://wwnj.lanzoup.com/ixaTh2iog3qf"/>
+    <hyperlink ref="B875" r:id="rId1070" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/451020/header.jpg?t=1751623470"/>
+    <hyperlink ref="C876" r:id="rId1071" display="https://wwnj.lanzoup.com/ij8S32iog3ti"/>
+    <hyperlink ref="B876" r:id="rId1072" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/450250/header.jpg?t=1711394681"/>
+    <hyperlink ref="C877" r:id="rId1073" display="https://wwnj.lanzoup.com/i72wN2iog48d"/>
+    <hyperlink ref="B877" r:id="rId1074" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1097840/header.jpg?t=1684425784"/>
+    <hyperlink ref="C878" r:id="rId1075" display="https://wwnj.lanzoup.com/im7ox2iog4af"/>
+    <hyperlink ref="B878" r:id="rId1076" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/975270/header_schinese.jpg?t=1659991962"/>
+    <hyperlink ref="C879" r:id="rId1077" display="https://wwnj.lanzoup.com/i9XLl2iog4di"/>
+    <hyperlink ref="B879" r:id="rId1078" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/443810/header.jpg?t=1725011264"/>
+    <hyperlink ref="C880" r:id="rId1079" display="https://wwnj.lanzoup.com/iO7tm2iog4gb"/>
+    <hyperlink ref="B880" r:id="rId1080" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/785740/header.jpg?t=1727253481"/>
+    <hyperlink ref="C881" r:id="rId1081" display="https://wwnj.lanzoup.com/idrB82iog4je"/>
+    <hyperlink ref="B881" r:id="rId1082" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/893180/header.jpg?t=1603127197"/>
+    <hyperlink ref="C882" r:id="rId1083" display="https://wwnj.lanzoup.com/iWNs32iog4mh"/>
+    <hyperlink ref="B882" r:id="rId1084" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/282070/header.jpg?t=1749488980"/>
+    <hyperlink ref="C883" r:id="rId1085" display="https://wwnj.lanzoup.com/igcRD2iog4pa"/>
+    <hyperlink ref="B883" r:id="rId1086" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/322520/header_schinese.jpg?t=1748480092"/>
+    <hyperlink ref="C884" r:id="rId1087" display="https://wwnj.lanzoup.com/igCML2iog4te"/>
+    <hyperlink ref="B884" r:id="rId1088" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/730310/header_schinese.jpg?t=1748480390"/>
+    <hyperlink ref="C885" r:id="rId1089" display="https://wwnj.lanzoup.com/iMKR02iog4wh" tooltip="https://wwnj.lanzoup.com/iMKR02iog4wh"/>
+    <hyperlink ref="B885" r:id="rId1090" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/460810/header.jpg?t=1721737247"/>
+    <hyperlink ref="C886" r:id="rId1091" display="https://wwnj.lanzoup.com/ig6l42iog4xi"/>
+    <hyperlink ref="B886" r:id="rId1092" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/447290/header.jpg?t=1748282919"/>
+    <hyperlink ref="C887" r:id="rId1093" display="https://wwnj.lanzoup.com/iIJU12iog51c"/>
+    <hyperlink ref="B887" r:id="rId1094" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/225540/header.jpg?t=1728396027"/>
+    <hyperlink ref="C888" r:id="rId1095" display="https://wwnj.lanzoup.com/iKG4L2iog53e"/>
+    <hyperlink ref="B888" r:id="rId1096" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/204450/header.jpg?t=1728907994"/>
+    <hyperlink ref="C889" r:id="rId1097" display="https://wwnj.lanzoup.com/i6N5E2iog55g"/>
+    <hyperlink ref="B889" r:id="rId1098" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/429660/header.jpg?t=1701306268"/>
+    <hyperlink ref="C890" r:id="rId1099" display="https://wwnj.lanzoup.com/iyZtu2iog58j"/>
+    <hyperlink ref="B890" r:id="rId1100" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1121560/header_schinese.jpg?t=1754314106"/>
+    <hyperlink ref="C891" r:id="rId1101" display="https://wwnj.lanzoup.com/ingwb2iog5ab"/>
+    <hyperlink ref="B891" r:id="rId1102" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1238000/8c7ff2de01854469c5202e522d8f8c00ab6ad052/header.jpg?t=1756158782"/>
+    <hyperlink ref="C892" r:id="rId1103" display="https://wwnj.lanzoup.com/iWbrP2iog5sj" tooltip="https://wwnj.lanzoup.com/iWbrP2iog5sj"/>
+    <hyperlink ref="B892" r:id="rId1104" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/658260/header.jpg?t=1749026715"/>
+    <hyperlink ref="C893" r:id="rId1105" display="https://wwnj.lanzoup.com/iBEER2iog5ub"/>
+    <hyperlink ref="B893" r:id="rId1106" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1238020/header.jpg?t=1683275829"/>
+    <hyperlink ref="C894" r:id="rId1107" display="https://wwnj.lanzoup.com/iDKNC2iog5wd"/>
+    <hyperlink ref="B894" r:id="rId1108" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/405310/header.jpg?t=1745541213"/>
+    <hyperlink ref="C895" r:id="rId1109" display="https://wwnj.lanzoup.com/ibh4B2iog5yf"/>
+    <hyperlink ref="B895" r:id="rId1110" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/249130/header.jpg?t=1745537557"/>
+    <hyperlink ref="C896" r:id="rId1111" display="https://wwnj.lanzoup.com/iSOQF2iog61i"/>
+    <hyperlink ref="B896" r:id="rId1112" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/356190/header_schinese.jpg?t=1747346596"/>
+    <hyperlink ref="C897" r:id="rId1113" display="https://wwnj.lanzoup.com/iUlWA2iog63a"/>
+    <hyperlink ref="B897" r:id="rId1114" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/438640/header.jpg?t=1745615896"/>
+    <hyperlink ref="C898" r:id="rId1115" display="https://wwnj.lanzoup.com/iHdoK2iog66d"/>
+    <hyperlink ref="B898" r:id="rId1116" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/357190/header.jpg?t=1644282901"/>
+    <hyperlink ref="C899" r:id="rId1117" display="https://wwnj.lanzoup.com/ifiTS2iog68f"/>
+    <hyperlink ref="B899" r:id="rId1118" display="https://gpstatic.com/acache/37/37/1/fr/t620x300-2b25b84e8546ed7ffd7e295e0fcb6e62.jpg"/>
+    <hyperlink ref="C900" r:id="rId1119" display="https://wwnj.lanzoup.com/iMU3R2iog6bi"/>
+    <hyperlink ref="B900" r:id="rId1120" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/626630/header.jpg?t=1577627542"/>
+    <hyperlink ref="C901" r:id="rId1121" display="https://wwnj.lanzoup.com/ihmXx2iog6da"/>
+    <hyperlink ref="B901" r:id="rId1122" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/311290/header.jpg?t=1725002687"/>
+    <hyperlink ref="C902" r:id="rId1123" display="https://wwnj.lanzoup.com/ipUP42iog6fc"/>
+    <hyperlink ref="B902" r:id="rId1124" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/474960/header.jpg?t=1682524073"/>
+    <hyperlink ref="C903" r:id="rId1125" display="https://wwnj.lanzoup.com/iPBQP2iog6if"/>
+    <hyperlink ref="B903" r:id="rId1126" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/817540/header.jpg?t=1727857389"/>
+    <hyperlink ref="C904" r:id="rId1127" display="https://wwnj.lanzoup.com/iovEW2iog6jg"/>
+    <hyperlink ref="B904" r:id="rId1128" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/460790/header.jpg?t=1721737243"/>
+    <hyperlink ref="C905" r:id="rId1129" display="https://wwnj.lanzoup.com/irrnP2iog6li"/>
+    <hyperlink ref="B905" r:id="rId1130" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/322630/header.jpg?t=1711394595"/>
+    <hyperlink ref="C906" r:id="rId1131" display="https://wwnj.lanzoup.com/iCE9y2iog6pc"/>
+    <hyperlink ref="B906" r:id="rId1132" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1449280/header.jpg?t=1607351334"/>
+    <hyperlink ref="C907" r:id="rId1133" display="https://wwnj.lanzoup.com/iAoIR2iog76j"/>
+    <hyperlink ref="B907" r:id="rId1134" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/409870/header.jpg?t=1753896042"/>
+    <hyperlink ref="C908" r:id="rId1135" display="https://wwnj.lanzoup.com/iiORa2iog79c"/>
+    <hyperlink ref="B908" r:id="rId1136" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1163590/header.jpg?t=1727942220"/>
+    <hyperlink ref="C909" r:id="rId1137" display="https://wwnj.lanzoup.com/iafPU2iog7cf"/>
+    <hyperlink ref="B909" r:id="rId1138" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/620590/header.jpg?t=1713951716"/>
+    <hyperlink ref="C910" r:id="rId1139" display="https://wwnj.lanzoup.com/iiTMc2iog7eh"/>
+    <hyperlink ref="B910" r:id="rId1140" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/496460/header.jpg?t=1595944132"/>
+    <hyperlink ref="C911" r:id="rId1141" display="https://wwnj.lanzoup.com/i4StU2iog7fi"/>
+    <hyperlink ref="B911" r:id="rId1142" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/435530/header.jpg?t=1752529763"/>
+    <hyperlink ref="C912" r:id="rId1143" display="https://wwnj.lanzoup.com/ivKJ92iog7ib"/>
+    <hyperlink ref="B912" r:id="rId1144" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1222690/header.jpg?t=1726253375"/>
+    <hyperlink ref="C913" r:id="rId1145" display="https://wwnj.lanzoup.com/igpVF2iog7kd"/>
+    <hyperlink ref="B913" r:id="rId1146" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/552700/header.jpg?t=1724998897"/>
+    <hyperlink ref="C914" r:id="rId1147" display="https://wwnj.lanzoup.com/iY9Z22iog7ng"/>
+    <hyperlink ref="B914" r:id="rId1148" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/359870/header.jpg?t=1746079842"/>
+    <hyperlink ref="C915" r:id="rId1149" display="https://wwnj.lanzoup.com/iTyJy2iog7pi"/>
+    <hyperlink ref="B915" r:id="rId1150" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/323470/header.jpg?t=1701323766"/>
+    <hyperlink ref="C916" r:id="rId1151" display="https://wwnj.lanzoup.com/iLPmZ2iog7sb"/>
+    <hyperlink ref="B916" r:id="rId1152" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/595520/header.jpg?t=1746070496"/>
+    <hyperlink ref="C917" r:id="rId1153" display="https://wwnj.lanzoup.com/iV0xV2iog7ve"/>
+    <hyperlink ref="B917" r:id="rId1154" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/292120/header.jpg?t=1746070365"/>
+    <hyperlink ref="C918" r:id="rId1155" display="https://wwnj.lanzoup.com/iyRbY2iog7xg"/>
+    <hyperlink ref="B918" r:id="rId1156" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/345350/header.jpg?t=1746070303"/>
+    <hyperlink ref="C919" r:id="rId1157" display="https://wwnj.lanzoup.com/iBZlu2iog7zi"/>
+    <hyperlink ref="B919" r:id="rId1158" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1045620/header.jpg?t=1749026538" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1045620/header.jpg?t=1749026538"/>
+    <hyperlink ref="C920" r:id="rId1159" display="https://wwnj.lanzoup.com/iYdRv2iog81a"/>
+    <hyperlink ref="B920" r:id="rId1160" display="https://tse2.mm.bing.net/th/id/OIP.-a7YosPB-kqmcFkdmqyFYgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://tse2.mm.bing.net/th/id/OIP.-a7YosPB-kqmcFkdmqyFYgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C921" r:id="rId1161" display="https://wwnj.lanzoup.com/iHCt62iog83c"/>
+    <hyperlink ref="B921" r:id="rId1162" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/742300/header.jpg?t=1701220165"/>
+    <hyperlink ref="C922" r:id="rId1163" display="https://wwnj.lanzoup.com/iZ4HE2iog8nc"/>
+    <hyperlink ref="B922" r:id="rId1164" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/340170/header.jpg?t=1615560326"/>
+    <hyperlink ref="C923" r:id="rId1165" display="https://wwnj.lanzoup.com/iPMmq2iog8pe"/>
+    <hyperlink ref="B923" r:id="rId1166" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/520440/header.jpg?t=1667365271"/>
+    <hyperlink ref="C924" r:id="rId1167" display="https://wwnj.lanzoup.com/itgP02iog8rg"/>
+    <hyperlink ref="B924" r:id="rId1168" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/493840/header.jpg?t=1752626251"/>
+    <hyperlink ref="C925" r:id="rId1169" display="https://wwnj.lanzoup.com/idYPi2iog8uj"/>
+    <hyperlink ref="B925" r:id="rId1170" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/376300/header.jpg?t=1671009243"/>
+    <hyperlink ref="C926" r:id="rId1171" display="https://wwnj.lanzoup.com/iCgfD2iog8wb"/>
+    <hyperlink ref="B926" r:id="rId1172" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1100410/header.jpg?t=1744213240"/>
+    <hyperlink ref="C927" r:id="rId1173" display="https://wwnj.lanzoup.com/iu3Da2iog90f"/>
+    <hyperlink ref="B927" r:id="rId1174" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/437000/header.jpg?t=1671012068"/>
+    <hyperlink ref="C928" r:id="rId1175" display="https://wwnj.lanzoup.com/i9GSO2ild9pe" tooltip="https://wwnj.lanzoup.com/i9GSO2ild9pe"/>
+    <hyperlink ref="B928" r:id="rId1176" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1641960/77759270e8c71630a2a3c54971a3abfacddb9253/header_schinese.jpg?t=1756384934"/>
+    <hyperlink ref="C929" r:id="rId1177" display="https://wwnj.lanzoup.com/imsVu2ild9qf"/>
+    <hyperlink ref="B929" r:id="rId1178" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1971870/header.jpg?t=1750176505"/>
+    <hyperlink ref="C930" r:id="rId1179" display="https://wwnj.lanzoup.com/ioitG2wd0kad"/>
+    <hyperlink ref="B930" r:id="rId1180" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1601580/header.jpg?t=1756391134"/>
+    <hyperlink ref="C931" r:id="rId1181" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=warhammer-40000-space-marine-2-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=warhammer-40000-space-marine-2-trainer"/>
+    <hyperlink ref="B931" r:id="rId1182" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2183900/header_schinese.jpg?t=1756470993"/>
+    <hyperlink ref="C932" r:id="rId1183" display="https://wwar.lanzout.com/i6tAY336en7c"/>
+    <hyperlink ref="B932" r:id="rId1184" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1527950/595870daa009e93ccf9445d39ec277636fd0a662/header_alt_assets_14.jpg?t=1755512479"/>
+    <hyperlink ref="C933" r:id="rId1185" display="https://wwnj.lanzoup.com/i6JJj2ilda4j"/>
+    <hyperlink ref="B933" r:id="rId1186" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1659040/c62446d5c95f583a296d7f1b99045a61e2f81dea/header.jpg?t=1755614152"/>
+    <hyperlink ref="C934" r:id="rId1187" display="https://wwnj.lanzoup.com/iySzr2ilda7c"/>
+    <hyperlink ref="B934" r:id="rId1188" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1149460/header_schinese.jpg?t=1753143921"/>
+    <hyperlink ref="C935" r:id="rId1189" display="https://wwar.lanzout.com/ikpA7336exni"/>
+    <hyperlink ref="B935" r:id="rId1190" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2080690/header.jpg?t=1748457033"/>
+    <hyperlink ref="C936" r:id="rId1191" display="https://wwnj.lanzoup.com/icXT02ildahc"/>
+    <hyperlink ref="B936" r:id="rId1192" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1366540/header_schinese.jpg?t=1755848894"/>
+    <hyperlink ref="B937" r:id="rId1193" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2243210/header.jpg?t=1717062639"/>
+    <hyperlink ref="C938" r:id="rId1194" display="https://wwar.lanzout.com/ix2C42zrnjmj"/>
+    <hyperlink ref="B938" r:id="rId1195" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1643320/header.jpg?t=1754580652"/>
+    <hyperlink ref="C939" r:id="rId1196" display="https://wwar.lanzout.com/iDdOZ31jxqxg"/>
+    <hyperlink ref="B939" r:id="rId1197" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1611600/header.jpg?t=1752163598"/>
+    <hyperlink ref="C937" r:id="rId1198" display="https://wwdl.lanzoul.com/ihGRA34bh3yd"/>
+    <hyperlink ref="C940" r:id="rId1199" display="https://wwnj.lanzoup.com/i2J5V2ildcfc"/>
+    <hyperlink ref="B940" r:id="rId1200" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1401590/feba53ee089c62699c8f60cc4423ae4b3cc8372d/header_alt_assets_2.jpg?t=1755698316"/>
+    <hyperlink ref="C941" r:id="rId1201" display="https://wwnj.lanzoup.com/irrzD2ildcif"/>
+    <hyperlink ref="B941" r:id="rId1202" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1201230/17f0d0a9664adafb16f3238152780743708f7d6a/header_schinese.jpg?t=1753262056"/>
+    <hyperlink ref="C942" r:id="rId1203" display="https://wwnj.lanzoup.com/ifecp2ildcli"/>
+    <hyperlink ref="B942" r:id="rId1204" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1268590/header.jpg?t=1734339413"/>
+    <hyperlink ref="C943" r:id="rId1205" display="https://wwnj.lanzoup.com/imxCg2izpmha" tooltip="https://wwnj.lanzoup.com/imxCg2izpmha"/>
+    <hyperlink ref="B943" r:id="rId1206" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/220240/header.jpg?t=1752169206"/>
+    <hyperlink ref="C944" r:id="rId1207" display="https://wwnj.lanzoup.com/iaOyP2v2y9kj"/>
+    <hyperlink ref="B944" r:id="rId1208" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1371980/84ed28a12e7ab7547deaa2b979c653219ba17ef5/header.jpg?t=1753815511"/>
+    <hyperlink ref="C945" r:id="rId1209" display="https://wwnj.lanzoup.com/ih7zz2uwz4nc"/>
+    <hyperlink ref="B945" r:id="rId1210" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1812450/header.jpg?t=1747140005"/>
+    <hyperlink ref="C946" r:id="rId1211" display="https://wwnj.lanzoup.com/i1CJl2luindi"/>
+    <hyperlink ref="B946" r:id="rId1212" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3319980/header_schinese.jpg?t=1739507056"/>
+    <hyperlink ref="C947" r:id="rId1213" display="https://wwnj.lanzoup.com/iVg0E2ildcpc"/>
+    <hyperlink ref="B947" r:id="rId1214" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1290000/header_schinese.jpg?t=1750418634"/>
+    <hyperlink ref="C948" r:id="rId1215" display="https://wwnj.lanzoup.com/isB052ildcqd"/>
+    <hyperlink ref="B948" r:id="rId1216" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2933080/header.jpg?t=1753197166"/>
+    <hyperlink ref="C949" r:id="rId1217" display="https://wwnj.lanzn.com/ii19Q2y2s1ud"/>
+    <hyperlink ref="B949" r:id="rId1218" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1575940/header.jpg?t=1755107395" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1575940/header.jpg?t=1755107395"/>
+    <hyperlink ref="B950" r:id="rId1219" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/780310/dd5bfa48472fc06f2d802de1844d4dee850eb23b/header_alt_assets_6_schinese.jpg?t=1756478745"/>
+    <hyperlink ref="C951" r:id="rId1220" display="https://wwnj.lanzoup.com/iHtAn2ildcyb"/>
+    <hyperlink ref="B951" r:id="rId1221" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2021880/header.jpg?t=1750273812"/>
+    <hyperlink ref="C952" r:id="rId1222" display="https://wwnj.lanzoup.com/iXIeH2uwz4ed"/>
+    <hyperlink ref="B952" r:id="rId1223" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2103140/aea46491dd64ede9886db2290702f4ebd18f35c7/header_schinese.jpg?t=1751460044"/>
+    <hyperlink ref="C953" r:id="rId1224" display="https://wwnj.lanzoup.com/iZbcT2ilddxg"/>
+    <hyperlink ref="B953" r:id="rId1225" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2807150/f1d0b1b635e524cde6fe543702963274572f563b/header.jpg?t=1748003417"/>
+    <hyperlink ref="C954" r:id="rId1226" display="https://wwnj.lanzoup.com/it8942t3ljxi"/>
+    <hyperlink ref="B954" r:id="rId1227" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2457220/header.jpg?t=1752606152"/>
+    <hyperlink ref="C955" r:id="rId1228" display="https://wwar.lanzout.com/iISrS336ew2b" tooltip="https://wwar.lanzout.com/iISrS336ew2b"/>
+    <hyperlink ref="B955" r:id="rId1229" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3178350/header_schinese.jpg?t=1751598056"/>
+    <hyperlink ref="C956" r:id="rId1230" display="https://wwnj.lanzoup.com/iXKvo2osxzbe" tooltip="https://wwnj.lanzoup.com/iXKvo2osxzbe"/>
+    <hyperlink ref="B956" r:id="rId1231" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/638970/header_schinese.jpg?t=1741340656"/>
+    <hyperlink ref="B957" r:id="rId1232" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/927380/header_schinese.jpg?t=1741336670"/>
+    <hyperlink ref="C957" r:id="rId1233" display="https://wwnj.lanzoup.com/iBFsE2osxzfi"/>
+    <hyperlink ref="C958" r:id="rId1234" display="https://wwnj.lanzoup.com/i2JCW2osxzjc"/>
+    <hyperlink ref="B958" r:id="rId1235" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/834530/header_schinese.jpg?t=1741324846"/>
+    <hyperlink ref="C959" r:id="rId1236" display="https://wwnj.lanzoup.com/iJVOP2osy0ih"/>
+    <hyperlink ref="B959" r:id="rId1237" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2072450/header_schinese.jpg?t=1741338012"/>
+    <hyperlink ref="C960" r:id="rId1238" display="https://wwnj.lanzoup.com/iSWmT2r2psid"/>
+    <hyperlink ref="B960" r:id="rId1239" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3061810/header_schinese.jpg?t=1748588899"/>
+    <hyperlink ref="C961" r:id="rId1240" display="https://wwnj.lanzoup.com/igUxK2osxzpi"/>
+    <hyperlink ref="B961" r:id="rId1241" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1235140/header_schinese.jpg?t=1741337797"/>
+    <hyperlink ref="C962" r:id="rId1242" display="https://wwnj.lanzoup.com/iqfXS2osy0ba"/>
+    <hyperlink ref="B962" r:id="rId1243" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2375550/header_schinese.jpg?t=1741337896"/>
+    <hyperlink ref="C963" r:id="rId1244" display="https://wwnj.lanzoup.com/idtY02osy04d"/>
+    <hyperlink ref="B963" r:id="rId1245" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1388590/header_schinese.jpg?t=1741337639"/>
+    <hyperlink ref="C964" r:id="rId1246" display="https://wwnj.lanzoup.com/iX1Ip2osy00j"/>
+    <hyperlink ref="B964" r:id="rId1247" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1105510/header_schinese.jpg?t=1741336953"/>
+    <hyperlink ref="C965" r:id="rId1248" display="https://wwnj.lanzoup.com/iyf2Q2osxzsb"/>
+    <hyperlink ref="B965" r:id="rId1249" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1105500/header_schinese.jpg?t=1741336902"/>
+    <hyperlink ref="C966" r:id="rId1250" display="https://wwnj.lanzoup.com/ivjU82osxzxg"/>
+    <hyperlink ref="B966" r:id="rId1251" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1088710/header_schinese.jpg?t=1741336858"/>
+    <hyperlink ref="C967" r:id="rId1252" display="https://wwnj.lanzoup.com/iVxpW2osy07g"/>
+    <hyperlink ref="B967" r:id="rId1253" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1805480/header_schinese.jpg?t=1741337729"/>
+    <hyperlink ref="C968" r:id="rId1254" display="https://wwnj.lanzoup.com/iyzGm2ot1bdg"/>
+    <hyperlink ref="B968" r:id="rId1255" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1238810/header.jpg?t=1747167586" tooltip="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1238810/header.jpg?t=1747167586"/>
+    <hyperlink ref="C969" r:id="rId1256" display="https://wwnj.lanzoup.com/iOiru2ot1kjg"/>
+    <hyperlink ref="B969" r:id="rId1257" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/476600/header.jpg?t=1751302904"/>
+    <hyperlink ref="C970" r:id="rId1258" display="https://wwnj.lanzoup.com/ievlA2ot1khe"/>
+    <hyperlink ref="B970" r:id="rId1259" display="https://www.vortez.net/news_thumb/18661_callofduty-modern-warfare-2-remastered.jpg"/>
+    <hyperlink ref="C971" r:id="rId1260" display="https://wwnj.lanzoup.com/iBd512uwz4ba"/>
+    <hyperlink ref="B971" r:id="rId1261" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2445690/header.jpg?t=1755685015"/>
+    <hyperlink ref="C972" r:id="rId1262" display="https://wwnj.lanzoup.com/i1Yq22owb0ej"/>
+    <hyperlink ref="B972" r:id="rId1263" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1466860/header.jpg?t=1755633307"/>
+    <hyperlink ref="C973" r:id="rId1264" display="https://wwnj.lanzoup.com/iEF9d2m8s3nc"/>
+    <hyperlink ref="B973" r:id="rId1265" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2530980/header_schinese.jpg?t=1739758056"/>
+    <hyperlink ref="C974" r:id="rId1266" display="https://wwnj.lanzoup.com/iNRLs2t3ljmh"/>
+    <hyperlink ref="B974" r:id="rId1267" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1340990/header_schinese.jpg?t=1749459550"/>
+    <hyperlink ref="C975" r:id="rId1268" display="https://wwnj.lanzoup.com/iLpAq2qlk4ji"/>
+    <hyperlink ref="B975" r:id="rId1269" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1971650/header.jpg?t=1751339832"/>
+    <hyperlink ref="C976" r:id="rId1270" display="https://wwnj.lanzoup.com/idKmv2mgg6kd"/>
+    <hyperlink ref="B976" r:id="rId1271" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1991040/header.jpg?t=1750920038"/>
+    <hyperlink ref="C977" r:id="rId1272" display="https://wwar.lanzout.com/i6Gin326p7sh"/>
+    <hyperlink ref="B977" r:id="rId1273" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2287330/header.jpg?t=1752740587"/>
+    <hyperlink ref="C978" r:id="rId1274" display="https://wwnj.lanzoup.com/iuhYi2rnisyd"/>
+    <hyperlink ref="B978" r:id="rId1275" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3123410/header_schinese.jpg?t=1756083666"/>
+    <hyperlink ref="C979" r:id="rId1276" display="https://wwnj.lanzoup.com/iKhya2tb0oah"/>
+    <hyperlink ref="B979" r:id="rId1277" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1371580/header_schinese.jpg?t=1754043330"/>
+    <hyperlink ref="B980" r:id="rId1278" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/899770/250e7649349ffe7a23b29e14a9f035b0419f2d8d/header_alt_assets_0.jpg?t=1755792910"/>
+    <hyperlink ref="C980" r:id="rId1279" display="https://wwdl.lanzoul.com/iItwy34bgtsh"/>
+    <hyperlink ref="C981" r:id="rId1280" display="https://wwdl.lanzoul.com/i9sjW33mhiva"/>
+    <hyperlink ref="B981" r:id="rId1281" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2928600/cc87d8c871fe561f427e00722663de7cdc41b772/header_schinese.jpg?t=1755677388"/>
+    <hyperlink ref="C982" r:id="rId1282" display="https://wwnj.lanzoup.com/ibes82py91re"/>
+    <hyperlink ref="C983" r:id="rId1283" display="https://wwnj.lanzoup.com/isYzm2oszfsd"/>
+    <hyperlink ref="B983" r:id="rId1284" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/271590/header.jpg?t=1753979045"/>
+    <hyperlink ref="C984" r:id="rId1285" display="https://wwnj.lanzoup.com/io59w2osytdg"/>
+    <hyperlink ref="B984" r:id="rId1286" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1547000/header.jpg?t=1741117455"/>
+    <hyperlink ref="C985" r:id="rId1287" display="https://wwnj.lanzoup.com/iFMXW2osytra"/>
+    <hyperlink ref="B985" r:id="rId1288" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1546970/header.jpg?t=1741117830"/>
+    <hyperlink ref="C986" r:id="rId1289" display="https://wwnj.lanzoup.com/iIxMh2osytng"/>
+    <hyperlink ref="B986" r:id="rId1290" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1546990/header.jpg?t=1741117543"/>
+    <hyperlink ref="D983" r:id="rId1291" display="https://wwnj.lanzoup.com/itbrK2oszfwh"/>
+    <hyperlink ref="D982" r:id="rId1292" display="https://wwnj.lanzoup.com/iMbF22py91sf"/>
+    <hyperlink ref="C987" r:id="rId1293" display="https://wwnj.lanzoup.com/ij1aV2ot01jg"/>
+    <hyperlink ref="B987" r:id="rId1294" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/1196590/header.jpg?t=1741142800"/>
+    <hyperlink ref="D987" r:id="rId1295" display="https://wwnj.lanzoup.com/id2vg2ot01he"/>
+    <hyperlink ref="C988" r:id="rId1296" display="https://wwnj.lanzoup.com/iYFX92ot01bi"/>
+    <hyperlink ref="B988" r:id="rId1297" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/418370/header.jpg?t=1728436752"/>
+    <hyperlink ref="C989" r:id="rId1298" display="https://wwnj.lanzoup.com/i0HAY2ot016d"/>
+    <hyperlink ref="B989" r:id="rId1299" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/221040/header.jpg?t=1700452901"/>
+    <hyperlink ref="C990" r:id="rId1300" display="https://wwnj.lanzoup.com/iZh2F2ot01pc"/>
+    <hyperlink ref="B990" r:id="rId1301" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/21690/header.jpg?t=1712193350"/>
+    <hyperlink ref="C991" r:id="rId1302" display="https://wwnj.lanzoup.com/i6CqW2ot01na"/>
+    <hyperlink ref="B991" r:id="rId1303" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2050650/header.jpg?t=1736385712"/>
+    <hyperlink ref="D991" r:id="rId1304" display="https://wwnj.lanzoup.com/izBdm2ot01mj"/>
+    <hyperlink ref="C992" r:id="rId1305" display="https://wwnj.lanzoup.com/ixxrA2ot01cj"/>
+    <hyperlink ref="B992" r:id="rId1306" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/952060/header.jpg?t=1728438347"/>
+    <hyperlink ref="C993" r:id="rId1307" display="https://wwnj.lanzoup.com/io0yk2ot01da"/>
+    <hyperlink ref="B993" r:id="rId1308" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/883710/header_schinese.jpg?t=1728438541" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/883710/header_schinese.jpg?t=1728438541"/>
+    <hyperlink ref="C994" r:id="rId1309" display="https://wwnj.lanzoup.com/iYnYn2ot014b"/>
+    <hyperlink ref="B994" r:id="rId1310" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/304240/header.jpg?t=1709710949"/>
+    <hyperlink ref="C995" r:id="rId1311" display="https://wwnj.lanzoup.com/i6Z2G2ot018f"/>
+    <hyperlink ref="B995" r:id="rId1312" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/287290/header.jpg?t=1700453056"/>
+    <hyperlink ref="C996" r:id="rId1313" display="https://wwnj.lanzoup.com/i4ZG52ot01ah"/>
+    <hyperlink ref="B996" r:id="rId1314" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/222480/header.jpg?t=1756429321"/>
+    <hyperlink ref="C997" r:id="rId1315" display="https://wwnj.lanzoup.com/iFJZ22ot1oab"/>
+    <hyperlink ref="D997" r:id="rId1315" display="https://wwnj.lanzoup.com/iFJZ22ot1oab"/>
+    <hyperlink ref="C998" r:id="rId1316" display="https://wwnj.lanzoup.com/iFqwW2ot1ocd"/>
+    <hyperlink ref="D998" r:id="rId1317" display="https://wwnj.lanzoup.com/iGeoM2ot1obc"/>
+    <hyperlink ref="B997" r:id="rId1318" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/447040/header.jpg?t=1751986887"/>
+    <hyperlink ref="B998" r:id="rId1319" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/2239550/header.jpg?t=1747655055"/>
+    <hyperlink ref="C999" r:id="rId1320" display="https://wwnj.lanzoup.com/iU1dV2r2psoj"/>
+    <hyperlink ref="B999" r:id="rId1321" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/394360/67bbd0057627fc2244793bcdd09260c2539499cf/header.jpg?t=1747327288"/>
+    <hyperlink ref="C1000" r:id="rId1322" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=lost-soul-aside-trainer"/>
+    <hyperlink ref="C1001" r:id="rId1323" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=story-of-seasons-grand-bazaar-trainer" tooltip="https://flingtrainer.com/cn/get-latest-trainer.php?name=story-of-seasons-grand-bazaar-trainer"/>
+    <hyperlink ref="B1001" r:id="rId1324" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/2508780/b5b3cc42745093e94b1e5d28643f17d210cec0b5/header_schinese.jpg?t=1756419033"/>
+    <hyperlink ref="C1002" r:id="rId1325" display="https://wwoq.lanzouo.com/i0uJq335jagh"/>
+    <hyperlink ref="B1002" r:id="rId1326" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/209650/header.jpg?t=1646762527"/>
+    <hyperlink ref="C1003" r:id="rId1327" display="https://wwoq.lanzouo.com/izOnH333o4xg"/>
+    <hyperlink ref="C1004" r:id="rId1328" display="https://wwoq.lanzouo.com/iivjZ32sznli"/>
+    <hyperlink ref="B1004" r:id="rId1329" display="https://tse1.mm.bing.net/th/id/OIP.sroSuOliHB3H0iQLr9oQXgHaEK?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://tse1.mm.bing.net/th/id/OIP.sroSuOliHB3H0iQLr9oQXgHaEK?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C1005" r:id="rId1330" display="https://wwoq.lanzouo.com/i27Xa32mm3pi"/>
+    <hyperlink ref="C1006" r:id="rId1331" display="https://wwoq.lanzouo.com/iLOC633qrvqh"/>
+    <hyperlink ref="C1007" r:id="rId1332" display="https://wwnj.lanzoup.com/ilrd62im11lg" tooltip="https://wwnj.lanzoup.com/ilrd62im11lg"/>
+    <hyperlink ref="B1007" r:id="rId1333" display="https://img9.doubanio.com/lpic/s33963630.jpg" tooltip="https://img9.doubanio.com/lpic/s33963630.jpg"/>
+    <hyperlink ref="C1008" r:id="rId1334" display="https://wwnj.lanzoup.com/iF8iK2im11oj"/>
+    <hyperlink ref="C1009" r:id="rId1335" display="https://wwnj.lanzoup.com/iUUcY2r2pssd"/>
+    <hyperlink ref="A1009" r:id="rId1335" display="最终幻想3（Final Fantasy III） 像素复刻版" tooltip="https://wwnj.lanzoup.com/iUUcY2r2pssd"/>
+    <hyperlink ref="C1010" r:id="rId1336" display="https://wwnj.lanzoup.com/iHWmb2im11te"/>
+    <hyperlink ref="C1011" r:id="rId1337" display="https://wwnj.lanzoup.com/iDXKv2im11uf"/>
+    <hyperlink ref="B1011" r:id="rId1338" display="https://ts3.tc.mm.bing.net/th/id/OIP-C.zRDrlHf_lGPjHNSxPPQtqgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3" tooltip="https://ts3.tc.mm.bing.net/th/id/OIP-C.zRDrlHf_lGPjHNSxPPQtqgAAAA?rs=1&amp;pid=ImgDetMain&amp;o=7&amp;rm=3"/>
+    <hyperlink ref="C1012" r:id="rId1339" display="https://wwnj.lanzoup.com/iHVRo2im11xi"/>
+    <hyperlink ref="B1003" r:id="rId1340" display="https://wx.y.gtimg.cn/music/photo_new/T053XD00002LWLDO4LIDGt.jpg"/>
+    <hyperlink ref="B1005" r:id="rId1341" display="https://www.npbeta.com/wp-content/uploads/2017/08/2017-06-10-3-1-825x477.png"/>
+    <hyperlink ref="B1006" r:id="rId1342" display="https://th.bing.com/th/id/R.82a8fb76954c152f438a419ec0b1838f?rik=GdFXLHqftyrfDg&amp;riu=http%3a%2f%2fpic.3h3.com%2fup%2f2019-12%2f201912161658255166.jpg&amp;ehk=iAHUraJ%2fUJrlDa9W993NFssdc4dAvc0KYP1EydMSE4Y%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
+    <hyperlink ref="B1008" r:id="rId1343" display="https://img1.doubanio.com/lpic/s33963639.jpg"/>
+    <hyperlink ref="B1009" r:id="rId1344" display="https://img9.doubanio.com/lpic/s33964174.jpg"/>
+    <hyperlink ref="B1010" r:id="rId1345" display="https://www.pcgameres.com/upload/portal/20211205/c70c7d3bb69b8fd88dc75fbeb3e9828b.jpg" tooltip="https://www.pcgameres.com/upload/portal/20211205/c70c7d3bb69b8fd88dc75fbeb3e9828b.jpg"/>
+    <hyperlink ref="B1012" r:id="rId1346" display="https://www.pcgameres.com/upload/portal/20220820/389c87186a882fe1ab3f8e281a9d3c75.jpg" tooltip="https://www.pcgameres.com/upload/portal/20220820/389c87186a882fe1ab3f8e281a9d3c75.jpg"/>
+    <hyperlink ref="B453" r:id="rId1347" display="https://imgheybox.max-c.com/bbs/2021/07/09/92ec1caa2f573ffc341df1bbcfbab984/thumb.png" tooltip="https://imgheybox.max-c.com/bbs/2021/07/09/92ec1caa2f573ffc341df1bbcfbab984/thumb.png"/>
+    <hyperlink ref="B454" r:id="rId1348" display="https://th.bing.com/th/id/R.3f310025edbc8655600e3a4c572b287c?rik=HUBeYIKUqKnAJg&amp;riu=http%3a%2f%2fi0.hdslb.com%2fbfs%2farchive%2fec4ba51ffbec11f0010248e4760c498f16ae3d56.png&amp;ehk=Rb%2bQHXHSVvuiahHkLAjOlBeWBJunwtVW9CCZgeNvgX0%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0"/>
+    <hyperlink ref="B71" r:id="rId1349" display="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3287520/header.jpg?t=1749459551" tooltip="https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/3287520/header.jpg?t=1749459551"/>
+    <hyperlink ref="B451" r:id="rId1350" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1369760/ss_d9c2a038d2633169e2a8de8ff3dd80f6b804a4ca.1920x1080.jpg" tooltip="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1369760/ss_d9c2a038d2633169e2a8de8ff3dd80f6b804a4ca.1920x1080.jpg"/>
+    <hyperlink ref="C1013" r:id="rId1351" display="https://wwdl.lanzoul.com/iZfmd2zn7yjg"/>
+    <hyperlink ref="B1013" r:id="rId1352" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/460930/header.jpg?t=1734366779"/>
+    <hyperlink ref="D1013" r:id="rId1353" display="https://wwnj.lanzoup.com/iTGfi2iog20d"/>
+    <hyperlink ref="B698" r:id="rId1354" display="https://s3.gaming-cdn.com/images/products/8381/380x218/pro-evolution-soccer-2019-david-beckham-edition-david-beckham-edition-pc-game-steam-europe-cover.jpg?v=1673766000"/>
+    <hyperlink ref="C1014" r:id="rId1355" display="https://archive.flingtrainer.com/files/Alan%20Wake%20v1.03-v1.05.16.3541%20Plus%2011%20Trainer.rar"/>
+    <hyperlink ref="B1014" r:id="rId1356" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/108710/header.jpg?t=1726554283"/>
+    <hyperlink ref="B5" r:id="rId1357" display="https://shared.cdn.queniuqe.com/store_item_assets/steam/apps/1030300/7983574d464e6559ac7e24275727f73a8bcca1f3/header.jpg?t=1756994410"/>
+    <hyperlink ref="C5" r:id="rId1358" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=hollow-knight-silksong-trainer"/>
+    <hyperlink ref="C4" r:id="rId1359" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=daemon-x-machina-titanic-scion-trainer"/>
+    <hyperlink ref="B4" r:id="rId1360" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1342490/dc5fd7e61c483622ee093b53b1a0928e4ea90996/header.jpg?t=1757095114"/>
+    <hyperlink ref="D931" r:id="rId1361" display="https://wwoq.lanzouo.com/ia04D35t21ne"/>
+    <hyperlink ref="C3" r:id="rId1362" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=cronos-the-new-dawn-trainer"/>
+    <hyperlink ref="C2" r:id="rId1363" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=borderlands-4-trainer"/>
+    <hyperlink ref="B2" r:id="rId1364" display="https://shared.fastly.steamstatic.com/store_item_assets/steam/apps/1285190/986a88d1b0e1420b00183def2a7034508353afa3/header.jpg?t=1757716331"/>
+    <hyperlink ref="C950" r:id="rId1365" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=the-riftbreaker-trainer"/>
+    <hyperlink ref="C75" r:id="rId1366" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=kingdom-come-deliverance-ii-trainer"/>
+    <hyperlink ref="C228" r:id="rId1367" display="https://flingtrainer.com/cn/get-latest-trainer.php?name=mi-chang-sheng-trainer"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
